--- a/PythonResources/Data/Consumption/Sympheny/futu_1657_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1657_coo.xlsx
@@ -351,7 +351,7 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>0.8023757510678045</v>
+        <v>0.8023757510678043</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -391,7 +391,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.5160160391918039</v>
+        <v>0.5160160391918038</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -559,7 +559,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.631318977932337</v>
+        <v>0.6313189779323369</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -743,7 +743,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.9556225971838218</v>
+        <v>0.9556225971838216</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -791,7 +791,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.7962417742286224</v>
+        <v>0.7962417742286223</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -863,7 +863,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.292814308431478</v>
+        <v>0.2928143084314779</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.4145020928202871</v>
+        <v>0.414502092820287</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.3652075441174489</v>
+        <v>0.3652075441174488</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>0.7419327800542885</v>
+        <v>0.7419327800542884</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>0.4871719875667543</v>
+        <v>0.4871719875667542</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2135,7 +2135,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>0.5261064750529141</v>
+        <v>0.526106475052914</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>0.5617966661410927</v>
+        <v>0.5617966661410926</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>1.197362243423633</v>
+        <v>1.197362243423632</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>0.8882602189475116</v>
+        <v>0.8882602189475115</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2479,7 +2479,7 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>0.7551033925317294</v>
+        <v>0.7551033925317293</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -2487,7 +2487,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>0.6975032105932286</v>
+        <v>0.6975032105932285</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -2519,7 +2519,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>0.7415693719663485</v>
+        <v>0.7415693719663484</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -2575,7 +2575,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>7.489752771133206</v>
+        <v>7.489752771133205</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -2759,7 +2759,7 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>11.16843906261815</v>
+        <v>11.16843906261814</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -2807,7 +2807,7 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>6.541462811336692</v>
+        <v>6.541462811336691</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -2815,7 +2815,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>4.787198188117611</v>
+        <v>4.78719818811761</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -2903,7 +2903,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>1.289571184317652</v>
+        <v>1.289571184317651</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>7.27115108339571</v>
+        <v>7.271151083395709</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3383,7 +3383,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>7.859168815365832</v>
+        <v>7.859168815365831</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -3543,7 +3543,7 @@
         <v>400</v>
       </c>
       <c r="B400">
-        <v>1.106894144499262</v>
+        <v>1.106894144499261</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -3655,7 +3655,7 @@
         <v>414</v>
       </c>
       <c r="B414">
-        <v>0.7022509614195424</v>
+        <v>0.7022509614195422</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -3671,7 +3671,7 @@
         <v>416</v>
       </c>
       <c r="B416">
-        <v>0.6781429377792602</v>
+        <v>0.67814293777926</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -3743,7 +3743,7 @@
         <v>425</v>
       </c>
       <c r="B425">
-        <v>0.2438389140897419</v>
+        <v>0.2438389140897418</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -3759,7 +3759,7 @@
         <v>427</v>
       </c>
       <c r="B427">
-        <v>0.4814658944440179</v>
+        <v>0.4814658944440178</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>435</v>
       </c>
       <c r="B435">
-        <v>0.6066453271874384</v>
+        <v>0.6066453271874382</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>438</v>
       </c>
       <c r="B438">
-        <v>0.5764707330468662</v>
+        <v>0.5764707330468661</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -3855,7 +3855,7 @@
         <v>439</v>
       </c>
       <c r="B439">
-        <v>0.6356681521460713</v>
+        <v>0.6356681521460712</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>0.802765535549224</v>
+        <v>0.8027655355492239</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4031,7 +4031,7 @@
         <v>461</v>
       </c>
       <c r="B461">
-        <v>0.5258485725388921</v>
+        <v>0.5258485725388919</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -4151,7 +4151,7 @@
         <v>476</v>
       </c>
       <c r="B476">
-        <v>1.077024344238898</v>
+        <v>1.077024344238897</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -4215,7 +4215,7 @@
         <v>484</v>
       </c>
       <c r="B484">
-        <v>0.5526762954179516</v>
+        <v>0.5526762954179515</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -4223,7 +4223,7 @@
         <v>485</v>
       </c>
       <c r="B485">
-        <v>0.536258455832143</v>
+        <v>0.5362584558321429</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>497</v>
       </c>
       <c r="B497">
-        <v>0.6248948607648803</v>
+        <v>0.6248948607648802</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4359,7 +4359,7 @@
         <v>502</v>
       </c>
       <c r="B502">
-        <v>1.362226425512186</v>
+        <v>1.362226425512185</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -4399,7 +4399,7 @@
         <v>507</v>
       </c>
       <c r="B507">
-        <v>0.723460512487464</v>
+        <v>0.7234605124874639</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -4583,7 +4583,7 @@
         <v>530</v>
       </c>
       <c r="B530">
-        <v>0.9504762697449286</v>
+        <v>0.9504762697449284</v>
       </c>
     </row>
     <row r="531" spans="1:2">
@@ -4599,7 +4599,7 @@
         <v>532</v>
       </c>
       <c r="B532">
-        <v>0.7548454900177074</v>
+        <v>0.7548454900177073</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -4631,7 +4631,7 @@
         <v>536</v>
       </c>
       <c r="B536">
-        <v>0.7871096806639349</v>
+        <v>0.7871096806639348</v>
       </c>
     </row>
     <row r="537" spans="1:2">
@@ -4719,7 +4719,7 @@
         <v>547</v>
       </c>
       <c r="B547">
-        <v>0.3286205556509665</v>
+        <v>0.3286205556509664</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -4767,7 +4767,7 @@
         <v>553</v>
       </c>
       <c r="B553">
-        <v>0.943043988204477</v>
+        <v>0.9430439882044768</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -4775,7 +4775,7 @@
         <v>554</v>
       </c>
       <c r="B554">
-        <v>0.8314894280484224</v>
+        <v>0.8314894280484223</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -4783,7 +4783,7 @@
         <v>555</v>
       </c>
       <c r="B555">
-        <v>0.6880897688314263</v>
+        <v>0.6880897688314261</v>
       </c>
     </row>
     <row r="556" spans="1:2">
@@ -4991,7 +4991,7 @@
         <v>581</v>
       </c>
       <c r="B581">
-        <v>0.7586583442306916</v>
+        <v>0.7586583442306915</v>
       </c>
     </row>
     <row r="582" spans="1:2">
@@ -4999,7 +4999,7 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>0.8209652470500935</v>
+        <v>0.8209652470500934</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -5087,7 +5087,7 @@
         <v>593</v>
       </c>
       <c r="B593">
-        <v>0.5962032060799346</v>
+        <v>0.5962032060799345</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -5111,7 +5111,7 @@
         <v>596</v>
       </c>
       <c r="B596">
-        <v>4.322240985281387</v>
+        <v>4.322240985281386</v>
       </c>
     </row>
     <row r="597" spans="1:2">
@@ -5159,7 +5159,7 @@
         <v>602</v>
       </c>
       <c r="B602">
-        <v>1.417657881764593</v>
+        <v>1.417657881764592</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -5455,7 +5455,7 @@
         <v>639</v>
       </c>
       <c r="B639">
-        <v>7.946035071225055</v>
+        <v>7.946035071225054</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -5463,7 +5463,7 @@
         <v>640</v>
       </c>
       <c r="B640">
-        <v>6.065075837992676</v>
+        <v>6.065075837992675</v>
       </c>
     </row>
     <row r="641" spans="1:2">
@@ -5535,7 +5535,7 @@
         <v>649</v>
       </c>
       <c r="B649">
-        <v>1.060002778313447</v>
+        <v>1.060002778313446</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>652</v>
       </c>
       <c r="B652">
-        <v>0.6996748669897092</v>
+        <v>0.699674866989709</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5575,7 +5575,7 @@
         <v>654</v>
       </c>
       <c r="B654">
-        <v>0.5987851619305411</v>
+        <v>0.598785161930541</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -5623,7 +5623,7 @@
         <v>660</v>
       </c>
       <c r="B660">
-        <v>1.510587777413719</v>
+        <v>1.510587777413718</v>
       </c>
     </row>
     <row r="661" spans="1:2">
@@ -5647,7 +5647,7 @@
         <v>663</v>
       </c>
       <c r="B663">
-        <v>6.408408559784442</v>
+        <v>6.408408559784441</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -5751,7 +5751,7 @@
         <v>676</v>
       </c>
       <c r="B676">
-        <v>0.7073972888584356</v>
+        <v>0.7073972888584354</v>
       </c>
     </row>
     <row r="677" spans="1:2">
@@ -5943,7 +5943,7 @@
         <v>700</v>
       </c>
       <c r="B700">
-        <v>0.9402832590202872</v>
+        <v>0.940283259020287</v>
       </c>
     </row>
     <row r="701" spans="1:2">
@@ -6287,7 +6287,7 @@
         <v>743</v>
       </c>
       <c r="B743">
-        <v>4.500633326514548</v>
+        <v>4.500633326514547</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6295,7 +6295,7 @@
         <v>744</v>
       </c>
       <c r="B744">
-        <v>2.557422873960112</v>
+        <v>2.557422873960111</v>
       </c>
     </row>
     <row r="745" spans="1:2">
@@ -6335,7 +6335,7 @@
         <v>749</v>
       </c>
       <c r="B749">
-        <v>0.9767559497816914</v>
+        <v>0.9767559497816912</v>
       </c>
     </row>
     <row r="750" spans="1:2">
@@ -6415,7 +6415,7 @@
         <v>759</v>
       </c>
       <c r="B759">
-        <v>7.360889435433814</v>
+        <v>7.360889435433813</v>
       </c>
     </row>
     <row r="760" spans="1:2">
@@ -6471,7 +6471,7 @@
         <v>766</v>
       </c>
       <c r="B766">
-        <v>3.851363747464203</v>
+        <v>3.851363747464202</v>
       </c>
     </row>
     <row r="767" spans="1:2">
@@ -6735,7 +6735,7 @@
         <v>799</v>
       </c>
       <c r="B799">
-        <v>0.6302492686412231</v>
+        <v>0.630249268641223</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -6871,7 +6871,7 @@
         <v>816</v>
       </c>
       <c r="B816">
-        <v>1.076575945549746</v>
+        <v>1.076575945549745</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>819</v>
       </c>
       <c r="B819">
-        <v>0.6653474562313059</v>
+        <v>0.6653474562313058</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6911,7 +6911,7 @@
         <v>821</v>
       </c>
       <c r="B821">
-        <v>0.5585230626392454</v>
+        <v>0.5585230626392453</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>822</v>
       </c>
       <c r="B822">
-        <v>0.5277711185525105</v>
+        <v>0.5277711185525104</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -7087,7 +7087,7 @@
         <v>843</v>
       </c>
       <c r="B843">
-        <v>0.9527065403491416</v>
+        <v>0.9527065403491414</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -7103,7 +7103,7 @@
         <v>845</v>
       </c>
       <c r="B845">
-        <v>0.8545130888456577</v>
+        <v>0.8545130888456576</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7127,7 +7127,7 @@
         <v>848</v>
       </c>
       <c r="B848">
-        <v>0.9334781495025706</v>
+        <v>0.9334781495025704</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -7167,7 +7167,7 @@
         <v>853</v>
       </c>
       <c r="B853">
-        <v>7.587755726461561</v>
+        <v>7.58775572646156</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>6.929049259966321</v>
+        <v>6.92904925996632</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7367,7 +7367,7 @@
         <v>878</v>
       </c>
       <c r="B878">
-        <v>12.84559669556543</v>
+        <v>12.84559669556542</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -7519,7 +7519,7 @@
         <v>897</v>
       </c>
       <c r="B897">
-        <v>0.2537271309341757</v>
+        <v>0.2537271309341756</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -7663,7 +7663,7 @@
         <v>915</v>
       </c>
       <c r="B915">
-        <v>0.8510988112452531</v>
+        <v>0.851098811245253</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -7671,7 +7671,7 @@
         <v>916</v>
       </c>
       <c r="B916">
-        <v>0.7852779866723015</v>
+        <v>0.7852779866723014</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -7687,7 +7687,7 @@
         <v>918</v>
       </c>
       <c r="B918">
-        <v>0.7903246699580498</v>
+        <v>0.7903246699580497</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>0.857862890817557</v>
+        <v>0.8578628908175568</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7759,7 +7759,7 @@
         <v>927</v>
       </c>
       <c r="B927">
-        <v>0.0757623803464217</v>
+        <v>0.0757623803464216</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -7871,7 +7871,7 @@
         <v>941</v>
       </c>
       <c r="B941">
-        <v>0.7701379368150565</v>
+        <v>0.7701379368150564</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -7959,7 +7959,7 @@
         <v>952</v>
       </c>
       <c r="B952">
-        <v>0.4047428272328643</v>
+        <v>0.4047428272328642</v>
       </c>
     </row>
     <row r="953" spans="1:2">
@@ -8055,7 +8055,7 @@
         <v>964</v>
       </c>
       <c r="B964">
-        <v>0.5727370080143207</v>
+        <v>0.5727370080143206</v>
       </c>
     </row>
     <row r="965" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>984</v>
       </c>
       <c r="B984">
-        <v>0.8226650590743294</v>
+        <v>0.8226650590743293</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>0.4614432810826748</v>
+        <v>0.4614432810826747</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8375,7 +8375,7 @@
         <v>1004</v>
       </c>
       <c r="B1004">
-        <v>0.8372336204061849</v>
+        <v>0.8372336204061848</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -8527,7 +8527,7 @@
         <v>1023</v>
       </c>
       <c r="B1023">
-        <v>0.1095004252460771</v>
+        <v>0.109500425246077</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -8711,7 +8711,7 @@
         <v>1046</v>
       </c>
       <c r="B1046">
-        <v>6.707135869491951</v>
+        <v>6.70713586949195</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>1052</v>
       </c>
       <c r="B1052">
-        <v>8.323510569020868</v>
+        <v>8.323510569020867</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8767,7 +8767,7 @@
         <v>1053</v>
       </c>
       <c r="B1053">
-        <v>6.317468616487825</v>
+        <v>6.317468616487824</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
@@ -9015,7 +9015,7 @@
         <v>1084</v>
       </c>
       <c r="B1084">
-        <v>0.9859378654229514</v>
+        <v>0.9859378654229513</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
@@ -9047,7 +9047,7 @@
         <v>1088</v>
       </c>
       <c r="B1088">
-        <v>0.8995082854113341</v>
+        <v>0.899508285411334</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -9159,7 +9159,7 @@
         <v>1102</v>
       </c>
       <c r="B1102">
-        <v>5.287616986631858</v>
+        <v>5.287616986631857</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
@@ -9327,7 +9327,7 @@
         <v>1123</v>
       </c>
       <c r="B1123">
-        <v>0.6016719116613553</v>
+        <v>0.6016719116613551</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -9495,7 +9495,7 @@
         <v>1144</v>
       </c>
       <c r="B1144">
-        <v>0.5209542861932476</v>
+        <v>0.5209542861932475</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
@@ -9895,7 +9895,7 @@
         <v>1194</v>
       </c>
       <c r="B1194">
-        <v>0.7239821789362811</v>
+        <v>0.723982178936281</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
@@ -9991,7 +9991,7 @@
         <v>1206</v>
       </c>
       <c r="B1206">
-        <v>0.9959081421582104</v>
+        <v>0.9959081421582102</v>
       </c>
     </row>
     <row r="1207" spans="1:2">
@@ -10111,7 +10111,7 @@
         <v>1221</v>
       </c>
       <c r="B1221">
-        <v>4.742944461279748</v>
+        <v>4.742944461279747</v>
       </c>
     </row>
     <row r="1222" spans="1:2">
@@ -10151,7 +10151,7 @@
         <v>1226</v>
       </c>
       <c r="B1226">
-        <v>1.419372347340762</v>
+        <v>1.419372347340761</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -10183,7 +10183,7 @@
         <v>1230</v>
       </c>
       <c r="B1230">
-        <v>0.9821338033411272</v>
+        <v>0.982133803341127</v>
       </c>
     </row>
     <row r="1231" spans="1:2">
@@ -10199,7 +10199,7 @@
         <v>1232</v>
       </c>
       <c r="B1232">
-        <v>0.970466645292019</v>
+        <v>0.9704666452920188</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
@@ -10359,7 +10359,7 @@
         <v>1252</v>
       </c>
       <c r="B1252">
-        <v>0.8118067770919265</v>
+        <v>0.8118067770919264</v>
       </c>
     </row>
     <row r="1253" spans="1:2">
@@ -10375,7 +10375,7 @@
         <v>1254</v>
       </c>
       <c r="B1254">
-        <v>0.8220994319697129</v>
+        <v>0.8220994319697128</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -10463,7 +10463,7 @@
         <v>1265</v>
       </c>
       <c r="B1265">
-        <v>0.1761532784977882</v>
+        <v>0.1761532784977881</v>
       </c>
     </row>
     <row r="1266" spans="1:2">
@@ -10943,7 +10943,7 @@
         <v>1325</v>
       </c>
       <c r="B1325">
-        <v>0.9937804464175291</v>
+        <v>0.9937804464175288</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
@@ -10951,7 +10951,7 @@
         <v>1326</v>
       </c>
       <c r="B1326">
-        <v>0.9499721875584312</v>
+        <v>0.949972187558431</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
@@ -10991,7 +10991,7 @@
         <v>1331</v>
       </c>
       <c r="B1331">
-        <v>1.900934955227538</v>
+        <v>1.900934955227537</v>
       </c>
     </row>
     <row r="1332" spans="1:2">
@@ -10999,7 +10999,7 @@
         <v>1332</v>
       </c>
       <c r="B1332">
-        <v>5.84600523659332</v>
+        <v>5.846005236593319</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
@@ -11095,7 +11095,7 @@
         <v>1344</v>
       </c>
       <c r="B1344">
-        <v>2.730091537808216</v>
+        <v>2.730091537808215</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
@@ -11175,7 +11175,7 @@
         <v>1354</v>
       </c>
       <c r="B1354">
-        <v>0.6391088061399556</v>
+        <v>0.6391088061399555</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>5.373545415167365</v>
+        <v>5.373545415167364</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11303,7 +11303,7 @@
         <v>1370</v>
       </c>
       <c r="B1370">
-        <v>2.114384454105369</v>
+        <v>2.114384454105368</v>
       </c>
     </row>
     <row r="1371" spans="1:2">
@@ -11327,7 +11327,7 @@
         <v>1373</v>
       </c>
       <c r="B1373">
-        <v>1.419181851165632</v>
+        <v>1.419181851165631</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -11399,7 +11399,7 @@
         <v>1382</v>
       </c>
       <c r="B1382">
-        <v>3.918975236083376</v>
+        <v>3.918975236083375</v>
       </c>
     </row>
     <row r="1383" spans="1:2">
@@ -11407,7 +11407,7 @@
         <v>1383</v>
       </c>
       <c r="B1383">
-        <v>9.626064800351218</v>
+        <v>9.626064800351216</v>
       </c>
     </row>
     <row r="1384" spans="1:2">
@@ -11431,7 +11431,7 @@
         <v>1386</v>
       </c>
       <c r="B1386">
-        <v>3.732259677352233</v>
+        <v>3.732259677352232</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
@@ -11463,7 +11463,7 @@
         <v>1390</v>
       </c>
       <c r="B1390">
-        <v>9.278160170356337</v>
+        <v>9.278160170356331</v>
       </c>
     </row>
     <row r="1391" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>7.743464369302333</v>
+        <v>7.743464369302332</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -11671,7 +11671,7 @@
         <v>1416</v>
       </c>
       <c r="B1416">
-        <v>2.986628340790038</v>
+        <v>2.986628340790037</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
@@ -11839,7 +11839,7 @@
         <v>1437</v>
       </c>
       <c r="B1437">
-        <v>1.537647026413321</v>
+        <v>1.53764702641332</v>
       </c>
     </row>
     <row r="1438" spans="1:2">
@@ -11855,7 +11855,7 @@
         <v>1439</v>
       </c>
       <c r="B1439">
-        <v>1.467069658882896</v>
+        <v>1.467069658882895</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
@@ -11887,7 +11887,7 @@
         <v>1443</v>
       </c>
       <c r="B1443">
-        <v>0.6274064795662081</v>
+        <v>0.627406479566208</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -11911,7 +11911,7 @@
         <v>1446</v>
       </c>
       <c r="B1446">
-        <v>0.593539190338503</v>
+        <v>0.5935391903385029</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>4.049040163041281</v>
+        <v>4.04904016304128</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -12007,7 +12007,7 @@
         <v>1458</v>
       </c>
       <c r="B1458">
-        <v>0.8221580461774453</v>
+        <v>0.8221580461774451</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
@@ -12071,7 +12071,7 @@
         <v>1466</v>
       </c>
       <c r="B1466">
-        <v>0.9271536764882587</v>
+        <v>0.9271536764882586</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
@@ -12167,7 +12167,7 @@
         <v>1478</v>
       </c>
       <c r="B1478">
-        <v>7.835664518065193</v>
+        <v>7.835664518065192</v>
       </c>
     </row>
     <row r="1479" spans="1:2">
@@ -12183,7 +12183,7 @@
         <v>1480</v>
       </c>
       <c r="B1480">
-        <v>7.201517404609773</v>
+        <v>7.201517404609772</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -12295,7 +12295,7 @@
         <v>1494</v>
       </c>
       <c r="B1494">
-        <v>0.6219289818536275</v>
+        <v>0.6219289818536274</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
@@ -12327,7 +12327,7 @@
         <v>1498</v>
       </c>
       <c r="B1498">
-        <v>0.5413432383529174</v>
+        <v>0.5413432383529173</v>
       </c>
     </row>
     <row r="1499" spans="1:2">
@@ -12351,7 +12351,7 @@
         <v>1501</v>
       </c>
       <c r="B1501">
-        <v>8.445135050065327</v>
+        <v>8.445135050065325</v>
       </c>
     </row>
     <row r="1502" spans="1:2">
@@ -12511,7 +12511,7 @@
         <v>1521</v>
       </c>
       <c r="B1521">
-        <v>0.9943841727571714</v>
+        <v>0.9943841727571712</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
@@ -12519,7 +12519,7 @@
         <v>1522</v>
       </c>
       <c r="B1522">
-        <v>1.35652033238945</v>
+        <v>1.356520332389449</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
@@ -12527,7 +12527,7 @@
         <v>1523</v>
       </c>
       <c r="B1523">
-        <v>4.031807585967994</v>
+        <v>4.031807585967993</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
@@ -12663,7 +12663,7 @@
         <v>1540</v>
       </c>
       <c r="B1540">
-        <v>1.224518205865993</v>
+        <v>1.224518205865992</v>
       </c>
     </row>
     <row r="1541" spans="1:2">
@@ -12815,7 +12815,7 @@
         <v>1559</v>
       </c>
       <c r="B1559">
-        <v>3.496689176476244</v>
+        <v>3.496689176476243</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
@@ -12839,7 +12839,7 @@
         <v>1562</v>
       </c>
       <c r="B1562">
-        <v>1.577545717616677</v>
+        <v>1.577545717616676</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
@@ -12927,7 +12927,7 @@
         <v>1573</v>
       </c>
       <c r="B1573">
-        <v>4.44966827289134</v>
+        <v>4.449668272891339</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
@@ -12943,7 +12943,7 @@
         <v>1575</v>
       </c>
       <c r="B1575">
-        <v>8.220261642100477</v>
+        <v>8.220261642100475</v>
       </c>
     </row>
     <row r="1576" spans="1:2">
@@ -12951,7 +12951,7 @@
         <v>1576</v>
       </c>
       <c r="B1576">
-        <v>5.250777957072128</v>
+        <v>5.250777957072127</v>
       </c>
     </row>
     <row r="1577" spans="1:2">
@@ -13007,7 +13007,7 @@
         <v>1583</v>
       </c>
       <c r="B1583">
-        <v>3.531476708765345</v>
+        <v>3.531476708765344</v>
       </c>
     </row>
     <row r="1584" spans="1:2">
@@ -13015,7 +13015,7 @@
         <v>1584</v>
       </c>
       <c r="B1584">
-        <v>2.351786648972992</v>
+        <v>2.351786648972991</v>
       </c>
     </row>
     <row r="1585" spans="1:2">
@@ -13031,7 +13031,7 @@
         <v>1586</v>
       </c>
       <c r="B1586">
-        <v>1.636998108519517</v>
+        <v>1.636998108519516</v>
       </c>
     </row>
     <row r="1587" spans="1:2">
@@ -13231,7 +13231,7 @@
         <v>1611</v>
       </c>
       <c r="B1611">
-        <v>1.125433818404979</v>
+        <v>1.125433818404978</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
@@ -13303,7 +13303,7 @@
         <v>1620</v>
       </c>
       <c r="B1620">
-        <v>3.859921421793115</v>
+        <v>3.859921421793114</v>
       </c>
     </row>
     <row r="1621" spans="1:2">
@@ -13503,7 +13503,7 @@
         <v>1645</v>
       </c>
       <c r="B1645">
-        <v>4.262337264979008</v>
+        <v>4.262337264979007</v>
       </c>
     </row>
     <row r="1646" spans="1:2">
@@ -13527,7 +13527,7 @@
         <v>1648</v>
       </c>
       <c r="B1648">
-        <v>13.50239820030937</v>
+        <v>13.50239820030936</v>
       </c>
     </row>
     <row r="1649" spans="1:2">
@@ -13575,7 +13575,7 @@
         <v>1654</v>
       </c>
       <c r="B1654">
-        <v>7.526474572277474</v>
+        <v>7.526474572277473</v>
       </c>
     </row>
     <row r="1655" spans="1:2">
@@ -13583,7 +13583,7 @@
         <v>1655</v>
       </c>
       <c r="B1655">
-        <v>5.509149384755969</v>
+        <v>5.509149384755968</v>
       </c>
     </row>
     <row r="1656" spans="1:2">
@@ -13679,7 +13679,7 @@
         <v>1667</v>
       </c>
       <c r="B1667">
-        <v>8.740609271243695</v>
+        <v>8.740609271243693</v>
       </c>
     </row>
     <row r="1668" spans="1:2">
@@ -13703,7 +13703,7 @@
         <v>1670</v>
       </c>
       <c r="B1670">
-        <v>4.522232662063889</v>
+        <v>4.522232662063888</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
@@ -13711,7 +13711,7 @@
         <v>1671</v>
       </c>
       <c r="B1671">
-        <v>4.316819171066152</v>
+        <v>4.316819171066151</v>
       </c>
     </row>
     <row r="1672" spans="1:2">
@@ -13719,7 +13719,7 @@
         <v>1672</v>
       </c>
       <c r="B1672">
-        <v>9.813366501159685</v>
+        <v>9.813366501159679</v>
       </c>
     </row>
     <row r="1673" spans="1:2">
@@ -13727,7 +13727,7 @@
         <v>1673</v>
       </c>
       <c r="B1673">
-        <v>9.390845984721622</v>
+        <v>9.39084598472162</v>
       </c>
     </row>
     <row r="1674" spans="1:2">
@@ -13783,7 +13783,7 @@
         <v>1680</v>
       </c>
       <c r="B1680">
-        <v>2.480057981174289</v>
+        <v>2.480057981174288</v>
       </c>
     </row>
     <row r="1681" spans="1:2">
@@ -13855,7 +13855,7 @@
         <v>1689</v>
       </c>
       <c r="B1689">
-        <v>0.8175421773185291</v>
+        <v>0.817542177318529</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>6.400524948844451</v>
+        <v>6.40052494884445</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13911,7 +13911,7 @@
         <v>1696</v>
       </c>
       <c r="B1696">
-        <v>25.39785858853472</v>
+        <v>25.39785858853471</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
@@ -13943,7 +13943,7 @@
         <v>1700</v>
       </c>
       <c r="B1700">
-        <v>24.9707954709974</v>
+        <v>24.97079547099739</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -14063,7 +14063,7 @@
         <v>1715</v>
       </c>
       <c r="B1715">
-        <v>0.6456882509579027</v>
+        <v>0.6456882509579026</v>
       </c>
     </row>
     <row r="1716" spans="1:2">
@@ -14095,7 +14095,7 @@
         <v>1719</v>
       </c>
       <c r="B1719">
-        <v>7.876284164023655</v>
+        <v>7.876284164023654</v>
       </c>
     </row>
     <row r="1720" spans="1:2">
@@ -14215,7 +14215,7 @@
         <v>1734</v>
       </c>
       <c r="B1734">
-        <v>2.136819042114895</v>
+        <v>2.136819042114894</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14239,7 +14239,7 @@
         <v>1737</v>
       </c>
       <c r="B1737">
-        <v>1.272215517408127</v>
+        <v>1.272215517408126</v>
       </c>
     </row>
     <row r="1738" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>1.634586133871334</v>
+        <v>1.634586133871333</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14399,7 +14399,7 @@
         <v>1757</v>
       </c>
       <c r="B1757">
-        <v>1.631092727090491</v>
+        <v>1.63109272709049</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
@@ -14463,7 +14463,7 @@
         <v>1765</v>
       </c>
       <c r="B1765">
-        <v>14.37917882667252</v>
+        <v>14.37917882667251</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -14543,7 +14543,7 @@
         <v>1775</v>
       </c>
       <c r="B1775">
-        <v>8.168007075907159</v>
+        <v>8.168007075907157</v>
       </c>
     </row>
     <row r="1776" spans="1:2">
@@ -14551,7 +14551,7 @@
         <v>1776</v>
       </c>
       <c r="B1776">
-        <v>4.404125033483367</v>
+        <v>4.404125033483366</v>
       </c>
     </row>
     <row r="1777" spans="1:2">
@@ -14655,7 +14655,7 @@
         <v>1789</v>
       </c>
       <c r="B1789">
-        <v>5.772561634304786</v>
+        <v>5.772561634304785</v>
       </c>
     </row>
     <row r="1790" spans="1:2">
@@ -14671,7 +14671,7 @@
         <v>1791</v>
       </c>
       <c r="B1791">
-        <v>8.625549581465251</v>
+        <v>8.625549581465249</v>
       </c>
     </row>
     <row r="1792" spans="1:2">
@@ -14823,7 +14823,7 @@
         <v>1810</v>
       </c>
       <c r="B1810">
-        <v>0.5430547732186997</v>
+        <v>0.5430547732186995</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
@@ -14919,7 +14919,7 @@
         <v>1822</v>
       </c>
       <c r="B1822">
-        <v>4.183735612410035</v>
+        <v>4.183735612410034</v>
       </c>
     </row>
     <row r="1823" spans="1:2">
@@ -14975,7 +14975,7 @@
         <v>1829</v>
       </c>
       <c r="B1829">
-        <v>0.9139273805134722</v>
+        <v>0.913927380513472</v>
       </c>
     </row>
     <row r="1830" spans="1:2">
@@ -14983,7 +14983,7 @@
         <v>1830</v>
       </c>
       <c r="B1830">
-        <v>0.9979156787730408</v>
+        <v>0.9979156787730404</v>
       </c>
     </row>
     <row r="1831" spans="1:2">
@@ -14999,7 +14999,7 @@
         <v>1832</v>
       </c>
       <c r="B1832">
-        <v>0.5154562735079607</v>
+        <v>0.5154562735079606</v>
       </c>
     </row>
     <row r="1833" spans="1:2">
@@ -15031,7 +15031,7 @@
         <v>1836</v>
       </c>
       <c r="B1836">
-        <v>7.339583170923134</v>
+        <v>7.339583170923133</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
@@ -15191,7 +15191,7 @@
         <v>1856</v>
       </c>
       <c r="B1856">
-        <v>0.5753599938103398</v>
+        <v>0.5753599938103396</v>
       </c>
     </row>
     <row r="1857" spans="1:2">
@@ -15199,7 +15199,7 @@
         <v>1857</v>
       </c>
       <c r="B1857">
-        <v>0.5933516248737597</v>
+        <v>0.5933516248737596</v>
       </c>
     </row>
     <row r="1858" spans="1:2">
@@ -15319,7 +15319,7 @@
         <v>1872</v>
       </c>
       <c r="B1872">
-        <v>4.182123721697398</v>
+        <v>4.182123721697397</v>
       </c>
     </row>
     <row r="1873" spans="1:2">
@@ -15343,7 +15343,7 @@
         <v>1875</v>
       </c>
       <c r="B1875">
-        <v>2.120503777392618</v>
+        <v>2.120503777392617</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -15583,7 +15583,7 @@
         <v>1905</v>
       </c>
       <c r="B1905">
-        <v>0.7716032920083632</v>
+        <v>0.7716032920083631</v>
       </c>
     </row>
     <row r="1906" spans="1:2">
@@ -15743,7 +15743,7 @@
         <v>1925</v>
       </c>
       <c r="B1925">
-        <v>1.290640893608766</v>
+        <v>1.290640893608765</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -15887,7 +15887,7 @@
         <v>1943</v>
       </c>
       <c r="B1943">
-        <v>5.242044440120019</v>
+        <v>5.242044440120018</v>
       </c>
     </row>
     <row r="1944" spans="1:2">
@@ -15903,7 +15903,7 @@
         <v>1945</v>
       </c>
       <c r="B1945">
-        <v>2.119806268320604</v>
+        <v>2.119806268320603</v>
       </c>
     </row>
     <row r="1946" spans="1:2">
@@ -16119,7 +16119,7 @@
         <v>1972</v>
       </c>
       <c r="B1972">
-        <v>1.297305329027925</v>
+        <v>1.297305329027924</v>
       </c>
     </row>
     <row r="1973" spans="1:2">
@@ -16159,7 +16159,7 @@
         <v>1977</v>
       </c>
       <c r="B1977">
-        <v>0.578906153378142</v>
+        <v>0.5789061533781419</v>
       </c>
     </row>
     <row r="1978" spans="1:2">
@@ -16191,7 +16191,7 @@
         <v>1981</v>
       </c>
       <c r="B1981">
-        <v>4.652121746398597</v>
+        <v>4.652121746398596</v>
       </c>
     </row>
     <row r="1982" spans="1:2">
@@ -16287,7 +16287,7 @@
         <v>1993</v>
       </c>
       <c r="B1993">
-        <v>3.87891242509837</v>
+        <v>3.878912425098369</v>
       </c>
     </row>
     <row r="1994" spans="1:2">
@@ -16431,7 +16431,7 @@
         <v>2011</v>
       </c>
       <c r="B2011">
-        <v>9.762928975406066</v>
+        <v>9.762928975406064</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
@@ -16439,7 +16439,7 @@
         <v>2012</v>
       </c>
       <c r="B2012">
-        <v>7.754776911394662</v>
+        <v>7.754776911394661</v>
       </c>
     </row>
     <row r="2013" spans="1:2">
@@ -16551,7 +16551,7 @@
         <v>2026</v>
       </c>
       <c r="B2026">
-        <v>0.5781851986230351</v>
+        <v>0.578185198623035</v>
       </c>
     </row>
     <row r="2027" spans="1:2">
@@ -16751,7 +16751,7 @@
         <v>2051</v>
       </c>
       <c r="B2051">
-        <v>0.7444356067244564</v>
+        <v>0.7444356067244563</v>
       </c>
     </row>
     <row r="2052" spans="1:2">
@@ -17111,7 +17111,7 @@
         <v>2096</v>
       </c>
       <c r="B2096">
-        <v>0.5832699811438095</v>
+        <v>0.5832699811438093</v>
       </c>
     </row>
     <row r="2097" spans="1:2">
@@ -17319,7 +17319,7 @@
         <v>2122</v>
       </c>
       <c r="B2122">
-        <v>0.822348542352575</v>
+        <v>0.8223485423525749</v>
       </c>
     </row>
     <row r="2123" spans="1:2">
@@ -17495,7 +17495,7 @@
         <v>2144</v>
       </c>
       <c r="B2144">
-        <v>0.6765691463016488</v>
+        <v>0.6765691463016487</v>
       </c>
     </row>
     <row r="2145" spans="1:2">
@@ -17511,7 +17511,7 @@
         <v>2146</v>
       </c>
       <c r="B2146">
-        <v>0.7993424658176594</v>
+        <v>0.7993424658176593</v>
       </c>
     </row>
     <row r="2147" spans="1:2">
@@ -17607,7 +17607,7 @@
         <v>2158</v>
       </c>
       <c r="B2158">
-        <v>8.533701117948786</v>
+        <v>8.533701117948784</v>
       </c>
     </row>
     <row r="2159" spans="1:2">
@@ -17783,7 +17783,7 @@
         <v>2180</v>
       </c>
       <c r="B2180">
-        <v>39.44912023004905</v>
+        <v>39.44912023004904</v>
       </c>
     </row>
     <row r="2181" spans="1:2">
@@ -17791,7 +17791,7 @@
         <v>2181</v>
       </c>
       <c r="B2181">
-        <v>30.44128878575394</v>
+        <v>30.44128878575393</v>
       </c>
     </row>
     <row r="2182" spans="1:2">
@@ -17839,7 +17839,7 @@
         <v>2187</v>
       </c>
       <c r="B2187">
-        <v>2.065605710430575</v>
+        <v>2.065605710430574</v>
       </c>
     </row>
     <row r="2188" spans="1:2">
@@ -17871,7 +17871,7 @@
         <v>2191</v>
       </c>
       <c r="B2191">
-        <v>1.732937843735695</v>
+        <v>1.732937843735694</v>
       </c>
     </row>
     <row r="2192" spans="1:2">
@@ -17887,7 +17887,7 @@
         <v>2193</v>
       </c>
       <c r="B2193">
-        <v>1.60398072530393</v>
+        <v>1.603980725303929</v>
       </c>
     </row>
     <row r="2194" spans="1:2">
@@ -18079,7 +18079,7 @@
         <v>2217</v>
       </c>
       <c r="B2217">
-        <v>0.8226386826808498</v>
+        <v>0.8226386826808497</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -18239,7 +18239,7 @@
         <v>2237</v>
       </c>
       <c r="B2237">
-        <v>1.27480919610028</v>
+        <v>1.274809196100279</v>
       </c>
     </row>
     <row r="2238" spans="1:2">
@@ -18311,7 +18311,7 @@
         <v>2246</v>
       </c>
       <c r="B2246">
-        <v>3.779180350641914</v>
+        <v>3.779180350641913</v>
       </c>
     </row>
     <row r="2247" spans="1:2">
@@ -18343,7 +18343,7 @@
         <v>2250</v>
       </c>
       <c r="B2250">
-        <v>31.35860113676395</v>
+        <v>31.35860113676394</v>
       </c>
     </row>
     <row r="2251" spans="1:2">
@@ -18711,7 +18711,7 @@
         <v>2296</v>
       </c>
       <c r="B2296">
-        <v>0.7662987062085928</v>
+        <v>0.7662987062085926</v>
       </c>
     </row>
     <row r="2297" spans="1:2">
@@ -18807,7 +18807,7 @@
         <v>2308</v>
       </c>
       <c r="B2308">
-        <v>1.871100323491813</v>
+        <v>1.871100323491812</v>
       </c>
     </row>
     <row r="2309" spans="1:2">
@@ -18935,7 +18935,7 @@
         <v>2324</v>
       </c>
       <c r="B2324">
-        <v>29.53042399759448</v>
+        <v>29.53042399759447</v>
       </c>
     </row>
     <row r="2325" spans="1:2">
@@ -19159,7 +19159,7 @@
         <v>2352</v>
       </c>
       <c r="B2352">
-        <v>8.3566275963896</v>
+        <v>8.356627596389599</v>
       </c>
     </row>
     <row r="2353" spans="1:2">
@@ -19175,7 +19175,7 @@
         <v>2354</v>
       </c>
       <c r="B2354">
-        <v>2.797392371126408</v>
+        <v>2.797392371126407</v>
       </c>
     </row>
     <row r="2355" spans="1:2">
@@ -19231,7 +19231,7 @@
         <v>2361</v>
       </c>
       <c r="B2361">
-        <v>3.803065640292814</v>
+        <v>3.803065640292813</v>
       </c>
     </row>
     <row r="2362" spans="1:2">
@@ -19399,7 +19399,7 @@
         <v>2382</v>
       </c>
       <c r="B2382">
-        <v>4.67416068850593</v>
+        <v>4.674160688505929</v>
       </c>
     </row>
     <row r="2383" spans="1:2">
@@ -19479,7 +19479,7 @@
         <v>2392</v>
       </c>
       <c r="B2392">
-        <v>53.37204606373358</v>
+        <v>53.37204606373357</v>
       </c>
     </row>
     <row r="2393" spans="1:2">
@@ -19503,7 +19503,7 @@
         <v>2395</v>
       </c>
       <c r="B2395">
-        <v>72.92398733698657</v>
+        <v>72.92398733698656</v>
       </c>
     </row>
     <row r="2396" spans="1:2">
@@ -19671,7 +19671,7 @@
         <v>2416</v>
       </c>
       <c r="B2416">
-        <v>18.46212730888692</v>
+        <v>18.46212730888691</v>
       </c>
     </row>
     <row r="2417" spans="1:2">
@@ -19895,7 +19895,7 @@
         <v>2444</v>
       </c>
       <c r="B2444">
-        <v>38.33838099352255</v>
+        <v>38.33838099352254</v>
       </c>
     </row>
     <row r="2445" spans="1:2">
@@ -19935,7 +19935,7 @@
         <v>2449</v>
       </c>
       <c r="B2449">
-        <v>5.304644413978083</v>
+        <v>5.304644413978082</v>
       </c>
     </row>
     <row r="2450" spans="1:2">
@@ -19967,7 +19967,7 @@
         <v>2453</v>
       </c>
       <c r="B2453">
-        <v>2.372172670422275</v>
+        <v>2.372172670422274</v>
       </c>
     </row>
     <row r="2454" spans="1:2">
@@ -20063,7 +20063,7 @@
         <v>2465</v>
       </c>
       <c r="B2465">
-        <v>34.90944984118481</v>
+        <v>34.9094498411848</v>
       </c>
     </row>
     <row r="2466" spans="1:2">
@@ -20143,7 +20143,7 @@
         <v>2475</v>
       </c>
       <c r="B2475">
-        <v>2.475503657233492</v>
+        <v>2.475503657233491</v>
       </c>
     </row>
     <row r="2476" spans="1:2">
@@ -20223,7 +20223,7 @@
         <v>2485</v>
       </c>
       <c r="B2485">
-        <v>21.18428834438896</v>
+        <v>21.18428834438895</v>
       </c>
     </row>
     <row r="2486" spans="1:2">
@@ -20511,7 +20511,7 @@
         <v>2521</v>
       </c>
       <c r="B2521">
-        <v>19.67529487342555</v>
+        <v>19.67529487342554</v>
       </c>
     </row>
     <row r="2522" spans="1:2">
@@ -20535,7 +20535,7 @@
         <v>2524</v>
       </c>
       <c r="B2524">
-        <v>5.753043103129941</v>
+        <v>5.75304310312994</v>
       </c>
     </row>
     <row r="2525" spans="1:2">
@@ -20551,7 +20551,7 @@
         <v>2526</v>
       </c>
       <c r="B2526">
-        <v>4.525075451138904</v>
+        <v>4.525075451138903</v>
       </c>
     </row>
     <row r="2527" spans="1:2">
@@ -20623,7 +20623,7 @@
         <v>2535</v>
       </c>
       <c r="B2535">
-        <v>45.16341934186796</v>
+        <v>45.16341934186795</v>
       </c>
     </row>
     <row r="2536" spans="1:2">
@@ -20679,7 +20679,7 @@
         <v>2542</v>
       </c>
       <c r="B2542">
-        <v>56.66118233062986</v>
+        <v>56.66118233062985</v>
       </c>
     </row>
     <row r="2543" spans="1:2">
@@ -20719,7 +20719,7 @@
         <v>2547</v>
       </c>
       <c r="B2547">
-        <v>18.68629734635898</v>
+        <v>18.68629734635897</v>
       </c>
     </row>
     <row r="2548" spans="1:2">
@@ -20863,7 +20863,7 @@
         <v>2565</v>
       </c>
       <c r="B2565">
-        <v>63.02053079854239</v>
+        <v>63.02053079854238</v>
       </c>
     </row>
     <row r="2566" spans="1:2">
@@ -20903,7 +20903,7 @@
         <v>2570</v>
       </c>
       <c r="B2570">
-        <v>21.02881415837911</v>
+        <v>21.0288141583791</v>
       </c>
     </row>
     <row r="2571" spans="1:2">
@@ -20943,7 +20943,7 @@
         <v>2575</v>
       </c>
       <c r="B2575">
-        <v>3.967742256916624</v>
+        <v>3.967742256916623</v>
       </c>
     </row>
     <row r="2576" spans="1:2">
@@ -21023,7 +21023,7 @@
         <v>2585</v>
       </c>
       <c r="B2585">
-        <v>39.04175148630978</v>
+        <v>39.04175148630977</v>
       </c>
     </row>
     <row r="2586" spans="1:2">
@@ -21055,7 +21055,7 @@
         <v>2589</v>
       </c>
       <c r="B2589">
-        <v>50.94453865050166</v>
+        <v>50.94453865050165</v>
       </c>
     </row>
     <row r="2590" spans="1:2">
@@ -21063,7 +21063,7 @@
         <v>2590</v>
       </c>
       <c r="B2590">
-        <v>43.68077295728021</v>
+        <v>43.6807729572802</v>
       </c>
     </row>
     <row r="2591" spans="1:2">
@@ -21143,7 +21143,7 @@
         <v>2600</v>
       </c>
       <c r="B2600">
-        <v>4.354361571118671</v>
+        <v>4.35436157111867</v>
       </c>
     </row>
     <row r="2601" spans="1:2">
@@ -21159,7 +21159,7 @@
         <v>2602</v>
       </c>
       <c r="B2602">
-        <v>15.16449198186946</v>
+        <v>15.16449198186945</v>
       </c>
     </row>
     <row r="2603" spans="1:2">
@@ -21167,7 +21167,7 @@
         <v>2603</v>
       </c>
       <c r="B2603">
-        <v>21.84572037154374</v>
+        <v>21.84572037154373</v>
       </c>
     </row>
     <row r="2604" spans="1:2">
@@ -21231,7 +21231,7 @@
         <v>2611</v>
       </c>
       <c r="B2611">
-        <v>71.16087196839992</v>
+        <v>71.1608719683999</v>
       </c>
     </row>
     <row r="2612" spans="1:2">
@@ -21255,7 +21255,7 @@
         <v>2614</v>
       </c>
       <c r="B2614">
-        <v>35.72448039970201</v>
+        <v>35.724480399702</v>
       </c>
     </row>
     <row r="2615" spans="1:2">
@@ -21415,7 +21415,7 @@
         <v>2634</v>
       </c>
       <c r="B2634">
-        <v>73.82869763333414</v>
+        <v>73.82869763333413</v>
       </c>
     </row>
     <row r="2635" spans="1:2">
@@ -21447,7 +21447,7 @@
         <v>2638</v>
       </c>
       <c r="B2638">
-        <v>24.3155179356545</v>
+        <v>24.31551793565449</v>
       </c>
     </row>
     <row r="2639" spans="1:2">
@@ -21463,7 +21463,7 @@
         <v>2640</v>
       </c>
       <c r="B2640">
-        <v>7.591008814990701</v>
+        <v>7.5910088149907</v>
       </c>
     </row>
     <row r="2641" spans="1:2">
@@ -21503,7 +21503,7 @@
         <v>2645</v>
       </c>
       <c r="B2645">
-        <v>1.846280137227584</v>
+        <v>1.846280137227583</v>
       </c>
     </row>
     <row r="2646" spans="1:2">
@@ -21567,7 +21567,7 @@
         <v>2653</v>
       </c>
       <c r="B2653">
-        <v>3.834512162741176</v>
+        <v>3.834512162741175</v>
       </c>
     </row>
     <row r="2654" spans="1:2">
@@ -21607,7 +21607,7 @@
         <v>2658</v>
       </c>
       <c r="B2658">
-        <v>50.01667574209984</v>
+        <v>50.01667574209983</v>
       </c>
     </row>
     <row r="2659" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>5.208253349362366</v>
+        <v>5.208253349362365</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21799,7 +21799,7 @@
         <v>2682</v>
       </c>
       <c r="B2682">
-        <v>74.84741256372098</v>
+        <v>74.84741256372097</v>
       </c>
     </row>
     <row r="2683" spans="1:2">
@@ -21815,7 +21815,7 @@
         <v>2684</v>
       </c>
       <c r="B2684">
-        <v>45.08722087181601</v>
+        <v>45.087220871816</v>
       </c>
     </row>
     <row r="2685" spans="1:2">
@@ -21823,7 +21823,7 @@
         <v>2685</v>
       </c>
       <c r="B2685">
-        <v>35.21248529516064</v>
+        <v>35.21248529516063</v>
       </c>
     </row>
     <row r="2686" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>3.403580507493534</v>
+        <v>3.403580507493533</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -22079,7 +22079,7 @@
         <v>2717</v>
       </c>
       <c r="B2717">
-        <v>4.978046048493879</v>
+        <v>4.978046048493878</v>
       </c>
     </row>
     <row r="2718" spans="1:2">
@@ -22191,7 +22191,7 @@
         <v>2731</v>
       </c>
       <c r="B2731">
-        <v>85.72152038221154</v>
+        <v>85.72152038221152</v>
       </c>
     </row>
     <row r="2732" spans="1:2">
@@ -22199,7 +22199,7 @@
         <v>2732</v>
       </c>
       <c r="B2732">
-        <v>70.00968892853815</v>
+        <v>70.00968892853814</v>
       </c>
     </row>
     <row r="2733" spans="1:2">
@@ -22215,7 +22215,7 @@
         <v>2734</v>
       </c>
       <c r="B2734">
-        <v>54.22810656766337</v>
+        <v>54.22810656766336</v>
       </c>
     </row>
     <row r="2735" spans="1:2">
@@ -22335,7 +22335,7 @@
         <v>2749</v>
       </c>
       <c r="B2749">
-        <v>40.4965561222247</v>
+        <v>40.49655612222469</v>
       </c>
     </row>
     <row r="2750" spans="1:2">
@@ -22391,7 +22391,7 @@
         <v>2756</v>
       </c>
       <c r="B2756">
-        <v>80.27713969699973</v>
+        <v>80.27713969699971</v>
       </c>
     </row>
     <row r="2757" spans="1:2">
@@ -22407,7 +22407,7 @@
         <v>2758</v>
       </c>
       <c r="B2758">
-        <v>62.05720629446255</v>
+        <v>62.05720629446254</v>
       </c>
     </row>
     <row r="2759" spans="1:2">
@@ -22535,7 +22535,7 @@
         <v>2774</v>
       </c>
       <c r="B2774">
-        <v>60.14667619342924</v>
+        <v>60.14667619342923</v>
       </c>
     </row>
     <row r="2775" spans="1:2">
@@ -22607,7 +22607,7 @@
         <v>2783</v>
       </c>
       <c r="B2783">
-        <v>52.45737135207152</v>
+        <v>52.45737135207151</v>
       </c>
     </row>
     <row r="2784" spans="1:2">
@@ -22671,7 +22671,7 @@
         <v>2791</v>
       </c>
       <c r="B2791">
-        <v>3.92606755521898</v>
+        <v>3.926067555218979</v>
       </c>
     </row>
     <row r="2792" spans="1:2">
@@ -22727,7 +22727,7 @@
         <v>2798</v>
       </c>
       <c r="B2798">
-        <v>36.23647550424338</v>
+        <v>36.23647550424337</v>
       </c>
     </row>
     <row r="2799" spans="1:2">
@@ -22823,7 +22823,7 @@
         <v>2810</v>
       </c>
       <c r="B2810">
-        <v>19.25593952420504</v>
+        <v>19.25593952420503</v>
       </c>
     </row>
     <row r="2811" spans="1:2">
@@ -22887,7 +22887,7 @@
         <v>2818</v>
       </c>
       <c r="B2818">
-        <v>4.599398266543421</v>
+        <v>4.59939826654342</v>
       </c>
     </row>
     <row r="2819" spans="1:2">
@@ -22959,7 +22959,7 @@
         <v>2827</v>
       </c>
       <c r="B2827">
-        <v>59.68040017091904</v>
+        <v>59.68040017091903</v>
       </c>
     </row>
     <row r="2828" spans="1:2">
@@ -22967,7 +22967,7 @@
         <v>2828</v>
       </c>
       <c r="B2828">
-        <v>42.15738969831854</v>
+        <v>42.15738969831853</v>
       </c>
     </row>
     <row r="2829" spans="1:2">
@@ -23215,7 +23215,7 @@
         <v>2859</v>
       </c>
       <c r="B2859">
-        <v>2.040849999794851</v>
+        <v>2.04084999979485</v>
       </c>
     </row>
     <row r="2860" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>1.913838873059797</v>
+        <v>1.913838873059796</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23519,7 +23519,7 @@
         <v>2897</v>
       </c>
       <c r="B2897">
-        <v>41.90007332637388</v>
+        <v>41.90007332637387</v>
       </c>
     </row>
     <row r="2898" spans="1:2">
@@ -23671,7 +23671,7 @@
         <v>2916</v>
       </c>
       <c r="B2916">
-        <v>3.845121334340717</v>
+        <v>3.845121334340716</v>
       </c>
     </row>
     <row r="2917" spans="1:2">
@@ -23879,7 +23879,7 @@
         <v>2942</v>
       </c>
       <c r="B2942">
-        <v>37.72205259921774</v>
+        <v>37.72205259921773</v>
       </c>
     </row>
     <row r="2943" spans="1:2">
@@ -23887,7 +23887,7 @@
         <v>2943</v>
       </c>
       <c r="B2943">
-        <v>48.55718196956634</v>
+        <v>48.55718196956633</v>
       </c>
     </row>
     <row r="2944" spans="1:2">
@@ -23943,7 +23943,7 @@
         <v>2950</v>
       </c>
       <c r="B2950">
-        <v>58.42195313090722</v>
+        <v>58.42195313090721</v>
       </c>
     </row>
     <row r="2951" spans="1:2">
@@ -23951,7 +23951,7 @@
         <v>2951</v>
       </c>
       <c r="B2951">
-        <v>45.52272443526677</v>
+        <v>45.52272443526676</v>
       </c>
     </row>
     <row r="2952" spans="1:2">
@@ -24015,7 +24015,7 @@
         <v>2959</v>
       </c>
       <c r="B2959">
-        <v>3.631150169014069</v>
+        <v>3.631150169014068</v>
       </c>
     </row>
     <row r="2960" spans="1:2">
@@ -24071,7 +24071,7 @@
         <v>2966</v>
       </c>
       <c r="B2966">
-        <v>48.12402297442487</v>
+        <v>48.12402297442486</v>
       </c>
     </row>
     <row r="2967" spans="1:2">
@@ -24095,7 +24095,7 @@
         <v>2969</v>
       </c>
       <c r="B2969">
-        <v>71.31649268992909</v>
+        <v>71.31649268992908</v>
       </c>
     </row>
     <row r="2970" spans="1:2">
@@ -24207,7 +24207,7 @@
         <v>2983</v>
       </c>
       <c r="B2983">
-        <v>4.327721413704354</v>
+        <v>4.327721413704353</v>
       </c>
     </row>
     <row r="2984" spans="1:2">
@@ -24287,7 +24287,7 @@
         <v>2993</v>
       </c>
       <c r="B2993">
-        <v>108.0845990583042</v>
+        <v>108.0845990583041</v>
       </c>
     </row>
     <row r="2994" spans="1:2">
@@ -24319,7 +24319,7 @@
         <v>2997</v>
       </c>
       <c r="B2997">
-        <v>109.9239128969428</v>
+        <v>109.9239128969427</v>
       </c>
     </row>
     <row r="2998" spans="1:2">
@@ -24335,7 +24335,7 @@
         <v>2999</v>
       </c>
       <c r="B2999">
-        <v>79.53010161945195</v>
+        <v>79.53010161945194</v>
       </c>
     </row>
     <row r="3000" spans="1:2">
@@ -24391,7 +24391,7 @@
         <v>3006</v>
       </c>
       <c r="B3006">
-        <v>27.72264460271584</v>
+        <v>27.72264460271583</v>
       </c>
     </row>
     <row r="3007" spans="1:2">
@@ -24423,7 +24423,7 @@
         <v>3010</v>
       </c>
       <c r="B3010">
-        <v>54.06252143081971</v>
+        <v>54.0625214308197</v>
       </c>
     </row>
     <row r="3011" spans="1:2">
@@ -24431,7 +24431,7 @@
         <v>3011</v>
       </c>
       <c r="B3011">
-        <v>57.5858214576064</v>
+        <v>57.58582145760639</v>
       </c>
     </row>
     <row r="3012" spans="1:2">
@@ -24455,7 +24455,7 @@
         <v>3014</v>
       </c>
       <c r="B3014">
-        <v>71.88475743389344</v>
+        <v>71.88475743389343</v>
       </c>
     </row>
     <row r="3015" spans="1:2">
@@ -24527,7 +24527,7 @@
         <v>3023</v>
       </c>
       <c r="B3023">
-        <v>68.12406986579106</v>
+        <v>68.12406986579104</v>
       </c>
     </row>
     <row r="3024" spans="1:2">
@@ -24559,7 +24559,7 @@
         <v>3027</v>
       </c>
       <c r="B3027">
-        <v>36.85837224828276</v>
+        <v>36.85837224828275</v>
       </c>
     </row>
     <row r="3028" spans="1:2">
@@ -24567,7 +24567,7 @@
         <v>3028</v>
       </c>
       <c r="B3028">
-        <v>31.00808817452498</v>
+        <v>31.00808817452497</v>
       </c>
     </row>
     <row r="3029" spans="1:2">
@@ -24711,7 +24711,7 @@
         <v>3046</v>
       </c>
       <c r="B3046">
-        <v>72.59809234199516</v>
+        <v>72.59809234199514</v>
       </c>
     </row>
     <row r="3047" spans="1:2">
@@ -24815,7 +24815,7 @@
         <v>3059</v>
       </c>
       <c r="B3059">
-        <v>50.33055482450614</v>
+        <v>50.33055482450613</v>
       </c>
     </row>
     <row r="3060" spans="1:2">
@@ -24831,7 +24831,7 @@
         <v>3061</v>
       </c>
       <c r="B3061">
-        <v>63.71540223120844</v>
+        <v>63.71540223120843</v>
       </c>
     </row>
     <row r="3062" spans="1:2">
@@ -24895,7 +24895,7 @@
         <v>3069</v>
       </c>
       <c r="B3069">
-        <v>72.67165317269915</v>
+        <v>72.67165317269914</v>
       </c>
     </row>
     <row r="3070" spans="1:2">
@@ -24903,7 +24903,7 @@
         <v>3070</v>
       </c>
       <c r="B3070">
-        <v>63.56798749876178</v>
+        <v>63.56798749876177</v>
       </c>
     </row>
     <row r="3071" spans="1:2">
@@ -24911,7 +24911,7 @@
         <v>3071</v>
       </c>
       <c r="B3071">
-        <v>49.8335063429365</v>
+        <v>49.83350634293649</v>
       </c>
     </row>
     <row r="3072" spans="1:2">
@@ -25071,7 +25071,7 @@
         <v>3091</v>
       </c>
       <c r="B3091">
-        <v>58.38854303249983</v>
+        <v>58.38854303249982</v>
       </c>
     </row>
     <row r="3092" spans="1:2">
@@ -25087,7 +25087,7 @@
         <v>3093</v>
       </c>
       <c r="B3093">
-        <v>42.03254143584881</v>
+        <v>42.0325414358488</v>
       </c>
     </row>
     <row r="3094" spans="1:2">
@@ -25111,7 +25111,7 @@
         <v>3096</v>
       </c>
       <c r="B3096">
-        <v>16.74997699392347</v>
+        <v>16.74997699392346</v>
       </c>
     </row>
     <row r="3097" spans="1:2">
@@ -25159,7 +25159,7 @@
         <v>3102</v>
       </c>
       <c r="B3102">
-        <v>3.506301906544336</v>
+        <v>3.506301906544335</v>
       </c>
     </row>
     <row r="3103" spans="1:2">
@@ -25255,7 +25255,7 @@
         <v>3114</v>
       </c>
       <c r="B3114">
-        <v>80.22614533627265</v>
+        <v>80.22614533627264</v>
       </c>
     </row>
     <row r="3115" spans="1:2">
@@ -25263,7 +25263,7 @@
         <v>3115</v>
       </c>
       <c r="B3115">
-        <v>70.04016831655893</v>
+        <v>70.04016831655892</v>
       </c>
     </row>
     <row r="3116" spans="1:2">
@@ -25271,7 +25271,7 @@
         <v>3116</v>
       </c>
       <c r="B3116">
-        <v>55.38749559660765</v>
+        <v>55.38749559660764</v>
       </c>
     </row>
     <row r="3117" spans="1:2">
@@ -25319,7 +25319,7 @@
         <v>3122</v>
       </c>
       <c r="B3122">
-        <v>9.836988026875789</v>
+        <v>9.836988026875783</v>
       </c>
     </row>
     <row r="3123" spans="1:2">
@@ -25415,7 +25415,7 @@
         <v>3134</v>
       </c>
       <c r="B3134">
-        <v>39.43153596772937</v>
+        <v>39.43153596772936</v>
       </c>
     </row>
     <row r="3135" spans="1:2">
@@ -25463,7 +25463,7 @@
         <v>3140</v>
       </c>
       <c r="B3140">
-        <v>61.15542670850159</v>
+        <v>61.15542670850158</v>
       </c>
     </row>
     <row r="3141" spans="1:2">
@@ -25639,7 +25639,7 @@
         <v>3162</v>
       </c>
       <c r="B3162">
-        <v>84.10875045645815</v>
+        <v>84.10875045645814</v>
       </c>
     </row>
     <row r="3163" spans="1:2">
@@ -25791,7 +25791,7 @@
         <v>3181</v>
       </c>
       <c r="B3181">
-        <v>6.492256183945452</v>
+        <v>6.492256183945451</v>
       </c>
     </row>
     <row r="3182" spans="1:2">
@@ -25799,7 +25799,7 @@
         <v>3182</v>
       </c>
       <c r="B3182">
-        <v>9.677469460532418</v>
+        <v>9.677469460532416</v>
       </c>
     </row>
     <row r="3183" spans="1:2">
@@ -26111,7 +26111,7 @@
         <v>3221</v>
       </c>
       <c r="B3221">
-        <v>4.040130803465976</v>
+        <v>4.040130803465975</v>
       </c>
     </row>
     <row r="3222" spans="1:2">
@@ -26191,7 +26191,7 @@
         <v>3231</v>
       </c>
       <c r="B3231">
-        <v>43.46683109905743</v>
+        <v>43.46683109905742</v>
       </c>
     </row>
     <row r="3232" spans="1:2">
@@ -26199,7 +26199,7 @@
         <v>3232</v>
       </c>
       <c r="B3232">
-        <v>52.75073546177153</v>
+        <v>52.75073546177152</v>
       </c>
     </row>
     <row r="3233" spans="1:2">
@@ -26383,7 +26383,7 @@
         <v>3255</v>
       </c>
       <c r="B3255">
-        <v>46.86792050272234</v>
+        <v>46.86792050272233</v>
       </c>
     </row>
     <row r="3256" spans="1:2">
@@ -26423,7 +26423,7 @@
         <v>3260</v>
       </c>
       <c r="B3260">
-        <v>83.26499893615214</v>
+        <v>83.26499893615212</v>
       </c>
     </row>
     <row r="3261" spans="1:2">
@@ -26591,7 +26591,7 @@
         <v>3281</v>
       </c>
       <c r="B3281">
-        <v>51.28303570015551</v>
+        <v>51.2830357001555</v>
       </c>
     </row>
     <row r="3282" spans="1:2">
@@ -26607,7 +26607,7 @@
         <v>3283</v>
       </c>
       <c r="B3283">
-        <v>99.80475607404382</v>
+        <v>99.80475607404379</v>
       </c>
     </row>
     <row r="3284" spans="1:2">
@@ -26623,7 +26623,7 @@
         <v>3285</v>
       </c>
       <c r="B3285">
-        <v>73.98636985213395</v>
+        <v>73.98636985213393</v>
       </c>
     </row>
     <row r="3286" spans="1:2">
@@ -26919,7 +26919,7 @@
         <v>3322</v>
       </c>
       <c r="B3322">
-        <v>38.70794357327451</v>
+        <v>38.7079435732745</v>
       </c>
     </row>
     <row r="3323" spans="1:2">
@@ -26975,7 +26975,7 @@
         <v>3329</v>
       </c>
       <c r="B3329">
-        <v>77.9179178357759</v>
+        <v>77.91791783577588</v>
       </c>
     </row>
     <row r="3330" spans="1:2">
@@ -27007,7 +27007,7 @@
         <v>3333</v>
       </c>
       <c r="B3333">
-        <v>77.00060548476588</v>
+        <v>77.00060548476587</v>
       </c>
     </row>
     <row r="3334" spans="1:2">
@@ -27039,7 +27039,7 @@
         <v>3337</v>
       </c>
       <c r="B3337">
-        <v>30.57756681873147</v>
+        <v>30.57756681873146</v>
       </c>
     </row>
     <row r="3338" spans="1:2">
@@ -27071,7 +27071,7 @@
         <v>3341</v>
       </c>
       <c r="B3341">
-        <v>7.091322694073107</v>
+        <v>7.091322694073106</v>
       </c>
     </row>
     <row r="3342" spans="1:2">
@@ -27095,7 +27095,7 @@
         <v>3344</v>
       </c>
       <c r="B3344">
-        <v>11.46936440511562</v>
+        <v>11.46936440511561</v>
       </c>
     </row>
     <row r="3345" spans="1:2">
@@ -27295,7 +27295,7 @@
         <v>3369</v>
       </c>
       <c r="B3369">
-        <v>17.3045846274862</v>
+        <v>17.30458462748619</v>
       </c>
     </row>
     <row r="3370" spans="1:2">
@@ -27327,7 +27327,7 @@
         <v>3373</v>
       </c>
       <c r="B3373">
-        <v>31.21089333327863</v>
+        <v>31.21089333327862</v>
       </c>
     </row>
     <row r="3374" spans="1:2">
@@ -27335,7 +27335,7 @@
         <v>3374</v>
       </c>
       <c r="B3374">
-        <v>35.99205425799982</v>
+        <v>35.99205425799981</v>
       </c>
     </row>
     <row r="3375" spans="1:2">
@@ -27351,7 +27351,7 @@
         <v>3376</v>
       </c>
       <c r="B3376">
-        <v>54.52147067736338</v>
+        <v>54.52147067736337</v>
       </c>
     </row>
     <row r="3377" spans="1:2">
@@ -27399,7 +27399,7 @@
         <v>3382</v>
       </c>
       <c r="B3382">
-        <v>73.3650592501719</v>
+        <v>73.36505925017188</v>
       </c>
     </row>
     <row r="3383" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>25.53073699746377</v>
+        <v>25.53073699746376</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27543,7 +27543,7 @@
         <v>3400</v>
       </c>
       <c r="B3400">
-        <v>99.29745010612103</v>
+        <v>99.29745010612102</v>
       </c>
     </row>
     <row r="3401" spans="1:2">
@@ -27631,7 +27631,7 @@
         <v>3411</v>
       </c>
       <c r="B3411">
-        <v>33.19234662566799</v>
+        <v>33.19234662566798</v>
       </c>
     </row>
     <row r="3412" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>43.72414747100209</v>
+        <v>43.72414747100208</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -27719,7 +27719,7 @@
         <v>3422</v>
       </c>
       <c r="B3422">
-        <v>59.05322814818376</v>
+        <v>59.05322814818375</v>
       </c>
     </row>
     <row r="3423" spans="1:2">
@@ -27727,7 +27727,7 @@
         <v>3423</v>
       </c>
       <c r="B3423">
-        <v>66.45825408203997</v>
+        <v>66.45825408203996</v>
       </c>
     </row>
     <row r="3424" spans="1:2">
@@ -27767,7 +27767,7 @@
         <v>3428</v>
       </c>
       <c r="B3428">
-        <v>81.79261003791754</v>
+        <v>81.79261003791753</v>
       </c>
     </row>
     <row r="3429" spans="1:2">
@@ -27847,7 +27847,7 @@
         <v>3438</v>
       </c>
       <c r="B3438">
-        <v>4.835877287639261</v>
+        <v>4.83587728763926</v>
       </c>
     </row>
     <row r="3439" spans="1:2">
@@ -27959,7 +27959,7 @@
         <v>3452</v>
       </c>
       <c r="B3452">
-        <v>64.58846085538059</v>
+        <v>64.58846085538057</v>
       </c>
     </row>
     <row r="3453" spans="1:2">
@@ -27975,7 +27975,7 @@
         <v>3454</v>
       </c>
       <c r="B3454">
-        <v>40.23630903989342</v>
+        <v>40.23630903989341</v>
       </c>
     </row>
     <row r="3455" spans="1:2">
@@ -28015,7 +28015,7 @@
         <v>3459</v>
       </c>
       <c r="B3459">
-        <v>2.991669162655013</v>
+        <v>2.991669162655012</v>
       </c>
     </row>
     <row r="3460" spans="1:2">
@@ -28087,7 +28087,7 @@
         <v>3468</v>
       </c>
       <c r="B3468">
-        <v>7.100437203375476</v>
+        <v>7.100437203375475</v>
       </c>
     </row>
     <row r="3469" spans="1:2">
@@ -28151,7 +28151,7 @@
         <v>3476</v>
       </c>
       <c r="B3476">
-        <v>66.71058824632739</v>
+        <v>66.71058824632738</v>
       </c>
     </row>
     <row r="3477" spans="1:2">
@@ -28351,7 +28351,7 @@
         <v>3501</v>
       </c>
       <c r="B3501">
-        <v>94.9822721328714</v>
+        <v>94.98227213287136</v>
       </c>
     </row>
     <row r="3502" spans="1:2">
@@ -28399,7 +28399,7 @@
         <v>3507</v>
       </c>
       <c r="B3507">
-        <v>44.06293759169461</v>
+        <v>44.0629375916946</v>
       </c>
     </row>
     <row r="3508" spans="1:2">
@@ -28423,7 +28423,7 @@
         <v>3510</v>
       </c>
       <c r="B3510">
-        <v>43.93076255325834</v>
+        <v>43.93076255325833</v>
       </c>
     </row>
     <row r="3511" spans="1:2">
@@ -28471,7 +28471,7 @@
         <v>3516</v>
       </c>
       <c r="B3516">
-        <v>56.94165131462877</v>
+        <v>56.94165131462876</v>
       </c>
     </row>
     <row r="3517" spans="1:2">
@@ -28479,7 +28479,7 @@
         <v>3517</v>
       </c>
       <c r="B3517">
-        <v>66.05352297764865</v>
+        <v>66.05352297764864</v>
       </c>
     </row>
     <row r="3518" spans="1:2">
@@ -28503,7 +28503,7 @@
         <v>3520</v>
       </c>
       <c r="B3520">
-        <v>98.27345989703829</v>
+        <v>98.27345989703828</v>
       </c>
     </row>
     <row r="3521" spans="1:2">
@@ -28575,7 +28575,7 @@
         <v>3529</v>
       </c>
       <c r="B3529">
-        <v>64.02283375076419</v>
+        <v>64.02283375076418</v>
       </c>
     </row>
     <row r="3530" spans="1:2">
@@ -28583,7 +28583,7 @@
         <v>3530</v>
       </c>
       <c r="B3530">
-        <v>55.06658280927348</v>
+        <v>55.06658280927347</v>
       </c>
     </row>
     <row r="3531" spans="1:2">
@@ -28655,7 +28655,7 @@
         <v>3539</v>
       </c>
       <c r="B3539">
-        <v>74.53939490208791</v>
+        <v>74.53939490208789</v>
       </c>
     </row>
     <row r="3540" spans="1:2">
@@ -28679,7 +28679,7 @@
         <v>3542</v>
       </c>
       <c r="B3542">
-        <v>74.53675726273995</v>
+        <v>74.53675726273994</v>
       </c>
     </row>
     <row r="3543" spans="1:2">
@@ -28703,7 +28703,7 @@
         <v>3545</v>
       </c>
       <c r="B3545">
-        <v>85.25729585697196</v>
+        <v>85.25729585697195</v>
       </c>
     </row>
     <row r="3546" spans="1:2">
@@ -28743,7 +28743,7 @@
         <v>3550</v>
       </c>
       <c r="B3550">
-        <v>97.95958081463201</v>
+        <v>97.95958081463198</v>
       </c>
     </row>
     <row r="3551" spans="1:2">
@@ -28791,7 +28791,7 @@
         <v>3556</v>
       </c>
       <c r="B3556">
-        <v>54.49802499427047</v>
+        <v>54.49802499427046</v>
       </c>
     </row>
     <row r="3557" spans="1:2">
@@ -28807,7 +28807,7 @@
         <v>3558</v>
       </c>
       <c r="B3558">
-        <v>55.60143745483043</v>
+        <v>55.60143745483042</v>
       </c>
     </row>
     <row r="3559" spans="1:2">
@@ -28839,7 +28839,7 @@
         <v>3562</v>
       </c>
       <c r="B3562">
-        <v>57.70041223372299</v>
+        <v>57.70041223372298</v>
       </c>
     </row>
     <row r="3563" spans="1:2">
@@ -28847,7 +28847,7 @@
         <v>3563</v>
       </c>
       <c r="B3563">
-        <v>59.5631717554545</v>
+        <v>59.56317175545449</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -28895,7 +28895,7 @@
         <v>3569</v>
       </c>
       <c r="B3569">
-        <v>94.52332288632772</v>
+        <v>94.5233228863277</v>
       </c>
     </row>
     <row r="3570" spans="1:2">
@@ -28911,7 +28911,7 @@
         <v>3571</v>
       </c>
       <c r="B3571">
-        <v>137.9429695481607</v>
+        <v>137.9429695481606</v>
       </c>
     </row>
     <row r="3572" spans="1:2">
@@ -28975,7 +28975,7 @@
         <v>3579</v>
       </c>
       <c r="B3579">
-        <v>37.91547948473423</v>
+        <v>37.91547948473422</v>
       </c>
     </row>
     <row r="3580" spans="1:2">
@@ -29263,7 +29263,7 @@
         <v>3615</v>
       </c>
       <c r="B3615">
-        <v>77.17087975822812</v>
+        <v>77.17087975822811</v>
       </c>
     </row>
     <row r="3616" spans="1:2">
@@ -29271,7 +29271,7 @@
         <v>3616</v>
       </c>
       <c r="B3616">
-        <v>86.2229649293611</v>
+        <v>86.22296492936108</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
@@ -29351,7 +29351,7 @@
         <v>3626</v>
       </c>
       <c r="B3626">
-        <v>37.85686527700196</v>
+        <v>37.85686527700195</v>
       </c>
     </row>
     <row r="3627" spans="1:2">
@@ -29471,7 +29471,7 @@
         <v>3641</v>
       </c>
       <c r="B3641">
-        <v>94.80877407798388</v>
+        <v>94.80877407798386</v>
       </c>
     </row>
     <row r="3642" spans="1:2">
@@ -29535,7 +29535,7 @@
         <v>3649</v>
       </c>
       <c r="B3649">
-        <v>56.75555120507881</v>
+        <v>56.7555512050788</v>
       </c>
     </row>
     <row r="3650" spans="1:2">
@@ -29655,7 +29655,7 @@
         <v>3664</v>
       </c>
       <c r="B3664">
-        <v>89.57305997229894</v>
+        <v>89.57305997229892</v>
       </c>
     </row>
     <row r="3665" spans="1:2">
@@ -29663,7 +29663,7 @@
         <v>3665</v>
       </c>
       <c r="B3665">
-        <v>87.84833690977692</v>
+        <v>87.8483369097769</v>
       </c>
     </row>
     <row r="3666" spans="1:2">
@@ -29799,7 +29799,7 @@
         <v>3682</v>
       </c>
       <c r="B3682">
-        <v>87.49401402403535</v>
+        <v>87.49401402403534</v>
       </c>
     </row>
     <row r="3683" spans="1:2">
@@ -29855,7 +29855,7 @@
         <v>3689</v>
       </c>
       <c r="B3689">
-        <v>110.0815851157426</v>
+        <v>110.0815851157425</v>
       </c>
     </row>
     <row r="3690" spans="1:2">
@@ -29863,7 +29863,7 @@
         <v>3690</v>
       </c>
       <c r="B3690">
-        <v>172.0769534210476</v>
+        <v>172.0769534210475</v>
       </c>
     </row>
     <row r="3691" spans="1:2">
@@ -29991,7 +29991,7 @@
         <v>3706</v>
       </c>
       <c r="B3706">
-        <v>64.55798146735981</v>
+        <v>64.5579814673598</v>
       </c>
     </row>
     <row r="3707" spans="1:2">
@@ -30159,7 +30159,7 @@
         <v>3727</v>
       </c>
       <c r="B3727">
-        <v>9.091649761352254</v>
+        <v>9.091649761352253</v>
       </c>
     </row>
     <row r="3728" spans="1:2">
@@ -30175,7 +30175,7 @@
         <v>3729</v>
       </c>
       <c r="B3729">
-        <v>28.59247944546271</v>
+        <v>28.5924794454627</v>
       </c>
     </row>
     <row r="3730" spans="1:2">
@@ -30319,7 +30319,7 @@
         <v>3747</v>
       </c>
       <c r="B3747">
-        <v>52.92100973523377</v>
+        <v>52.92100973523376</v>
       </c>
     </row>
     <row r="3748" spans="1:2">
@@ -30455,7 +30455,7 @@
         <v>3764</v>
       </c>
       <c r="B3764">
-        <v>136.8527452843405</v>
+        <v>136.8527452843404</v>
       </c>
     </row>
     <row r="3765" spans="1:2">
@@ -30471,7 +30471,7 @@
         <v>3766</v>
       </c>
       <c r="B3766">
-        <v>108.9708458792161</v>
+        <v>108.970845879216</v>
       </c>
     </row>
     <row r="3767" spans="1:2">
@@ -30511,7 +30511,7 @@
         <v>3771</v>
       </c>
       <c r="B3771">
-        <v>54.7532898689445</v>
+        <v>54.75328986894449</v>
       </c>
     </row>
     <row r="3772" spans="1:2">
@@ -30671,7 +30671,7 @@
         <v>3791</v>
       </c>
       <c r="B3791">
-        <v>83.02849060795243</v>
+        <v>83.02849060795242</v>
       </c>
     </row>
     <row r="3792" spans="1:2">
@@ -30679,7 +30679,7 @@
         <v>3792</v>
       </c>
       <c r="B3792">
-        <v>69.8546543490863</v>
+        <v>69.85465434908629</v>
       </c>
     </row>
     <row r="3793" spans="1:2">
@@ -30903,7 +30903,7 @@
         <v>3820</v>
       </c>
       <c r="B3820">
-        <v>40.00478291935096</v>
+        <v>40.00478291935095</v>
       </c>
     </row>
     <row r="3821" spans="1:2">
@@ -30959,7 +30959,7 @@
         <v>3827</v>
       </c>
       <c r="B3827">
-        <v>38.86327122376502</v>
+        <v>38.86327122376501</v>
       </c>
     </row>
     <row r="3828" spans="1:2">
@@ -30975,7 +30975,7 @@
         <v>3829</v>
       </c>
       <c r="B3829">
-        <v>45.82077768158536</v>
+        <v>45.82077768158535</v>
       </c>
     </row>
     <row r="3830" spans="1:2">
@@ -31071,7 +31071,7 @@
         <v>3841</v>
       </c>
       <c r="B3841">
-        <v>56.0088061985697</v>
+        <v>56.00880619856969</v>
       </c>
     </row>
     <row r="3842" spans="1:2">
@@ -31095,7 +31095,7 @@
         <v>3844</v>
       </c>
       <c r="B3844">
-        <v>36.15529482653419</v>
+        <v>36.15529482653418</v>
       </c>
     </row>
     <row r="3845" spans="1:2">
@@ -31159,7 +31159,7 @@
         <v>3852</v>
       </c>
       <c r="B3852">
-        <v>26.3789725046613</v>
+        <v>26.37897250466129</v>
       </c>
     </row>
     <row r="3853" spans="1:2">
@@ -31247,7 +31247,7 @@
         <v>3863</v>
       </c>
       <c r="B3863">
-        <v>72.19072359825589</v>
+        <v>72.19072359825587</v>
       </c>
     </row>
     <row r="3864" spans="1:2">
@@ -31287,7 +31287,7 @@
         <v>3868</v>
       </c>
       <c r="B3868">
-        <v>39.92330917060311</v>
+        <v>39.9233091706031</v>
       </c>
     </row>
     <row r="3869" spans="1:2">
@@ -31311,7 +31311,7 @@
         <v>3871</v>
       </c>
       <c r="B3871">
-        <v>6.058247282791865</v>
+        <v>6.058247282791864</v>
       </c>
     </row>
     <row r="3872" spans="1:2">
@@ -31375,7 +31375,7 @@
         <v>3879</v>
       </c>
       <c r="B3879">
-        <v>40.06310405604457</v>
+        <v>40.06310405604456</v>
       </c>
     </row>
     <row r="3880" spans="1:2">
@@ -31495,7 +31495,7 @@
         <v>3894</v>
       </c>
       <c r="B3894">
-        <v>40.71020490940882</v>
+        <v>40.71020490940881</v>
       </c>
     </row>
     <row r="3895" spans="1:2">
@@ -31743,7 +31743,7 @@
         <v>3925</v>
       </c>
       <c r="B3925">
-        <v>34.65946024520668</v>
+        <v>34.65946024520667</v>
       </c>
     </row>
     <row r="3926" spans="1:2">
@@ -31759,7 +31759,7 @@
         <v>3927</v>
       </c>
       <c r="B3927">
-        <v>60.31196825923424</v>
+        <v>60.31196825923423</v>
       </c>
     </row>
     <row r="3928" spans="1:2">
@@ -31831,7 +31831,7 @@
         <v>3936</v>
       </c>
       <c r="B3936">
-        <v>46.37644037088727</v>
+        <v>46.37644037088726</v>
       </c>
     </row>
     <row r="3937" spans="1:2">
@@ -31903,7 +31903,7 @@
         <v>3945</v>
       </c>
       <c r="B3945">
-        <v>25.46318412305233</v>
+        <v>25.46318412305232</v>
       </c>
     </row>
     <row r="3946" spans="1:2">
@@ -32031,7 +32031,7 @@
         <v>3961</v>
       </c>
       <c r="B3961">
-        <v>32.92741040671813</v>
+        <v>32.92741040671812</v>
       </c>
     </row>
     <row r="3962" spans="1:2">
@@ -32119,7 +32119,7 @@
         <v>3972</v>
       </c>
       <c r="B3972">
-        <v>25.88435651271255</v>
+        <v>25.88435651271254</v>
       </c>
     </row>
     <row r="3973" spans="1:2">
@@ -32127,7 +32127,7 @@
         <v>3973</v>
       </c>
       <c r="B3973">
-        <v>26.01946226153543</v>
+        <v>26.01946226153542</v>
       </c>
     </row>
     <row r="3974" spans="1:2">
@@ -32135,7 +32135,7 @@
         <v>3974</v>
       </c>
       <c r="B3974">
-        <v>36.96768774570344</v>
+        <v>36.96768774570343</v>
       </c>
     </row>
     <row r="3975" spans="1:2">
@@ -32239,7 +32239,7 @@
         <v>3987</v>
       </c>
       <c r="B3987">
-        <v>20.53739264075177</v>
+        <v>20.53739264075176</v>
       </c>
     </row>
     <row r="3988" spans="1:2">
@@ -32343,7 +32343,7 @@
         <v>4000</v>
       </c>
       <c r="B4000">
-        <v>57.60135422265545</v>
+        <v>57.60135422265544</v>
       </c>
     </row>
     <row r="4001" spans="1:2">
@@ -32399,7 +32399,7 @@
         <v>4007</v>
       </c>
       <c r="B4007">
-        <v>56.16208235178959</v>
+        <v>56.16208235178958</v>
       </c>
     </row>
     <row r="4008" spans="1:2">
@@ -32423,7 +32423,7 @@
         <v>4010</v>
       </c>
       <c r="B4010">
-        <v>33.13343934689706</v>
+        <v>33.13343934689705</v>
       </c>
     </row>
     <row r="4011" spans="1:2">
@@ -32511,7 +32511,7 @@
         <v>4021</v>
       </c>
       <c r="B4021">
-        <v>24.54124124963147</v>
+        <v>24.54124124963146</v>
       </c>
     </row>
     <row r="4022" spans="1:2">
@@ -32583,7 +32583,7 @@
         <v>4030</v>
       </c>
       <c r="B4030">
-        <v>78.79156260202537</v>
+        <v>78.79156260202535</v>
       </c>
     </row>
     <row r="4031" spans="1:2">
@@ -32615,7 +32615,7 @@
         <v>4034</v>
       </c>
       <c r="B4034">
-        <v>42.54717417973813</v>
+        <v>42.54717417973812</v>
       </c>
     </row>
     <row r="4035" spans="1:2">
@@ -32647,7 +32647,7 @@
         <v>4038</v>
       </c>
       <c r="B4038">
-        <v>30.25167182374005</v>
+        <v>30.25167182374004</v>
       </c>
     </row>
     <row r="4039" spans="1:2">
@@ -32655,7 +32655,7 @@
         <v>4039</v>
       </c>
       <c r="B4039">
-        <v>5.287910057670519</v>
+        <v>5.287910057670518</v>
       </c>
     </row>
     <row r="4040" spans="1:2">
@@ -32767,7 +32767,7 @@
         <v>4053</v>
       </c>
       <c r="B4053">
-        <v>110.5153302529614</v>
+        <v>110.5153302529613</v>
       </c>
     </row>
     <row r="4054" spans="1:2">
@@ -32791,7 +32791,7 @@
         <v>4056</v>
       </c>
       <c r="B4056">
-        <v>67.85708214957057</v>
+        <v>67.85708214957056</v>
       </c>
     </row>
     <row r="4057" spans="1:2">
@@ -32807,7 +32807,7 @@
         <v>4058</v>
       </c>
       <c r="B4058">
-        <v>51.23497204981505</v>
+        <v>51.23497204981504</v>
       </c>
     </row>
     <row r="4059" spans="1:2">
@@ -32847,7 +32847,7 @@
         <v>4063</v>
       </c>
       <c r="B4063">
-        <v>8.334442118762937</v>
+        <v>8.334442118762935</v>
       </c>
     </row>
     <row r="4064" spans="1:2">
@@ -32903,7 +32903,7 @@
         <v>4070</v>
       </c>
       <c r="B4070">
-        <v>63.88362500740005</v>
+        <v>63.88362500740004</v>
       </c>
     </row>
     <row r="4071" spans="1:2">
@@ -32911,7 +32911,7 @@
         <v>4071</v>
       </c>
       <c r="B4071">
-        <v>73.37238602613843</v>
+        <v>73.37238602613841</v>
       </c>
     </row>
     <row r="4072" spans="1:2">
@@ -32927,7 +32927,7 @@
         <v>4073</v>
       </c>
       <c r="B4073">
-        <v>84.06039373507903</v>
+        <v>84.06039373507902</v>
       </c>
     </row>
     <row r="4074" spans="1:2">
@@ -33199,7 +33199,7 @@
         <v>4107</v>
       </c>
       <c r="B4107">
-        <v>50.56442551335789</v>
+        <v>50.56442551335788</v>
       </c>
     </row>
     <row r="4108" spans="1:2">
@@ -33215,7 +33215,7 @@
         <v>4109</v>
       </c>
       <c r="B4109">
-        <v>42.36371170953613</v>
+        <v>42.36371170953612</v>
       </c>
     </row>
     <row r="4110" spans="1:2">
@@ -33231,7 +33231,7 @@
         <v>4111</v>
       </c>
       <c r="B4111">
-        <v>6.812670750513901</v>
+        <v>6.8126707505139</v>
       </c>
     </row>
     <row r="4112" spans="1:2">
@@ -33303,7 +33303,7 @@
         <v>4120</v>
       </c>
       <c r="B4120">
-        <v>77.46160622858018</v>
+        <v>77.46160622858017</v>
       </c>
     </row>
     <row r="4121" spans="1:2">
@@ -33359,7 +33359,7 @@
         <v>4127</v>
       </c>
       <c r="B4127">
-        <v>79.84075692043298</v>
+        <v>79.84075692043297</v>
       </c>
     </row>
     <row r="4128" spans="1:2">
@@ -33663,7 +33663,7 @@
         <v>4165</v>
       </c>
       <c r="B4165">
-        <v>43.70392556933446</v>
+        <v>43.70392556933445</v>
       </c>
     </row>
     <row r="4166" spans="1:2">
@@ -33671,7 +33671,7 @@
         <v>4166</v>
       </c>
       <c r="B4166">
-        <v>43.30153903325243</v>
+        <v>43.30153903325242</v>
       </c>
     </row>
     <row r="4167" spans="1:2">
@@ -33679,7 +33679,7 @@
         <v>4167</v>
       </c>
       <c r="B4167">
-        <v>47.22722559612115</v>
+        <v>47.22722559612114</v>
       </c>
     </row>
     <row r="4168" spans="1:2">
@@ -33759,7 +33759,7 @@
         <v>4177</v>
       </c>
       <c r="B4177">
-        <v>38.69534151861207</v>
+        <v>38.69534151861206</v>
       </c>
     </row>
     <row r="4178" spans="1:2">
@@ -33911,7 +33911,7 @@
         <v>4196</v>
       </c>
       <c r="B4196">
-        <v>98.92056075040254</v>
+        <v>98.92056075040252</v>
       </c>
     </row>
     <row r="4197" spans="1:2">
@@ -33983,7 +33983,7 @@
         <v>4205</v>
       </c>
       <c r="B4205">
-        <v>19.2634128356909</v>
+        <v>19.26341283569089</v>
       </c>
     </row>
     <row r="4206" spans="1:2">
@@ -34143,7 +34143,7 @@
         <v>4225</v>
       </c>
       <c r="B4225">
-        <v>47.29609729020657</v>
+        <v>47.29609729020656</v>
       </c>
     </row>
     <row r="4226" spans="1:2">
@@ -34151,7 +34151,7 @@
         <v>4226</v>
       </c>
       <c r="B4226">
-        <v>37.91811712408218</v>
+        <v>37.91811712408217</v>
       </c>
     </row>
     <row r="4227" spans="1:2">
@@ -34327,7 +34327,7 @@
         <v>4248</v>
       </c>
       <c r="B4248">
-        <v>77.32181134313872</v>
+        <v>77.32181134313871</v>
       </c>
     </row>
     <row r="4249" spans="1:2">
@@ -34335,7 +34335,7 @@
         <v>4249</v>
       </c>
       <c r="B4249">
-        <v>71.44690930213339</v>
+        <v>71.44690930213338</v>
       </c>
     </row>
     <row r="4250" spans="1:2">
@@ -34423,7 +34423,7 @@
         <v>4260</v>
       </c>
       <c r="B4260">
-        <v>42.69986419088069</v>
+        <v>42.69986419088068</v>
       </c>
     </row>
     <row r="4261" spans="1:2">
@@ -34447,7 +34447,7 @@
         <v>4263</v>
       </c>
       <c r="B4263">
-        <v>75.43619228039162</v>
+        <v>75.43619228039161</v>
       </c>
     </row>
     <row r="4264" spans="1:2">
@@ -34455,7 +34455,7 @@
         <v>4264</v>
       </c>
       <c r="B4264">
-        <v>81.69853423450725</v>
+        <v>81.69853423450724</v>
       </c>
     </row>
     <row r="4265" spans="1:2">
@@ -34463,7 +34463,7 @@
         <v>4265</v>
       </c>
       <c r="B4265">
-        <v>86.65876156385052</v>
+        <v>86.6587615638505</v>
       </c>
     </row>
     <row r="4266" spans="1:2">
@@ -34527,7 +34527,7 @@
         <v>4273</v>
       </c>
       <c r="B4273">
-        <v>87.47144755405843</v>
+        <v>87.47144755405841</v>
       </c>
     </row>
     <row r="4274" spans="1:2">
@@ -34535,7 +34535,7 @@
         <v>4274</v>
       </c>
       <c r="B4274">
-        <v>78.94659718147722</v>
+        <v>78.9465971814772</v>
       </c>
     </row>
     <row r="4275" spans="1:2">
@@ -34591,7 +34591,7 @@
         <v>4281</v>
       </c>
       <c r="B4281">
-        <v>71.56618921486856</v>
+        <v>71.56618921486854</v>
       </c>
     </row>
     <row r="4282" spans="1:2">
@@ -34607,7 +34607,7 @@
         <v>4283</v>
       </c>
       <c r="B4283">
-        <v>99.45043318830226</v>
+        <v>99.45043318830224</v>
       </c>
     </row>
     <row r="4284" spans="1:2">
@@ -34975,7 +34975,7 @@
         <v>4329</v>
       </c>
       <c r="B4329">
-        <v>50.01667574209984</v>
+        <v>50.01667574209983</v>
       </c>
     </row>
     <row r="4330" spans="1:2">
@@ -35047,7 +35047,7 @@
         <v>4338</v>
       </c>
       <c r="B4338">
-        <v>189.9223420361756</v>
+        <v>189.9223420361755</v>
       </c>
     </row>
     <row r="4339" spans="1:2">
@@ -35103,7 +35103,7 @@
         <v>4345</v>
       </c>
       <c r="B4345">
-        <v>80.96995963239515</v>
+        <v>80.96995963239513</v>
       </c>
     </row>
     <row r="4346" spans="1:2">
@@ -35215,7 +35215,7 @@
         <v>4359</v>
       </c>
       <c r="B4359">
-        <v>84.9082482499263</v>
+        <v>84.90824824992629</v>
       </c>
     </row>
     <row r="4360" spans="1:2">
@@ -35223,7 +35223,7 @@
         <v>4360</v>
       </c>
       <c r="B4360">
-        <v>92.51314863214957</v>
+        <v>92.51314863214954</v>
       </c>
     </row>
     <row r="4361" spans="1:2">
@@ -35231,7 +35231,7 @@
         <v>4361</v>
       </c>
       <c r="B4361">
-        <v>94.37766658011304</v>
+        <v>94.37766658011302</v>
       </c>
     </row>
     <row r="4362" spans="1:2">
@@ -35399,7 +35399,7 @@
         <v>4382</v>
       </c>
       <c r="B4382">
-        <v>78.51871346503165</v>
+        <v>78.51871346503164</v>
       </c>
     </row>
     <row r="4383" spans="1:2">
@@ -35415,7 +35415,7 @@
         <v>4384</v>
       </c>
       <c r="B4384">
-        <v>90.53140226872154</v>
+        <v>90.53140226872152</v>
       </c>
     </row>
     <row r="4385" spans="1:2">
@@ -35511,7 +35511,7 @@
         <v>4396</v>
       </c>
       <c r="B4396">
-        <v>73.33399372007379</v>
+        <v>73.33399372007378</v>
       </c>
     </row>
     <row r="4397" spans="1:2">
@@ -35543,7 +35543,7 @@
         <v>4400</v>
       </c>
       <c r="B4400">
-        <v>26.25265888699826</v>
+        <v>26.25265888699825</v>
       </c>
     </row>
     <row r="4401" spans="1:2">
@@ -35559,7 +35559,7 @@
         <v>4402</v>
       </c>
       <c r="B4402">
-        <v>55.74416305065851</v>
+        <v>55.7441630506585</v>
       </c>
     </row>
     <row r="4403" spans="1:2">
@@ -35567,7 +35567,7 @@
         <v>4403</v>
       </c>
       <c r="B4403">
-        <v>72.84251358823872</v>
+        <v>72.8425135882387</v>
       </c>
     </row>
     <row r="4404" spans="1:2">
@@ -35591,7 +35591,7 @@
         <v>4406</v>
       </c>
       <c r="B4406">
-        <v>79.18105401240629</v>
+        <v>79.18105401240628</v>
       </c>
     </row>
     <row r="4407" spans="1:2">
@@ -35687,7 +35687,7 @@
         <v>4418</v>
       </c>
       <c r="B4418">
-        <v>74.13144001627131</v>
+        <v>74.1314400162713</v>
       </c>
     </row>
     <row r="4419" spans="1:2">
@@ -35711,7 +35711,7 @@
         <v>4421</v>
       </c>
       <c r="B4421">
-        <v>57.86394587329602</v>
+        <v>57.86394587329601</v>
       </c>
     </row>
     <row r="4422" spans="1:2">
@@ -35735,7 +35735,7 @@
         <v>4424</v>
       </c>
       <c r="B4424">
-        <v>20.75784067603283</v>
+        <v>20.75784067603282</v>
       </c>
     </row>
     <row r="4425" spans="1:2">
@@ -35751,7 +35751,7 @@
         <v>4426</v>
       </c>
       <c r="B4426">
-        <v>42.27227354547379</v>
+        <v>42.27227354547378</v>
       </c>
     </row>
     <row r="4427" spans="1:2">
@@ -35855,7 +35855,7 @@
         <v>4439</v>
       </c>
       <c r="B4439">
-        <v>83.33181913296693</v>
+        <v>83.33181913296691</v>
       </c>
     </row>
     <row r="4440" spans="1:2">
@@ -35911,7 +35911,7 @@
         <v>4446</v>
       </c>
       <c r="B4446">
-        <v>47.8872215751865</v>
+        <v>47.88722157518649</v>
       </c>
     </row>
     <row r="4447" spans="1:2">
@@ -35959,7 +35959,7 @@
         <v>4452</v>
       </c>
       <c r="B4452">
-        <v>44.66431936302769</v>
+        <v>44.66431936302768</v>
       </c>
     </row>
     <row r="4453" spans="1:2">
@@ -36047,7 +36047,7 @@
         <v>4463</v>
       </c>
       <c r="B4463">
-        <v>82.30460514245891</v>
+        <v>82.3046051424589</v>
       </c>
     </row>
     <row r="4464" spans="1:2">
@@ -36071,7 +36071,7 @@
         <v>4466</v>
       </c>
       <c r="B4466">
-        <v>54.37610744218735</v>
+        <v>54.37610744218734</v>
       </c>
     </row>
     <row r="4467" spans="1:2">
@@ -36135,7 +36135,7 @@
         <v>4474</v>
       </c>
       <c r="B4474">
-        <v>53.90221157267195</v>
+        <v>53.90221157267194</v>
       </c>
     </row>
     <row r="4475" spans="1:2">
@@ -36191,7 +36191,7 @@
         <v>4481</v>
       </c>
       <c r="B4481">
-        <v>94.58691930171724</v>
+        <v>94.58691930171722</v>
       </c>
     </row>
     <row r="4482" spans="1:2">
@@ -36271,7 +36271,7 @@
         <v>4491</v>
       </c>
       <c r="B4491">
-        <v>52.69446582234855</v>
+        <v>52.69446582234854</v>
       </c>
     </row>
     <row r="4492" spans="1:2">
@@ -36343,7 +36343,7 @@
         <v>4500</v>
       </c>
       <c r="B4500">
-        <v>51.44129406103264</v>
+        <v>51.44129406103263</v>
       </c>
     </row>
     <row r="4501" spans="1:2">
@@ -36367,7 +36367,7 @@
         <v>4503</v>
       </c>
       <c r="B4503">
-        <v>78.36573038285043</v>
+        <v>78.36573038285042</v>
       </c>
     </row>
     <row r="4504" spans="1:2">
@@ -36375,7 +36375,7 @@
         <v>4504</v>
       </c>
       <c r="B4504">
-        <v>84.29162678458283</v>
+        <v>84.29162678458282</v>
       </c>
     </row>
     <row r="4505" spans="1:2">
@@ -36479,7 +36479,7 @@
         <v>4517</v>
       </c>
       <c r="B4517">
-        <v>42.68989977556621</v>
+        <v>42.6898997755662</v>
       </c>
     </row>
     <row r="4518" spans="1:2">
@@ -36495,7 +36495,7 @@
         <v>4519</v>
       </c>
       <c r="B4519">
-        <v>12.57418360666116</v>
+        <v>12.57418360666115</v>
       </c>
     </row>
     <row r="4520" spans="1:2">
@@ -36551,7 +36551,7 @@
         <v>4526</v>
       </c>
       <c r="B4526">
-        <v>70.33353242625894</v>
+        <v>70.33353242625893</v>
       </c>
     </row>
     <row r="4527" spans="1:2">
@@ -36559,7 +36559,7 @@
         <v>4527</v>
       </c>
       <c r="B4527">
-        <v>79.34722529132728</v>
+        <v>79.34722529132726</v>
       </c>
     </row>
     <row r="4528" spans="1:2">
@@ -36575,7 +36575,7 @@
         <v>4529</v>
       </c>
       <c r="B4529">
-        <v>91.51963781108761</v>
+        <v>91.51963781108758</v>
       </c>
     </row>
     <row r="4530" spans="1:2">
@@ -36623,7 +36623,7 @@
         <v>4535</v>
       </c>
       <c r="B4535">
-        <v>92.0594746643018</v>
+        <v>92.05947466430176</v>
       </c>
     </row>
     <row r="4536" spans="1:2">
@@ -36679,7 +36679,7 @@
         <v>4542</v>
       </c>
       <c r="B4542">
-        <v>55.96601782692515</v>
+        <v>55.96601782692514</v>
       </c>
     </row>
     <row r="4543" spans="1:2">
@@ -36695,7 +36695,7 @@
         <v>4544</v>
       </c>
       <c r="B4544">
-        <v>20.5503463806606</v>
+        <v>20.55034638066059</v>
       </c>
     </row>
     <row r="4545" spans="1:2">
@@ -36759,7 +36759,7 @@
         <v>4552</v>
       </c>
       <c r="B4552">
-        <v>91.8660477787853</v>
+        <v>91.86604777878529</v>
       </c>
     </row>
     <row r="4553" spans="1:2">
@@ -36823,7 +36823,7 @@
         <v>4560</v>
       </c>
       <c r="B4560">
-        <v>86.38591242685681</v>
+        <v>86.38591242685679</v>
       </c>
     </row>
     <row r="4561" spans="1:2">
@@ -36847,7 +36847,7 @@
         <v>4563</v>
       </c>
       <c r="B4563">
-        <v>62.2251359996155</v>
+        <v>62.22513599961549</v>
       </c>
     </row>
     <row r="4564" spans="1:2">
@@ -36855,7 +36855,7 @@
         <v>4564</v>
       </c>
       <c r="B4564">
-        <v>57.4281492388066</v>
+        <v>57.42814923880659</v>
       </c>
     </row>
     <row r="4565" spans="1:2">
@@ -36863,7 +36863,7 @@
         <v>4565</v>
       </c>
       <c r="B4565">
-        <v>56.48563277847171</v>
+        <v>56.4856327784717</v>
       </c>
     </row>
     <row r="4566" spans="1:2">
@@ -37015,7 +37015,7 @@
         <v>4584</v>
       </c>
       <c r="B4584">
-        <v>85.66788838213651</v>
+        <v>85.6678883821365</v>
       </c>
     </row>
     <row r="4585" spans="1:2">
@@ -37087,7 +37087,7 @@
         <v>4593</v>
       </c>
       <c r="B4593">
-        <v>59.76656305628547</v>
+        <v>59.76656305628546</v>
       </c>
     </row>
     <row r="4594" spans="1:2">
@@ -37231,7 +37231,7 @@
         <v>4611</v>
       </c>
       <c r="B4611">
-        <v>66.24431222381719</v>
+        <v>66.24431222381718</v>
       </c>
     </row>
     <row r="4612" spans="1:2">
@@ -37247,7 +37247,7 @@
         <v>4613</v>
       </c>
       <c r="B4613">
-        <v>58.91841547039954</v>
+        <v>58.91841547039953</v>
       </c>
     </row>
     <row r="4614" spans="1:2">
@@ -37319,7 +37319,7 @@
         <v>4622</v>
       </c>
       <c r="B4622">
-        <v>48.12138533507692</v>
+        <v>48.12138533507691</v>
       </c>
     </row>
     <row r="4623" spans="1:2">
@@ -37335,7 +37335,7 @@
         <v>4624</v>
       </c>
       <c r="B4624">
-        <v>59.92716598547189</v>
+        <v>59.92716598547188</v>
       </c>
     </row>
     <row r="4625" spans="1:2">
@@ -37351,7 +37351,7 @@
         <v>4626</v>
       </c>
       <c r="B4626">
-        <v>133.484186765967</v>
+        <v>133.4841867659669</v>
       </c>
     </row>
     <row r="4627" spans="1:2">
@@ -37567,7 +37567,7 @@
         <v>4653</v>
       </c>
       <c r="B4653">
-        <v>119.4601514239443</v>
+        <v>119.4601514239442</v>
       </c>
     </row>
     <row r="4654" spans="1:2">
@@ -37639,7 +37639,7 @@
         <v>4662</v>
       </c>
       <c r="B4662">
-        <v>53.12762481749002</v>
+        <v>53.12762481749001</v>
       </c>
     </row>
     <row r="4663" spans="1:2">
@@ -37647,7 +37647,7 @@
         <v>4663</v>
       </c>
       <c r="B4663">
-        <v>7.700148469788187</v>
+        <v>7.700148469788186</v>
       </c>
     </row>
     <row r="4664" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>81.24017113004091</v>
+        <v>81.24017113004089</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37831,7 +37831,7 @@
         <v>4686</v>
       </c>
       <c r="B4686">
-        <v>71.81119660318944</v>
+        <v>71.81119660318943</v>
       </c>
     </row>
     <row r="4687" spans="1:2">
@@ -37847,7 +37847,7 @@
         <v>4688</v>
       </c>
       <c r="B4688">
-        <v>57.57585704229192</v>
+        <v>57.57585704229191</v>
       </c>
     </row>
     <row r="4689" spans="1:2">
@@ -37935,7 +37935,7 @@
         <v>4699</v>
       </c>
       <c r="B4699">
-        <v>214.7478035791008</v>
+        <v>214.7478035791007</v>
       </c>
     </row>
     <row r="4700" spans="1:2">
@@ -37943,7 +37943,7 @@
         <v>4700</v>
       </c>
       <c r="B4700">
-        <v>183.6512079509001</v>
+        <v>183.6512079509</v>
       </c>
     </row>
     <row r="4701" spans="1:2">
@@ -37999,7 +37999,7 @@
         <v>4707</v>
       </c>
       <c r="B4707">
-        <v>86.25344431738188</v>
+        <v>86.25344431738186</v>
       </c>
     </row>
     <row r="4708" spans="1:2">
@@ -38207,7 +38207,7 @@
         <v>4733</v>
       </c>
       <c r="B4733">
-        <v>68.58038147298677</v>
+        <v>68.58038147298676</v>
       </c>
     </row>
     <row r="4734" spans="1:2">
@@ -38215,7 +38215,7 @@
         <v>4734</v>
       </c>
       <c r="B4734">
-        <v>70.79980844876914</v>
+        <v>70.79980844876913</v>
       </c>
     </row>
     <row r="4735" spans="1:2">
@@ -38239,7 +38239,7 @@
         <v>4737</v>
       </c>
       <c r="B4737">
-        <v>65.30384726075293</v>
+        <v>65.30384726075292</v>
       </c>
     </row>
     <row r="4738" spans="1:2">
@@ -38247,7 +38247,7 @@
         <v>4738</v>
       </c>
       <c r="B4738">
-        <v>84.8499271132327</v>
+        <v>84.84992711323268</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38255,7 +38255,7 @@
         <v>4739</v>
       </c>
       <c r="B4739">
-        <v>94.05235772719894</v>
+        <v>94.05235772719892</v>
       </c>
     </row>
     <row r="4740" spans="1:2">
@@ -38263,7 +38263,7 @@
         <v>4740</v>
       </c>
       <c r="B4740">
-        <v>95.34861093119808</v>
+        <v>95.34861093119804</v>
       </c>
     </row>
     <row r="4741" spans="1:2">
@@ -38367,7 +38367,7 @@
         <v>4753</v>
       </c>
       <c r="B4753">
-        <v>75.53290572314987</v>
+        <v>75.53290572314985</v>
       </c>
     </row>
     <row r="4754" spans="1:2">
@@ -38407,7 +38407,7 @@
         <v>4758</v>
       </c>
       <c r="B4758">
-        <v>53.25218000892109</v>
+        <v>53.25218000892108</v>
       </c>
     </row>
     <row r="4759" spans="1:2">
@@ -38415,7 +38415,7 @@
         <v>4759</v>
       </c>
       <c r="B4759">
-        <v>8.401350236889321</v>
+        <v>8.40135023688932</v>
       </c>
     </row>
     <row r="4760" spans="1:2">
@@ -38495,7 +38495,7 @@
         <v>4769</v>
       </c>
       <c r="B4769">
-        <v>103.9980164952104</v>
+        <v>103.9980164952103</v>
       </c>
     </row>
     <row r="4770" spans="1:2">
@@ -38527,7 +38527,7 @@
         <v>4773</v>
       </c>
       <c r="B4773">
-        <v>116.7102658681849</v>
+        <v>116.7102658681848</v>
       </c>
     </row>
     <row r="4774" spans="1:2">
@@ -38543,7 +38543,7 @@
         <v>4775</v>
       </c>
       <c r="B4775">
-        <v>88.40136195973088</v>
+        <v>88.40136195973086</v>
       </c>
     </row>
     <row r="4776" spans="1:2">
@@ -38679,7 +38679,7 @@
         <v>4792</v>
       </c>
       <c r="B4792">
-        <v>81.491919152251</v>
+        <v>81.49191915225099</v>
       </c>
     </row>
     <row r="4793" spans="1:2">
@@ -38831,7 +38831,7 @@
         <v>4811</v>
       </c>
       <c r="B4811">
-        <v>68.4558262815557</v>
+        <v>68.45582628155569</v>
       </c>
     </row>
     <row r="4812" spans="1:2">
@@ -38839,7 +38839,7 @@
         <v>4812</v>
       </c>
       <c r="B4812">
-        <v>70.49853142102528</v>
+        <v>70.49853142102526</v>
       </c>
     </row>
     <row r="4813" spans="1:2">
@@ -38887,7 +38887,7 @@
         <v>4818</v>
       </c>
       <c r="B4818">
-        <v>150.9837515554746</v>
+        <v>150.9837515554745</v>
       </c>
     </row>
     <row r="4819" spans="1:2">
@@ -38951,7 +38951,7 @@
         <v>4826</v>
       </c>
       <c r="B4826">
-        <v>53.73662643582829</v>
+        <v>53.73662643582828</v>
       </c>
     </row>
     <row r="4827" spans="1:2">
@@ -38967,7 +38967,7 @@
         <v>4828</v>
       </c>
       <c r="B4828">
-        <v>42.11137754524871</v>
+        <v>42.1113775452487</v>
       </c>
     </row>
     <row r="4829" spans="1:2">
@@ -38983,7 +38983,7 @@
         <v>4830</v>
       </c>
       <c r="B4830">
-        <v>39.16630667774085</v>
+        <v>39.16630667774084</v>
       </c>
     </row>
     <row r="4831" spans="1:2">
@@ -39055,7 +39055,7 @@
         <v>4839</v>
       </c>
       <c r="B4839">
-        <v>81.81576264997179</v>
+        <v>81.81576264997177</v>
       </c>
     </row>
     <row r="4840" spans="1:2">
@@ -39119,7 +39119,7 @@
         <v>4847</v>
       </c>
       <c r="B4847">
-        <v>85.53014499396568</v>
+        <v>85.53014499396566</v>
       </c>
     </row>
     <row r="4848" spans="1:2">
@@ -39159,7 +39159,7 @@
         <v>4852</v>
       </c>
       <c r="B4852">
-        <v>55.56802735642304</v>
+        <v>55.56802735642303</v>
       </c>
     </row>
     <row r="4853" spans="1:2">
@@ -39183,7 +39183,7 @@
         <v>4855</v>
       </c>
       <c r="B4855">
-        <v>12.85394922016728</v>
+        <v>12.85394922016727</v>
       </c>
     </row>
     <row r="4856" spans="1:2">
@@ -39247,7 +39247,7 @@
         <v>4863</v>
       </c>
       <c r="B4863">
-        <v>65.22764879070098</v>
+        <v>65.22764879070097</v>
       </c>
     </row>
     <row r="4864" spans="1:2">
@@ -39407,7 +39407,7 @@
         <v>4883</v>
       </c>
       <c r="B4883">
-        <v>86.09518595650475</v>
+        <v>86.09518595650474</v>
       </c>
     </row>
     <row r="4884" spans="1:2">
@@ -39559,7 +39559,7 @@
         <v>4902</v>
       </c>
       <c r="B4902">
-        <v>52.54939565821118</v>
+        <v>52.54939565821117</v>
       </c>
     </row>
     <row r="4903" spans="1:2">
@@ -39703,7 +39703,7 @@
         <v>4920</v>
       </c>
       <c r="B4920">
-        <v>87.64230796959799</v>
+        <v>87.64230796959798</v>
       </c>
     </row>
     <row r="4921" spans="1:2">
@@ -39855,7 +39855,7 @@
         <v>4939</v>
       </c>
       <c r="B4939">
-        <v>176.4610030883827</v>
+        <v>176.4610030883826</v>
       </c>
     </row>
     <row r="4940" spans="1:2">
@@ -39999,7 +39999,7 @@
         <v>4957</v>
       </c>
       <c r="B4957">
-        <v>71.7880439911352</v>
+        <v>71.78804399113518</v>
       </c>
     </row>
     <row r="4958" spans="1:2">
@@ -40095,7 +40095,7 @@
         <v>4969</v>
       </c>
       <c r="B4969">
-        <v>95.26244804583165</v>
+        <v>95.26244804583162</v>
       </c>
     </row>
     <row r="4970" spans="1:2">
@@ -40111,7 +40111,7 @@
         <v>4971</v>
       </c>
       <c r="B4971">
-        <v>78.74056824129829</v>
+        <v>78.74056824129828</v>
       </c>
     </row>
     <row r="4972" spans="1:2">
@@ -40119,7 +40119,7 @@
         <v>4972</v>
       </c>
       <c r="B4972">
-        <v>73.56903669308019</v>
+        <v>73.56903669308018</v>
       </c>
     </row>
     <row r="4973" spans="1:2">
@@ -40135,7 +40135,7 @@
         <v>4974</v>
       </c>
       <c r="B4974">
-        <v>72.58754178460335</v>
+        <v>72.58754178460333</v>
       </c>
     </row>
     <row r="4975" spans="1:2">
@@ -40159,7 +40159,7 @@
         <v>4977</v>
       </c>
       <c r="B4977">
-        <v>63.0530616838338</v>
+        <v>63.05306168383379</v>
       </c>
     </row>
     <row r="4978" spans="1:2">
@@ -40231,7 +40231,7 @@
         <v>4986</v>
       </c>
       <c r="B4986">
-        <v>217.8124474303825</v>
+        <v>217.8124474303824</v>
       </c>
     </row>
     <row r="4987" spans="1:2">
@@ -40391,7 +40391,7 @@
         <v>5006</v>
       </c>
       <c r="B5006">
-        <v>95.49895637403134</v>
+        <v>95.49895637403132</v>
       </c>
     </row>
     <row r="5007" spans="1:2">
@@ -40415,7 +40415,7 @@
         <v>5009</v>
       </c>
       <c r="B5009">
-        <v>118.9302789860446</v>
+        <v>118.9302789860445</v>
       </c>
     </row>
     <row r="5010" spans="1:2">
@@ -40487,7 +40487,7 @@
         <v>5018</v>
       </c>
       <c r="B5018">
-        <v>88.61530381795366</v>
+        <v>88.61530381795365</v>
       </c>
     </row>
     <row r="5019" spans="1:2">
@@ -40511,7 +40511,7 @@
         <v>5021</v>
       </c>
       <c r="B5021">
-        <v>71.49731752078314</v>
+        <v>71.49731752078313</v>
       </c>
     </row>
     <row r="5022" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>76.14952718849334</v>
+        <v>76.14952718849332</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40727,7 +40727,7 @@
         <v>5048</v>
       </c>
       <c r="B5048">
-        <v>42.20574641969766</v>
+        <v>42.20574641969765</v>
       </c>
     </row>
     <row r="5049" spans="1:2">
@@ -40743,7 +40743,7 @@
         <v>5050</v>
       </c>
       <c r="B5050">
-        <v>58.74257284720273</v>
+        <v>58.74257284720272</v>
       </c>
     </row>
     <row r="5051" spans="1:2">
@@ -40751,7 +40751,7 @@
         <v>5051</v>
       </c>
       <c r="B5051">
-        <v>65.99725333822568</v>
+        <v>65.99725333822566</v>
       </c>
     </row>
     <row r="5052" spans="1:2">
@@ -41079,7 +41079,7 @@
         <v>5092</v>
       </c>
       <c r="B5092">
-        <v>94.04708244850303</v>
+        <v>94.04708244850302</v>
       </c>
     </row>
     <row r="5093" spans="1:2">
@@ -41095,7 +41095,7 @@
         <v>5094</v>
       </c>
       <c r="B5094">
-        <v>89.66449813636127</v>
+        <v>89.66449813636126</v>
       </c>
     </row>
     <row r="5095" spans="1:2">
@@ -41199,7 +41199,7 @@
         <v>5107</v>
       </c>
       <c r="B5107">
-        <v>226.7519933226695</v>
+        <v>226.7519933226694</v>
       </c>
     </row>
     <row r="5108" spans="1:2">
@@ -41239,7 +41239,7 @@
         <v>5112</v>
       </c>
       <c r="B5112">
-        <v>133.0217206669594</v>
+        <v>133.0217206669593</v>
       </c>
     </row>
     <row r="5113" spans="1:2">
@@ -41303,7 +41303,7 @@
         <v>5120</v>
       </c>
       <c r="B5120">
-        <v>57.95831474774497</v>
+        <v>57.95831474774496</v>
       </c>
     </row>
     <row r="5121" spans="1:2">
@@ -41383,7 +41383,7 @@
         <v>5130</v>
       </c>
       <c r="B5130">
-        <v>264.3831938999022</v>
+        <v>264.3831938999021</v>
       </c>
     </row>
     <row r="5131" spans="1:2">
@@ -41455,7 +41455,7 @@
         <v>5139</v>
       </c>
       <c r="B5139">
-        <v>101.8076035522555</v>
+        <v>101.8076035522554</v>
       </c>
     </row>
     <row r="5140" spans="1:2">
@@ -41855,7 +41855,7 @@
         <v>5189</v>
       </c>
       <c r="B5189">
-        <v>74.26185662847561</v>
+        <v>74.2618566284756</v>
       </c>
     </row>
     <row r="5190" spans="1:2">
@@ -41903,7 +41903,7 @@
         <v>5195</v>
       </c>
       <c r="B5195">
-        <v>63.51728620907337</v>
+        <v>63.51728620907336</v>
       </c>
     </row>
     <row r="5196" spans="1:2">
@@ -41919,7 +41919,7 @@
         <v>5197</v>
       </c>
       <c r="B5197">
-        <v>65.97146308682348</v>
+        <v>65.97146308682346</v>
       </c>
     </row>
     <row r="5198" spans="1:2">
@@ -42031,7 +42031,7 @@
         <v>5211</v>
       </c>
       <c r="B5211">
-        <v>77.15300242486978</v>
+        <v>77.15300242486977</v>
       </c>
     </row>
     <row r="5212" spans="1:2">
@@ -42047,7 +42047,7 @@
         <v>5213</v>
       </c>
       <c r="B5213">
-        <v>70.29777775954226</v>
+        <v>70.29777775954224</v>
       </c>
     </row>
     <row r="5214" spans="1:2">
@@ -42055,7 +42055,7 @@
         <v>5214</v>
       </c>
       <c r="B5214">
-        <v>69.53081085136552</v>
+        <v>69.5308108513655</v>
       </c>
     </row>
     <row r="5215" spans="1:2">
@@ -42071,7 +42071,7 @@
         <v>5216</v>
       </c>
       <c r="B5216">
-        <v>30.82726334367093</v>
+        <v>30.82726334367092</v>
       </c>
     </row>
     <row r="5217" spans="1:2">
@@ -42207,7 +42207,7 @@
         <v>5233</v>
       </c>
       <c r="B5233">
-        <v>98.1998990663343</v>
+        <v>98.19989906633428</v>
       </c>
     </row>
     <row r="5234" spans="1:2">
@@ -42415,7 +42415,7 @@
         <v>5259</v>
       </c>
       <c r="B5259">
-        <v>39.543489104498</v>
+        <v>39.54348910449799</v>
       </c>
     </row>
     <row r="5260" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>35.02902282495864</v>
+        <v>35.02902282495863</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -42495,7 +42495,7 @@
         <v>5269</v>
       </c>
       <c r="B5269">
-        <v>53.50715181255646</v>
+        <v>53.50715181255645</v>
       </c>
     </row>
     <row r="5270" spans="1:2">
@@ -42519,7 +42519,7 @@
         <v>5272</v>
       </c>
       <c r="B5272">
-        <v>83.38750263031258</v>
+        <v>83.38750263031257</v>
       </c>
     </row>
     <row r="5273" spans="1:2">
@@ -42527,7 +42527,7 @@
         <v>5273</v>
       </c>
       <c r="B5273">
-        <v>82.95961891386702</v>
+        <v>82.959618913867</v>
       </c>
     </row>
     <row r="5274" spans="1:2">
@@ -42583,7 +42583,7 @@
         <v>5280</v>
       </c>
       <c r="B5280">
-        <v>49.41588011284408</v>
+        <v>49.41588011284407</v>
       </c>
     </row>
     <row r="5281" spans="1:2">
@@ -42663,7 +42663,7 @@
         <v>5290</v>
       </c>
       <c r="B5290">
-        <v>29.38535383345711</v>
+        <v>29.3853538334571</v>
       </c>
     </row>
     <row r="5291" spans="1:2">
@@ -42719,7 +42719,7 @@
         <v>5297</v>
       </c>
       <c r="B5297">
-        <v>78.49878463440268</v>
+        <v>78.49878463440267</v>
       </c>
     </row>
     <row r="5298" spans="1:2">
@@ -42743,7 +42743,7 @@
         <v>5300</v>
       </c>
       <c r="B5300">
-        <v>94.65051571710674</v>
+        <v>94.65051571710671</v>
       </c>
     </row>
     <row r="5301" spans="1:2">
@@ -42759,7 +42759,7 @@
         <v>5302</v>
       </c>
       <c r="B5302">
-        <v>71.30916591396256</v>
+        <v>71.30916591396254</v>
       </c>
     </row>
     <row r="5303" spans="1:2">
@@ -42959,7 +42959,7 @@
         <v>5327</v>
       </c>
       <c r="B5327">
-        <v>56.4038659586852</v>
+        <v>56.40386595868519</v>
       </c>
     </row>
     <row r="5328" spans="1:2">
@@ -43063,7 +43063,7 @@
         <v>5340</v>
       </c>
       <c r="B5340">
-        <v>23.03828504206449</v>
+        <v>23.03828504206448</v>
       </c>
     </row>
     <row r="5341" spans="1:2">
@@ -43095,7 +43095,7 @@
         <v>5344</v>
       </c>
       <c r="B5344">
-        <v>53.87143911361251</v>
+        <v>53.8714391136125</v>
       </c>
     </row>
     <row r="5345" spans="1:2">
@@ -43191,7 +43191,7 @@
         <v>5356</v>
       </c>
       <c r="B5356">
-        <v>42.93930322946701</v>
+        <v>42.939303229467</v>
       </c>
     </row>
     <row r="5357" spans="1:2">
@@ -43295,7 +43295,7 @@
         <v>5369</v>
       </c>
       <c r="B5369">
-        <v>92.0753005003895</v>
+        <v>92.07530050038947</v>
       </c>
     </row>
     <row r="5370" spans="1:2">
@@ -43335,7 +43335,7 @@
         <v>5374</v>
       </c>
       <c r="B5374">
-        <v>93.92663025161322</v>
+        <v>93.9266302516132</v>
       </c>
     </row>
     <row r="5375" spans="1:2">
@@ -43383,7 +43383,7 @@
         <v>5380</v>
       </c>
       <c r="B5380">
-        <v>52.50865878383726</v>
+        <v>52.50865878383725</v>
       </c>
     </row>
     <row r="5381" spans="1:2">
@@ -43391,7 +43391,7 @@
         <v>5381</v>
       </c>
       <c r="B5381">
-        <v>51.17342713169617</v>
+        <v>51.17342713169616</v>
       </c>
     </row>
     <row r="5382" spans="1:2">
@@ -43399,7 +43399,7 @@
         <v>5382</v>
       </c>
       <c r="B5382">
-        <v>51.08667810425241</v>
+        <v>51.0866781042524</v>
       </c>
     </row>
     <row r="5383" spans="1:2">
@@ -43559,7 +43559,7 @@
         <v>5402</v>
       </c>
       <c r="B5402">
-        <v>58.4600523659332</v>
+        <v>58.46005236593319</v>
       </c>
     </row>
     <row r="5403" spans="1:2">
@@ -43599,7 +43599,7 @@
         <v>5407</v>
       </c>
       <c r="B5407">
-        <v>7.524686838941639</v>
+        <v>7.524686838941638</v>
       </c>
     </row>
     <row r="5408" spans="1:2">
@@ -43639,7 +43639,7 @@
         <v>5412</v>
       </c>
       <c r="B5412">
-        <v>79.28304273386044</v>
+        <v>79.28304273386043</v>
       </c>
     </row>
     <row r="5413" spans="1:2">
@@ -43807,7 +43807,7 @@
         <v>5433</v>
       </c>
       <c r="B5433">
-        <v>20.19819222060513</v>
+        <v>20.19819222060512</v>
       </c>
     </row>
     <row r="5434" spans="1:2">
@@ -43823,7 +43823,7 @@
         <v>5435</v>
       </c>
       <c r="B5435">
-        <v>40.4631460238173</v>
+        <v>40.46314602381729</v>
       </c>
     </row>
     <row r="5436" spans="1:2">
@@ -43855,7 +43855,7 @@
         <v>5439</v>
       </c>
       <c r="B5439">
-        <v>64.79712743490747</v>
+        <v>64.79712743490745</v>
       </c>
     </row>
     <row r="5440" spans="1:2">
@@ -43871,7 +43871,7 @@
         <v>5441</v>
       </c>
       <c r="B5441">
-        <v>77.13776273085939</v>
+        <v>77.13776273085938</v>
       </c>
     </row>
     <row r="5442" spans="1:2">
@@ -43919,7 +43919,7 @@
         <v>5447</v>
       </c>
       <c r="B5447">
-        <v>85.76723946424271</v>
+        <v>85.76723946424269</v>
       </c>
     </row>
     <row r="5448" spans="1:2">
@@ -43935,7 +43935,7 @@
         <v>5449</v>
       </c>
       <c r="B5449">
-        <v>70.58000516977313</v>
+        <v>70.58000516977312</v>
       </c>
     </row>
     <row r="5450" spans="1:2">
@@ -43967,7 +43967,7 @@
         <v>5453</v>
       </c>
       <c r="B5453">
-        <v>53.64723976903658</v>
+        <v>53.64723976903657</v>
       </c>
     </row>
     <row r="5454" spans="1:2">
@@ -44111,7 +44111,7 @@
         <v>5471</v>
       </c>
       <c r="B5471">
-        <v>86.89526989205022</v>
+        <v>86.89526989205021</v>
       </c>
     </row>
     <row r="5472" spans="1:2">
@@ -44159,7 +44159,7 @@
         <v>5477</v>
       </c>
       <c r="B5477">
-        <v>50.5620809450486</v>
+        <v>50.56208094504859</v>
       </c>
     </row>
     <row r="5478" spans="1:2">
@@ -44199,7 +44199,7 @@
         <v>5482</v>
       </c>
       <c r="B5482">
-        <v>26.5478107300341</v>
+        <v>26.54781073003409</v>
       </c>
     </row>
     <row r="5483" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>49.1943184076161</v>
+        <v>49.19431840761609</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44255,7 +44255,7 @@
         <v>5489</v>
       </c>
       <c r="B5489">
-        <v>94.61212341104211</v>
+        <v>94.61212341104208</v>
       </c>
     </row>
     <row r="5490" spans="1:2">
@@ -44311,7 +44311,7 @@
         <v>5496</v>
       </c>
       <c r="B5496">
-        <v>84.83937655584089</v>
+        <v>84.83937655584087</v>
       </c>
     </row>
     <row r="5497" spans="1:2">
@@ -44343,7 +44343,7 @@
         <v>5500</v>
       </c>
       <c r="B5500">
-        <v>60.673910991981</v>
+        <v>60.67391099198099</v>
       </c>
     </row>
     <row r="5501" spans="1:2">
@@ -44407,7 +44407,7 @@
         <v>5508</v>
       </c>
       <c r="B5508">
-        <v>79.80295075644567</v>
+        <v>79.80295075644565</v>
       </c>
     </row>
     <row r="5509" spans="1:2">
@@ -44527,7 +44527,7 @@
         <v>5523</v>
       </c>
       <c r="B5523">
-        <v>62.93085106071202</v>
+        <v>62.93085106071201</v>
       </c>
     </row>
     <row r="5524" spans="1:2">
@@ -44599,7 +44599,7 @@
         <v>5532</v>
       </c>
       <c r="B5532">
-        <v>82.89866013782546</v>
+        <v>82.89866013782544</v>
       </c>
     </row>
     <row r="5533" spans="1:2">
@@ -44607,7 +44607,7 @@
         <v>5533</v>
       </c>
       <c r="B5533">
-        <v>69.63485107009029</v>
+        <v>69.63485107009028</v>
       </c>
     </row>
     <row r="5534" spans="1:2">
@@ -44639,7 +44639,7 @@
         <v>5537</v>
       </c>
       <c r="B5537">
-        <v>89.42535216881362</v>
+        <v>89.4253521688136</v>
       </c>
     </row>
     <row r="5538" spans="1:2">
@@ -44727,7 +44727,7 @@
         <v>5548</v>
       </c>
       <c r="B5548">
-        <v>64.32821377304931</v>
+        <v>64.3282137730493</v>
       </c>
     </row>
     <row r="5549" spans="1:2">
@@ -44735,7 +44735,7 @@
         <v>5549</v>
       </c>
       <c r="B5549">
-        <v>62.87516756336636</v>
+        <v>62.87516756336635</v>
       </c>
     </row>
     <row r="5550" spans="1:2">
@@ -44919,7 +44919,7 @@
         <v>5572</v>
       </c>
       <c r="B5572">
-        <v>59.45620082634311</v>
+        <v>59.4562008263431</v>
       </c>
     </row>
     <row r="5573" spans="1:2">
@@ -45055,7 +45055,7 @@
         <v>5589</v>
       </c>
       <c r="B5589">
-        <v>93.7311518688261</v>
+        <v>93.73115186882607</v>
       </c>
     </row>
     <row r="5590" spans="1:2">
@@ -45079,7 +45079,7 @@
         <v>5592</v>
       </c>
       <c r="B5592">
-        <v>57.03602018907772</v>
+        <v>57.03602018907771</v>
       </c>
     </row>
     <row r="5593" spans="1:2">
@@ -45111,7 +45111,7 @@
         <v>5596</v>
       </c>
       <c r="B5596">
-        <v>27.27125658896963</v>
+        <v>27.27125658896962</v>
       </c>
     </row>
     <row r="5597" spans="1:2">
@@ -45127,7 +45127,7 @@
         <v>5598</v>
       </c>
       <c r="B5598">
-        <v>22.37269140616071</v>
+        <v>22.3726914061607</v>
       </c>
     </row>
     <row r="5599" spans="1:2">
@@ -45135,7 +45135,7 @@
         <v>5599</v>
       </c>
       <c r="B5599">
-        <v>4.5785609156946</v>
+        <v>4.578560915694599</v>
       </c>
     </row>
     <row r="5600" spans="1:2">
@@ -45151,7 +45151,7 @@
         <v>5601</v>
       </c>
       <c r="B5601">
-        <v>19.08393613161469</v>
+        <v>19.08393613161468</v>
       </c>
     </row>
     <row r="5602" spans="1:2">
@@ -45207,7 +45207,7 @@
         <v>5608</v>
       </c>
       <c r="B5608">
-        <v>61.39750338643586</v>
+        <v>61.39750338643585</v>
       </c>
     </row>
     <row r="5609" spans="1:2">
@@ -45239,7 +45239,7 @@
         <v>5612</v>
       </c>
       <c r="B5612">
-        <v>91.09175409464204</v>
+        <v>91.091754094642</v>
       </c>
     </row>
     <row r="5613" spans="1:2">
@@ -45263,7 +45263,7 @@
         <v>5615</v>
       </c>
       <c r="B5615">
-        <v>58.48261883591012</v>
+        <v>58.48261883591011</v>
       </c>
     </row>
     <row r="5616" spans="1:2">
@@ -45439,7 +45439,7 @@
         <v>5637</v>
       </c>
       <c r="B5637">
-        <v>96.47781364316025</v>
+        <v>96.47781364316022</v>
       </c>
     </row>
     <row r="5638" spans="1:2">
@@ -45463,7 +45463,7 @@
         <v>5640</v>
       </c>
       <c r="B5640">
-        <v>58.88793608237876</v>
+        <v>58.88793608237875</v>
       </c>
     </row>
     <row r="5641" spans="1:2">
@@ -45479,7 +45479,7 @@
         <v>5642</v>
       </c>
       <c r="B5642">
-        <v>42.25439621211545</v>
+        <v>42.25439621211544</v>
       </c>
     </row>
     <row r="5643" spans="1:2">
@@ -45551,7 +45551,7 @@
         <v>5651</v>
       </c>
       <c r="B5651">
-        <v>48.19553230785824</v>
+        <v>48.19553230785823</v>
       </c>
     </row>
     <row r="5652" spans="1:2">
@@ -45639,7 +45639,7 @@
         <v>5662</v>
       </c>
       <c r="B5662">
-        <v>89.25449175327405</v>
+        <v>89.25449175327404</v>
       </c>
     </row>
     <row r="5663" spans="1:2">
@@ -45671,7 +45671,7 @@
         <v>5666</v>
       </c>
       <c r="B5666">
-        <v>50.24615036537167</v>
+        <v>50.24615036537166</v>
       </c>
     </row>
     <row r="5667" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>81.72637598318008</v>
+        <v>81.72637598318006</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45839,7 +45839,7 @@
         <v>5687</v>
       </c>
       <c r="B5687">
-        <v>84.2843000086163</v>
+        <v>84.28430000861628</v>
       </c>
     </row>
     <row r="5688" spans="1:2">
@@ -45871,7 +45871,7 @@
         <v>5691</v>
       </c>
       <c r="B5691">
-        <v>57.50200314054926</v>
+        <v>57.50200314054925</v>
       </c>
     </row>
     <row r="5692" spans="1:2">
@@ -45895,7 +45895,7 @@
         <v>5694</v>
       </c>
       <c r="B5694">
-        <v>50.76576531691824</v>
+        <v>50.76576531691823</v>
       </c>
     </row>
     <row r="5695" spans="1:2">
@@ -45919,7 +45919,7 @@
         <v>5697</v>
       </c>
       <c r="B5697">
-        <v>55.87897572844273</v>
+        <v>55.87897572844272</v>
       </c>
     </row>
     <row r="5698" spans="1:2">
@@ -45943,7 +45943,7 @@
         <v>5700</v>
       </c>
       <c r="B5700">
-        <v>91.80772664209169</v>
+        <v>91.80772664209168</v>
       </c>
     </row>
     <row r="5701" spans="1:2">
@@ -45999,7 +45999,7 @@
         <v>5707</v>
       </c>
       <c r="B5707">
-        <v>130.1672087503979</v>
+        <v>130.1672087503978</v>
       </c>
     </row>
     <row r="5708" spans="1:2">
@@ -46015,7 +46015,7 @@
         <v>5709</v>
       </c>
       <c r="B5709">
-        <v>99.97297885023544</v>
+        <v>99.97297885023542</v>
       </c>
     </row>
     <row r="5710" spans="1:2">
@@ -46023,7 +46023,7 @@
         <v>5710</v>
       </c>
       <c r="B5710">
-        <v>89.54785586297406</v>
+        <v>89.54785586297405</v>
       </c>
     </row>
     <row r="5711" spans="1:2">
@@ -46031,7 +46031,7 @@
         <v>5711</v>
       </c>
       <c r="B5711">
-        <v>77.83380644768009</v>
+        <v>77.83380644768008</v>
       </c>
     </row>
     <row r="5712" spans="1:2">
@@ -46047,7 +46047,7 @@
         <v>5713</v>
       </c>
       <c r="B5713">
-        <v>63.90443305114501</v>
+        <v>63.904433051145</v>
       </c>
     </row>
     <row r="5714" spans="1:2">
@@ -46055,7 +46055,7 @@
         <v>5714</v>
       </c>
       <c r="B5714">
-        <v>56.48035749977581</v>
+        <v>56.4803574997758</v>
       </c>
     </row>
     <row r="5715" spans="1:2">
@@ -46063,7 +46063,7 @@
         <v>5715</v>
       </c>
       <c r="B5715">
-        <v>51.46415360204822</v>
+        <v>51.46415360204821</v>
       </c>
     </row>
     <row r="5716" spans="1:2">
@@ -46207,7 +46207,7 @@
         <v>5733</v>
       </c>
       <c r="B5733">
-        <v>110.6730024717612</v>
+        <v>110.6730024717611</v>
       </c>
     </row>
     <row r="5734" spans="1:2">
@@ -46423,7 +46423,7 @@
         <v>5760</v>
       </c>
       <c r="B5760">
-        <v>87.55292130280628</v>
+        <v>87.55292130280627</v>
       </c>
     </row>
     <row r="5761" spans="1:2">
@@ -46527,7 +46527,7 @@
         <v>5773</v>
       </c>
       <c r="B5773">
-        <v>60.56957770221756</v>
+        <v>60.56957770221755</v>
       </c>
     </row>
     <row r="5774" spans="1:2">
@@ -46647,7 +46647,7 @@
         <v>5788</v>
       </c>
       <c r="B5788">
-        <v>36.59314295829424</v>
+        <v>36.59314295829423</v>
       </c>
     </row>
     <row r="5789" spans="1:2">
@@ -46703,7 +46703,7 @@
         <v>5795</v>
       </c>
       <c r="B5795">
-        <v>53.28031482863258</v>
+        <v>53.28031482863257</v>
       </c>
     </row>
     <row r="5796" spans="1:2">
@@ -46751,7 +46751,7 @@
         <v>5801</v>
       </c>
       <c r="B5801">
-        <v>96.30695322762068</v>
+        <v>96.30695322762064</v>
       </c>
     </row>
     <row r="5802" spans="1:2">
@@ -46783,7 +46783,7 @@
         <v>5805</v>
       </c>
       <c r="B5805">
-        <v>93.96033342105927</v>
+        <v>93.96033342105926</v>
       </c>
     </row>
     <row r="5806" spans="1:2">
@@ -46791,7 +46791,7 @@
         <v>5806</v>
       </c>
       <c r="B5806">
-        <v>80.23816124885776</v>
+        <v>80.23816124885775</v>
       </c>
     </row>
     <row r="5807" spans="1:2">
@@ -46807,7 +46807,7 @@
         <v>5808</v>
       </c>
       <c r="B5808">
-        <v>52.34776278361218</v>
+        <v>52.34776278361217</v>
       </c>
     </row>
     <row r="5809" spans="1:2">
@@ -46831,7 +46831,7 @@
         <v>5811</v>
       </c>
       <c r="B5811">
-        <v>27.50495143519819</v>
+        <v>27.50495143519818</v>
       </c>
     </row>
     <row r="5812" spans="1:2">
@@ -46871,7 +46871,7 @@
         <v>5816</v>
       </c>
       <c r="B5816">
-        <v>4.887838782793917</v>
+        <v>4.887838782793916</v>
       </c>
     </row>
     <row r="5817" spans="1:2">
@@ -46975,7 +46975,7 @@
         <v>5829</v>
       </c>
       <c r="B5829">
-        <v>84.1266277898165</v>
+        <v>84.12662778981648</v>
       </c>
     </row>
     <row r="5830" spans="1:2">
@@ -46983,7 +46983,7 @@
         <v>5830</v>
       </c>
       <c r="B5830">
-        <v>74.06315446426322</v>
+        <v>74.06315446426321</v>
       </c>
     </row>
     <row r="5831" spans="1:2">
@@ -46991,7 +46991,7 @@
         <v>5831</v>
       </c>
       <c r="B5831">
-        <v>60.16455352678758</v>
+        <v>60.16455352678757</v>
       </c>
     </row>
     <row r="5832" spans="1:2">
@@ -47039,7 +47039,7 @@
         <v>5837</v>
       </c>
       <c r="B5837">
-        <v>46.82747669938708</v>
+        <v>46.82747669938707</v>
       </c>
     </row>
     <row r="5838" spans="1:2">
@@ -47415,7 +47415,7 @@
         <v>5884</v>
       </c>
       <c r="B5884">
-        <v>44.63383997500691</v>
+        <v>44.6338399750069</v>
       </c>
     </row>
     <row r="5885" spans="1:2">
@@ -47439,7 +47439,7 @@
         <v>5887</v>
       </c>
       <c r="B5887">
-        <v>6.734831082645448</v>
+        <v>6.734831082645447</v>
       </c>
     </row>
     <row r="5888" spans="1:2">
@@ -47495,7 +47495,7 @@
         <v>5894</v>
       </c>
       <c r="B5894">
-        <v>75.06399206129171</v>
+        <v>75.0639920612917</v>
       </c>
     </row>
     <row r="5895" spans="1:2">
@@ -47575,7 +47575,7 @@
         <v>5904</v>
       </c>
       <c r="B5904">
-        <v>64.81764240761376</v>
+        <v>64.81764240761375</v>
       </c>
     </row>
     <row r="5905" spans="1:2">
@@ -47591,7 +47591,7 @@
         <v>5906</v>
       </c>
       <c r="B5906">
-        <v>49.9252375780375</v>
+        <v>49.92523757803749</v>
       </c>
     </row>
     <row r="5907" spans="1:2">
@@ -47847,7 +47847,7 @@
         <v>5938</v>
       </c>
       <c r="B5938">
-        <v>43.40557925197721</v>
+        <v>43.4055792519772</v>
       </c>
     </row>
     <row r="5939" spans="1:2">
@@ -47919,7 +47919,7 @@
         <v>5947</v>
       </c>
       <c r="B5947">
-        <v>147.6878746546891</v>
+        <v>147.687874654689</v>
       </c>
     </row>
     <row r="5948" spans="1:2">
@@ -47951,7 +47951,7 @@
         <v>5951</v>
       </c>
       <c r="B5951">
-        <v>88.40927487777473</v>
+        <v>88.40927487777472</v>
       </c>
     </row>
     <row r="5952" spans="1:2">
@@ -47959,7 +47959,7 @@
         <v>5952</v>
       </c>
       <c r="B5952">
-        <v>77.11519626088247</v>
+        <v>77.11519626088246</v>
       </c>
     </row>
     <row r="5953" spans="1:2">
@@ -47975,7 +47975,7 @@
         <v>5954</v>
       </c>
       <c r="B5954">
-        <v>61.13491173579529</v>
+        <v>61.13491173579528</v>
       </c>
     </row>
     <row r="5955" spans="1:2">
@@ -47999,7 +47999,7 @@
         <v>5957</v>
       </c>
       <c r="B5957">
-        <v>49.57355233164388</v>
+        <v>49.57355233164387</v>
       </c>
     </row>
     <row r="5958" spans="1:2">
@@ -48039,7 +48039,7 @@
         <v>5962</v>
       </c>
       <c r="B5962">
-        <v>28.87848747209232</v>
+        <v>28.87848747209231</v>
       </c>
     </row>
     <row r="5963" spans="1:2">
@@ -48159,7 +48159,7 @@
         <v>5977</v>
       </c>
       <c r="B5977">
-        <v>78.99231626350839</v>
+        <v>78.99231626350837</v>
       </c>
     </row>
     <row r="5978" spans="1:2">
@@ -48175,7 +48175,7 @@
         <v>5979</v>
       </c>
       <c r="B5979">
-        <v>67.1305590447291</v>
+        <v>67.13055904472908</v>
       </c>
     </row>
     <row r="5980" spans="1:2">
@@ -48247,7 +48247,7 @@
         <v>5988</v>
       </c>
       <c r="B5988">
-        <v>92.25817682851418</v>
+        <v>92.25817682851417</v>
       </c>
     </row>
     <row r="5989" spans="1:2">
@@ -48343,7 +48343,7 @@
         <v>6000</v>
       </c>
       <c r="B6000">
-        <v>78.63330424114824</v>
+        <v>78.63330424114822</v>
       </c>
     </row>
     <row r="6001" spans="1:2">
@@ -48407,7 +48407,7 @@
         <v>6008</v>
       </c>
       <c r="B6008">
-        <v>24.33477270289455</v>
+        <v>24.33477270289454</v>
       </c>
     </row>
     <row r="6009" spans="1:2">
@@ -48455,7 +48455,7 @@
         <v>6014</v>
       </c>
       <c r="B6014">
-        <v>71.5840665482269</v>
+        <v>71.58406654822689</v>
       </c>
     </row>
     <row r="6015" spans="1:2">
@@ -48527,7 +48527,7 @@
         <v>6023</v>
       </c>
       <c r="B6023">
-        <v>84.29221292666016</v>
+        <v>84.29221292666014</v>
       </c>
     </row>
     <row r="6024" spans="1:2">
@@ -48583,7 +48583,7 @@
         <v>6030</v>
       </c>
       <c r="B6030">
-        <v>44.17254616015395</v>
+        <v>44.17254616015394</v>
       </c>
     </row>
     <row r="6031" spans="1:2">
@@ -48623,7 +48623,7 @@
         <v>6035</v>
       </c>
       <c r="B6035">
-        <v>62.47776323494158</v>
+        <v>62.47776323494157</v>
       </c>
     </row>
     <row r="6036" spans="1:2">
@@ -48639,7 +48639,7 @@
         <v>6037</v>
       </c>
       <c r="B6037">
-        <v>60.63581175695502</v>
+        <v>60.63581175695501</v>
       </c>
     </row>
     <row r="6038" spans="1:2">
@@ -48663,7 +48663,7 @@
         <v>6040</v>
       </c>
       <c r="B6040">
-        <v>75.96606471829134</v>
+        <v>75.96606471829132</v>
       </c>
     </row>
     <row r="6041" spans="1:2">
@@ -48799,7 +48799,7 @@
         <v>6057</v>
       </c>
       <c r="B6057">
-        <v>8.9698494376846</v>
+        <v>8.969849437684598</v>
       </c>
     </row>
     <row r="6058" spans="1:2">
@@ -48839,7 +48839,7 @@
         <v>6062</v>
       </c>
       <c r="B6062">
-        <v>53.18858359353158</v>
+        <v>53.18858359353157</v>
       </c>
     </row>
     <row r="6063" spans="1:2">
@@ -48903,7 +48903,7 @@
         <v>6070</v>
       </c>
       <c r="B6070">
-        <v>87.47877433002496</v>
+        <v>87.47877433002495</v>
       </c>
     </row>
     <row r="6071" spans="1:2">
@@ -48927,7 +48927,7 @@
         <v>6073</v>
       </c>
       <c r="B6073">
-        <v>54.47282088494559</v>
+        <v>54.47282088494558</v>
       </c>
     </row>
     <row r="6074" spans="1:2">
@@ -48951,7 +48951,7 @@
         <v>6076</v>
       </c>
       <c r="B6076">
-        <v>34.48625526135783</v>
+        <v>34.48625526135782</v>
       </c>
     </row>
     <row r="6077" spans="1:2">
@@ -48959,7 +48959,7 @@
         <v>6077</v>
       </c>
       <c r="B6077">
-        <v>32.63697700740474</v>
+        <v>32.63697700740473</v>
       </c>
     </row>
     <row r="6078" spans="1:2">
@@ -48975,7 +48975,7 @@
         <v>6079</v>
       </c>
       <c r="B6079">
-        <v>5.299310521074446</v>
+        <v>5.299310521074445</v>
       </c>
     </row>
     <row r="6080" spans="1:2">
@@ -48999,7 +48999,7 @@
         <v>6082</v>
       </c>
       <c r="B6082">
-        <v>39.27327760685224</v>
+        <v>39.27327760685223</v>
       </c>
     </row>
     <row r="6083" spans="1:2">
@@ -49023,7 +49023,7 @@
         <v>6085</v>
       </c>
       <c r="B6085">
-        <v>51.90229480484693</v>
+        <v>51.90229480484692</v>
       </c>
     </row>
     <row r="6086" spans="1:2">
@@ -49031,7 +49031,7 @@
         <v>6086</v>
       </c>
       <c r="B6086">
-        <v>77.87219875374473</v>
+        <v>77.87219875374471</v>
       </c>
     </row>
     <row r="6087" spans="1:2">
@@ -49167,7 +49167,7 @@
         <v>6103</v>
       </c>
       <c r="B6103">
-        <v>5.112888033381965</v>
+        <v>5.112888033381964</v>
       </c>
     </row>
     <row r="6104" spans="1:2">
@@ -49191,7 +49191,7 @@
         <v>6106</v>
       </c>
       <c r="B6106">
-        <v>34.52962977507971</v>
+        <v>34.5296297750797</v>
       </c>
     </row>
     <row r="6107" spans="1:2">
@@ -49207,7 +49207,7 @@
         <v>6108</v>
       </c>
       <c r="B6108">
-        <v>43.14855595107121</v>
+        <v>43.1485559510712</v>
       </c>
     </row>
     <row r="6109" spans="1:2">
@@ -49215,7 +49215,7 @@
         <v>6109</v>
       </c>
       <c r="B6109">
-        <v>44.71003844505886</v>
+        <v>44.71003844505885</v>
       </c>
     </row>
     <row r="6110" spans="1:2">
@@ -49407,7 +49407,7 @@
         <v>6133</v>
       </c>
       <c r="B6133">
-        <v>55.79017520372834</v>
+        <v>55.79017520372833</v>
       </c>
     </row>
     <row r="6134" spans="1:2">
@@ -49495,7 +49495,7 @@
         <v>6144</v>
       </c>
       <c r="B6144">
-        <v>60.20235969077489</v>
+        <v>60.20235969077488</v>
       </c>
     </row>
     <row r="6145" spans="1:2">
@@ -49527,7 +49527,7 @@
         <v>6148</v>
       </c>
       <c r="B6148">
-        <v>36.02282671705926</v>
+        <v>36.02282671705925</v>
       </c>
     </row>
     <row r="6149" spans="1:2">
@@ -49535,7 +49535,7 @@
         <v>6149</v>
       </c>
       <c r="B6149">
-        <v>34.38455961094234</v>
+        <v>34.38455961094233</v>
       </c>
     </row>
     <row r="6150" spans="1:2">
@@ -49583,7 +49583,7 @@
         <v>6155</v>
       </c>
       <c r="B6155">
-        <v>47.29345965085862</v>
+        <v>47.29345965085861</v>
       </c>
     </row>
     <row r="6156" spans="1:2">
@@ -49591,7 +49591,7 @@
         <v>6156</v>
       </c>
       <c r="B6156">
-        <v>61.89396572592818</v>
+        <v>61.89396572592817</v>
       </c>
     </row>
     <row r="6157" spans="1:2">
@@ -49615,7 +49615,7 @@
         <v>6159</v>
       </c>
       <c r="B6159">
-        <v>93.09401543077634</v>
+        <v>93.09401543077632</v>
       </c>
     </row>
     <row r="6160" spans="1:2">
@@ -49631,7 +49631,7 @@
         <v>6161</v>
       </c>
       <c r="B6161">
-        <v>97.97276901137177</v>
+        <v>97.97276901137174</v>
       </c>
     </row>
     <row r="6162" spans="1:2">
@@ -49783,7 +49783,7 @@
         <v>6180</v>
       </c>
       <c r="B6180">
-        <v>44.49638965787474</v>
+        <v>44.49638965787473</v>
       </c>
     </row>
     <row r="6181" spans="1:2">
@@ -49791,7 +49791,7 @@
         <v>6181</v>
       </c>
       <c r="B6181">
-        <v>58.86009433370593</v>
+        <v>58.86009433370592</v>
       </c>
     </row>
     <row r="6182" spans="1:2">
@@ -49863,7 +49863,7 @@
         <v>6190</v>
       </c>
       <c r="B6190">
-        <v>89.04054989505127</v>
+        <v>89.04054989505126</v>
       </c>
     </row>
     <row r="6191" spans="1:2">
@@ -49879,7 +49879,7 @@
         <v>6192</v>
       </c>
       <c r="B6192">
-        <v>65.5535437856924</v>
+        <v>65.55354378569238</v>
       </c>
     </row>
     <row r="6193" spans="1:2">
@@ -49895,7 +49895,7 @@
         <v>6194</v>
       </c>
       <c r="B6194">
-        <v>50.33788160047267</v>
+        <v>50.33788160047266</v>
       </c>
     </row>
     <row r="6195" spans="1:2">
@@ -49927,7 +49927,7 @@
         <v>6198</v>
       </c>
       <c r="B6198">
-        <v>32.12234426351542</v>
+        <v>32.12234426351541</v>
       </c>
     </row>
     <row r="6199" spans="1:2">
@@ -50007,7 +50007,7 @@
         <v>6208</v>
       </c>
       <c r="B6208">
-        <v>77.0899921515576</v>
+        <v>77.08999215155758</v>
       </c>
     </row>
     <row r="6209" spans="1:2">
@@ -50015,7 +50015,7 @@
         <v>6209</v>
       </c>
       <c r="B6209">
-        <v>79.74404347767474</v>
+        <v>79.74404347767472</v>
       </c>
     </row>
     <row r="6210" spans="1:2">
@@ -50151,7 +50151,7 @@
         <v>6226</v>
       </c>
       <c r="B6226">
-        <v>46.4224525239571</v>
+        <v>46.42245252395709</v>
       </c>
     </row>
     <row r="6227" spans="1:2">
@@ -50191,7 +50191,7 @@
         <v>6231</v>
       </c>
       <c r="B6231">
-        <v>73.88701877002775</v>
+        <v>73.88701877002774</v>
       </c>
     </row>
     <row r="6232" spans="1:2">
@@ -50271,7 +50271,7 @@
         <v>6241</v>
       </c>
       <c r="B6241">
-        <v>81.75216623458228</v>
+        <v>81.75216623458226</v>
       </c>
     </row>
     <row r="6242" spans="1:2">
@@ -50383,7 +50383,7 @@
         <v>6255</v>
       </c>
       <c r="B6255">
-        <v>84.41881961536185</v>
+        <v>84.41881961536184</v>
       </c>
     </row>
     <row r="6256" spans="1:2">
@@ -50487,7 +50487,7 @@
         <v>6268</v>
       </c>
       <c r="B6268">
-        <v>43.71916526334485</v>
+        <v>43.71916526334484</v>
       </c>
     </row>
     <row r="6269" spans="1:2">
@@ -50551,7 +50551,7 @@
         <v>6276</v>
       </c>
       <c r="B6276">
-        <v>64.43284013385141</v>
+        <v>64.4328401338514</v>
       </c>
     </row>
     <row r="6277" spans="1:2">
@@ -50575,7 +50575,7 @@
         <v>6279</v>
       </c>
       <c r="B6279">
-        <v>86.80178023071726</v>
+        <v>86.80178023071724</v>
       </c>
     </row>
     <row r="6280" spans="1:2">
@@ -50623,7 +50623,7 @@
         <v>6285</v>
       </c>
       <c r="B6285">
-        <v>77.58674756208858</v>
+        <v>77.58674756208856</v>
       </c>
     </row>
     <row r="6286" spans="1:2">
@@ -50695,7 +50695,7 @@
         <v>6294</v>
       </c>
       <c r="B6294">
-        <v>5.767520812439811</v>
+        <v>5.76752081243981</v>
       </c>
     </row>
     <row r="6295" spans="1:2">
@@ -50775,7 +50775,7 @@
         <v>6304</v>
       </c>
       <c r="B6304">
-        <v>29.28447878194988</v>
+        <v>29.28447878194987</v>
       </c>
     </row>
     <row r="6305" spans="1:2">
@@ -50799,7 +50799,7 @@
         <v>6307</v>
       </c>
       <c r="B6307">
-        <v>65.09781832057401</v>
+        <v>65.09781832057399</v>
       </c>
     </row>
     <row r="6308" spans="1:2">
@@ -50831,7 +50831,7 @@
         <v>6311</v>
       </c>
       <c r="B6311">
-        <v>28.75516317902362</v>
+        <v>28.75516317902361</v>
       </c>
     </row>
     <row r="6312" spans="1:2">
@@ -51071,7 +51071,7 @@
         <v>6341</v>
       </c>
       <c r="B6341">
-        <v>6.26360215958187</v>
+        <v>6.263602159581869</v>
       </c>
     </row>
     <row r="6342" spans="1:2">
@@ -51119,7 +51119,7 @@
         <v>6347</v>
       </c>
       <c r="B6347">
-        <v>20.60271817526938</v>
+        <v>20.60271817526937</v>
       </c>
     </row>
     <row r="6348" spans="1:2">
@@ -51159,7 +51159,7 @@
         <v>6352</v>
       </c>
       <c r="B6352">
-        <v>48.95224172968183</v>
+        <v>48.95224172968182</v>
       </c>
     </row>
     <row r="6353" spans="1:2">
@@ -51191,7 +51191,7 @@
         <v>6356</v>
       </c>
       <c r="B6356">
-        <v>68.90422497070756</v>
+        <v>68.90422497070755</v>
       </c>
     </row>
     <row r="6357" spans="1:2">
@@ -51575,7 +51575,7 @@
         <v>6404</v>
       </c>
       <c r="B6404">
-        <v>68.72076250050556</v>
+        <v>68.72076250050554</v>
       </c>
     </row>
     <row r="6405" spans="1:2">
@@ -51591,7 +51591,7 @@
         <v>6406</v>
       </c>
       <c r="B6406">
-        <v>56.44958504071637</v>
+        <v>56.44958504071636</v>
       </c>
     </row>
     <row r="6407" spans="1:2">
@@ -51663,7 +51663,7 @@
         <v>6415</v>
       </c>
       <c r="B6415">
-        <v>3.584141574412789</v>
+        <v>3.584141574412788</v>
       </c>
     </row>
     <row r="6416" spans="1:2">
@@ -51783,7 +51783,7 @@
         <v>6430</v>
       </c>
       <c r="B6430">
-        <v>59.19888445439845</v>
+        <v>59.19888445439844</v>
       </c>
     </row>
     <row r="6431" spans="1:2">
@@ -51839,7 +51839,7 @@
         <v>6437</v>
       </c>
       <c r="B6437">
-        <v>15.07425540906563</v>
+        <v>15.07425540906562</v>
       </c>
     </row>
     <row r="6438" spans="1:2">
@@ -51855,7 +51855,7 @@
         <v>6439</v>
       </c>
       <c r="B6439">
-        <v>3.800691764879657</v>
+        <v>3.800691764879656</v>
       </c>
     </row>
     <row r="6440" spans="1:2">
@@ -52087,7 +52087,7 @@
         <v>6468</v>
       </c>
       <c r="B6468">
-        <v>33.74009639692604</v>
+        <v>33.74009639692603</v>
       </c>
     </row>
     <row r="6469" spans="1:2">
@@ -52111,7 +52111,7 @@
         <v>6471</v>
       </c>
       <c r="B6471">
-        <v>73.20680088929477</v>
+        <v>73.20680088929475</v>
       </c>
     </row>
     <row r="6472" spans="1:2">
@@ -52175,7 +52175,7 @@
         <v>6479</v>
       </c>
       <c r="B6479">
-        <v>62.81391571628614</v>
+        <v>62.81391571628613</v>
       </c>
     </row>
     <row r="6480" spans="1:2">
@@ -52223,7 +52223,7 @@
         <v>6485</v>
       </c>
       <c r="B6485">
-        <v>31.80055226306526</v>
+        <v>31.80055226306525</v>
       </c>
     </row>
     <row r="6486" spans="1:2">
@@ -52431,7 +52431,7 @@
         <v>6511</v>
       </c>
       <c r="B6511">
-        <v>4.240737929429667</v>
+        <v>4.240737929429666</v>
       </c>
     </row>
     <row r="6512" spans="1:2">
@@ -52511,7 +52511,7 @@
         <v>6521</v>
       </c>
       <c r="B6521">
-        <v>72.29007468036208</v>
+        <v>72.29007468036207</v>
       </c>
     </row>
     <row r="6522" spans="1:2">
@@ -52567,7 +52567,7 @@
         <v>6528</v>
       </c>
       <c r="B6528">
-        <v>61.92708275329691</v>
+        <v>61.9270827532969</v>
       </c>
     </row>
     <row r="6529" spans="1:2">
@@ -52583,7 +52583,7 @@
         <v>6530</v>
       </c>
       <c r="B6530">
-        <v>50.90849091274631</v>
+        <v>50.9084909127463</v>
       </c>
     </row>
     <row r="6531" spans="1:2">
@@ -52767,7 +52767,7 @@
         <v>6553</v>
       </c>
       <c r="B6553">
-        <v>52.94152470794006</v>
+        <v>52.94152470794005</v>
       </c>
     </row>
     <row r="6554" spans="1:2">
@@ -52775,7 +52775,7 @@
         <v>6554</v>
       </c>
       <c r="B6554">
-        <v>26.50042114308256</v>
+        <v>26.50042114308255</v>
       </c>
     </row>
     <row r="6555" spans="1:2">
@@ -52871,7 +52871,7 @@
         <v>6566</v>
       </c>
       <c r="B6566">
-        <v>22.71300549625426</v>
+        <v>22.71300549625425</v>
       </c>
     </row>
     <row r="6567" spans="1:2">
@@ -52919,7 +52919,7 @@
         <v>6572</v>
       </c>
       <c r="B6572">
-        <v>48.28960811126853</v>
+        <v>48.28960811126852</v>
       </c>
     </row>
     <row r="6573" spans="1:2">
@@ -52999,7 +52999,7 @@
         <v>6582</v>
       </c>
       <c r="B6582">
-        <v>2.946272458766371</v>
+        <v>2.94627245876637</v>
       </c>
     </row>
     <row r="6583" spans="1:2">
@@ -53007,7 +53007,7 @@
         <v>6583</v>
       </c>
       <c r="B6583">
-        <v>2.394698110453786</v>
+        <v>2.394698110453785</v>
       </c>
     </row>
     <row r="6584" spans="1:2">
@@ -53055,7 +53055,7 @@
         <v>6589</v>
       </c>
       <c r="B6589">
-        <v>23.27060245441134</v>
+        <v>23.27060245441133</v>
       </c>
     </row>
     <row r="6590" spans="1:2">
@@ -53279,7 +53279,7 @@
         <v>6617</v>
       </c>
       <c r="B6617">
-        <v>30.16492279629629</v>
+        <v>30.16492279629628</v>
       </c>
     </row>
     <row r="6618" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>62.13369783555316</v>
+        <v>62.13369783555315</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53351,7 +53351,7 @@
         <v>6626</v>
       </c>
       <c r="B6626">
-        <v>3.451732079145593</v>
+        <v>3.451732079145592</v>
       </c>
     </row>
     <row r="6627" spans="1:2">
@@ -53407,7 +53407,7 @@
         <v>6633</v>
       </c>
       <c r="B6633">
-        <v>2.876322263258681</v>
+        <v>2.87632226325868</v>
       </c>
     </row>
     <row r="6634" spans="1:2">
@@ -53479,7 +53479,7 @@
         <v>6642</v>
       </c>
       <c r="B6642">
-        <v>73.30146283478238</v>
+        <v>73.30146283478237</v>
       </c>
     </row>
     <row r="6643" spans="1:2">
@@ -53535,7 +53535,7 @@
         <v>6649</v>
       </c>
       <c r="B6649">
-        <v>16.55414692588996</v>
+        <v>16.55414692588995</v>
       </c>
     </row>
     <row r="6650" spans="1:2">
@@ -53551,7 +53551,7 @@
         <v>6651</v>
       </c>
       <c r="B6651">
-        <v>8.763058512805154</v>
+        <v>8.763058512805152</v>
       </c>
     </row>
     <row r="6652" spans="1:2">
@@ -53575,7 +53575,7 @@
         <v>6654</v>
       </c>
       <c r="B6654">
-        <v>6.479507593763684</v>
+        <v>6.479507593763683</v>
       </c>
     </row>
     <row r="6655" spans="1:2">
@@ -53599,7 +53599,7 @@
         <v>6657</v>
       </c>
       <c r="B6657">
-        <v>7.502032447653117</v>
+        <v>7.502032447653116</v>
       </c>
     </row>
     <row r="6658" spans="1:2">
@@ -53607,7 +53607,7 @@
         <v>6658</v>
       </c>
       <c r="B6658">
-        <v>17.28154924384742</v>
+        <v>17.28154924384741</v>
       </c>
     </row>
     <row r="6659" spans="1:2">
@@ -53615,7 +53615,7 @@
         <v>6659</v>
       </c>
       <c r="B6659">
-        <v>25.12571282203379</v>
+        <v>25.12571282203378</v>
       </c>
     </row>
     <row r="6660" spans="1:2">
@@ -53631,7 +53631,7 @@
         <v>6661</v>
       </c>
       <c r="B6661">
-        <v>37.56408730937928</v>
+        <v>37.56408730937927</v>
       </c>
     </row>
     <row r="6662" spans="1:2">
@@ -53735,7 +53735,7 @@
         <v>6674</v>
       </c>
       <c r="B6674">
-        <v>19.03921349111497</v>
+        <v>19.03921349111496</v>
       </c>
     </row>
     <row r="6675" spans="1:2">
@@ -53943,7 +53943,7 @@
         <v>6700</v>
       </c>
       <c r="B6700">
-        <v>9.457929945471204</v>
+        <v>9.457929945471202</v>
       </c>
     </row>
     <row r="6701" spans="1:2">
@@ -53967,7 +53967,7 @@
         <v>6703</v>
       </c>
       <c r="B6703">
-        <v>3.751485137488417</v>
+        <v>3.751485137488416</v>
       </c>
     </row>
     <row r="6704" spans="1:2">
@@ -54031,7 +54031,7 @@
         <v>6711</v>
       </c>
       <c r="B6711">
-        <v>70.56007633914416</v>
+        <v>70.56007633914415</v>
       </c>
     </row>
     <row r="6712" spans="1:2">
@@ -54039,7 +54039,7 @@
         <v>6712</v>
       </c>
       <c r="B6712">
-        <v>73.03857811310316</v>
+        <v>73.03857811310314</v>
       </c>
     </row>
     <row r="6713" spans="1:2">
@@ -54071,7 +54071,7 @@
         <v>6716</v>
       </c>
       <c r="B6716">
-        <v>78.3841938582861</v>
+        <v>78.38419385828608</v>
       </c>
     </row>
     <row r="6717" spans="1:2">
@@ -54095,7 +54095,7 @@
         <v>6719</v>
       </c>
       <c r="B6719">
-        <v>53.99921808646886</v>
+        <v>53.99921808646885</v>
       </c>
     </row>
     <row r="6720" spans="1:2">
@@ -54111,7 +54111,7 @@
         <v>6721</v>
       </c>
       <c r="B6721">
-        <v>41.11552215587746</v>
+        <v>41.11552215587745</v>
       </c>
     </row>
     <row r="6722" spans="1:2">
@@ -54167,7 +54167,7 @@
         <v>6728</v>
       </c>
       <c r="B6728">
-        <v>7.239382182804819</v>
+        <v>7.239382182804818</v>
       </c>
     </row>
     <row r="6729" spans="1:2">
@@ -54303,7 +54303,7 @@
         <v>6745</v>
       </c>
       <c r="B6745">
-        <v>47.38753545426891</v>
+        <v>47.3875354542689</v>
       </c>
     </row>
     <row r="6746" spans="1:2">
@@ -54407,7 +54407,7 @@
         <v>6758</v>
       </c>
       <c r="B6758">
-        <v>58.82902880360783</v>
+        <v>58.82902880360782</v>
       </c>
     </row>
     <row r="6759" spans="1:2">
@@ -54439,7 +54439,7 @@
         <v>6762</v>
       </c>
       <c r="B6762">
-        <v>86.59780278780896</v>
+        <v>86.59780278780894</v>
       </c>
     </row>
     <row r="6763" spans="1:2">
@@ -54479,7 +54479,7 @@
         <v>6767</v>
       </c>
       <c r="B6767">
-        <v>31.79410470021471</v>
+        <v>31.7941047002147</v>
       </c>
     </row>
     <row r="6768" spans="1:2">
@@ -54695,7 +54695,7 @@
         <v>6794</v>
       </c>
       <c r="B6794">
-        <v>3.63144324005273</v>
+        <v>3.631443240052729</v>
       </c>
     </row>
     <row r="6795" spans="1:2">
@@ -54831,7 +54831,7 @@
         <v>6811</v>
       </c>
       <c r="B6811">
-        <v>33.34503663681055</v>
+        <v>33.34503663681054</v>
       </c>
     </row>
     <row r="6812" spans="1:2">
@@ -54871,7 +54871,7 @@
         <v>6816</v>
       </c>
       <c r="B6816">
-        <v>4.36429667932929</v>
+        <v>4.364296679329289</v>
       </c>
     </row>
     <row r="6817" spans="1:2">
@@ -54903,7 +54903,7 @@
         <v>6820</v>
       </c>
       <c r="B6820">
-        <v>1.785207063480946</v>
+        <v>1.785207063480945</v>
       </c>
     </row>
     <row r="6821" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>6.187081311387393</v>
+        <v>6.187081311387392</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>9.731335917438372</v>
+        <v>9.73133591743837</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -55127,7 +55127,7 @@
         <v>6848</v>
       </c>
       <c r="B6848">
-        <v>0.779800488959721</v>
+        <v>0.7798004889597209</v>
       </c>
     </row>
     <row r="6849" spans="1:2">
@@ -55263,7 +55263,7 @@
         <v>6865</v>
       </c>
       <c r="B6865">
-        <v>2.903038619143049</v>
+        <v>2.903038619143048</v>
       </c>
     </row>
     <row r="6866" spans="1:2">
@@ -55447,7 +55447,7 @@
         <v>6888</v>
       </c>
       <c r="B6888">
-        <v>2.916012874024587</v>
+        <v>2.916012874024586</v>
       </c>
     </row>
     <row r="6889" spans="1:2">
@@ -55599,7 +55599,7 @@
         <v>6907</v>
       </c>
       <c r="B6907">
-        <v>42.6975196225714</v>
+        <v>42.69751962257139</v>
       </c>
     </row>
     <row r="6908" spans="1:2">
@@ -55615,7 +55615,7 @@
         <v>6909</v>
       </c>
       <c r="B6909">
-        <v>28.86178242288862</v>
+        <v>28.86178242288861</v>
       </c>
     </row>
     <row r="6910" spans="1:2">
@@ -55639,7 +55639,7 @@
         <v>6912</v>
       </c>
       <c r="B6912">
-        <v>7.732591433767998</v>
+        <v>7.732591433767997</v>
       </c>
     </row>
     <row r="6913" spans="1:2">
@@ -55871,7 +55871,7 @@
         <v>6941</v>
       </c>
       <c r="B6941">
-        <v>1.956131954649016</v>
+        <v>1.956131954649015</v>
       </c>
     </row>
     <row r="6942" spans="1:2">
@@ -55951,7 +55951,7 @@
         <v>6951</v>
       </c>
       <c r="B6951">
-        <v>32.4280173568392</v>
+        <v>32.42801735683919</v>
       </c>
     </row>
     <row r="6952" spans="1:2">
@@ -55967,7 +55967,7 @@
         <v>6953</v>
       </c>
       <c r="B6953">
-        <v>29.70773197598459</v>
+        <v>29.70773197598458</v>
       </c>
     </row>
     <row r="6954" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>3.373364883407549</v>
+        <v>3.373364883407548</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56127,7 +56127,7 @@
         <v>6973</v>
       </c>
       <c r="B6973">
-        <v>28.6664798827247</v>
+        <v>28.66647988272469</v>
       </c>
     </row>
     <row r="6974" spans="1:2">
@@ -56287,7 +56287,7 @@
         <v>6993</v>
       </c>
       <c r="B6993">
-        <v>5.930526924143251</v>
+        <v>5.93052692414325</v>
       </c>
     </row>
     <row r="6994" spans="1:2">
@@ -56351,7 +56351,7 @@
         <v>7001</v>
       </c>
       <c r="B7001">
-        <v>48.06042655903536</v>
+        <v>48.06042655903535</v>
       </c>
     </row>
     <row r="7002" spans="1:2">
@@ -56471,7 +56471,7 @@
         <v>7016</v>
       </c>
       <c r="B7016">
-        <v>3.636249605086776</v>
+        <v>3.636249605086775</v>
       </c>
     </row>
     <row r="7017" spans="1:2">
@@ -56495,7 +56495,7 @@
         <v>7019</v>
       </c>
       <c r="B7019">
-        <v>28.00460824901192</v>
+        <v>28.00460824901191</v>
       </c>
     </row>
     <row r="7020" spans="1:2">
@@ -56535,7 +56535,7 @@
         <v>7024</v>
       </c>
       <c r="B7024">
-        <v>59.4585453946524</v>
+        <v>59.45854539465239</v>
       </c>
     </row>
     <row r="7025" spans="1:2">
@@ -56543,7 +56543,7 @@
         <v>7025</v>
       </c>
       <c r="B7025">
-        <v>50.72502844254431</v>
+        <v>50.7250284425443</v>
       </c>
     </row>
     <row r="7026" spans="1:2">
@@ -56575,7 +56575,7 @@
         <v>7029</v>
       </c>
       <c r="B7029">
-        <v>60.63786325422565</v>
+        <v>60.63786325422564</v>
       </c>
     </row>
     <row r="7030" spans="1:2">
@@ -56599,7 +56599,7 @@
         <v>7032</v>
       </c>
       <c r="B7032">
-        <v>34.89655471548371</v>
+        <v>34.8965547154837</v>
       </c>
     </row>
     <row r="7033" spans="1:2">
@@ -56695,7 +56695,7 @@
         <v>7044</v>
       </c>
       <c r="B7044">
-        <v>35.8390711758186</v>
+        <v>35.83907117581859</v>
       </c>
     </row>
     <row r="7045" spans="1:2">
@@ -56711,7 +56711,7 @@
         <v>7046</v>
       </c>
       <c r="B7046">
-        <v>49.19666297592539</v>
+        <v>49.19666297592538</v>
       </c>
     </row>
     <row r="7047" spans="1:2">
@@ -56735,7 +56735,7 @@
         <v>7049</v>
       </c>
       <c r="B7049">
-        <v>40.11146077742369</v>
+        <v>40.11146077742368</v>
       </c>
     </row>
     <row r="7050" spans="1:2">
@@ -56767,7 +56767,7 @@
         <v>7053</v>
       </c>
       <c r="B7053">
-        <v>54.63078617478406</v>
+        <v>54.63078617478405</v>
       </c>
     </row>
     <row r="7054" spans="1:2">
@@ -56871,7 +56871,7 @@
         <v>7066</v>
       </c>
       <c r="B7066">
-        <v>14.31865965718895</v>
+        <v>14.31865965718894</v>
       </c>
     </row>
     <row r="7067" spans="1:2">
@@ -56887,7 +56887,7 @@
         <v>7068</v>
       </c>
       <c r="B7068">
-        <v>28.95574099788345</v>
+        <v>28.95574099788344</v>
       </c>
     </row>
     <row r="7069" spans="1:2">
@@ -56935,7 +56935,7 @@
         <v>7074</v>
       </c>
       <c r="B7074">
-        <v>88.86968947951171</v>
+        <v>88.86968947951169</v>
       </c>
     </row>
     <row r="7075" spans="1:2">
@@ -56967,7 +56967,7 @@
         <v>7078</v>
       </c>
       <c r="B7078">
-        <v>55.77229787037</v>
+        <v>55.77229787036999</v>
       </c>
     </row>
     <row r="7079" spans="1:2">
@@ -57047,7 +57047,7 @@
         <v>7088</v>
       </c>
       <c r="B7088">
-        <v>3.978263507204566</v>
+        <v>3.978263507204565</v>
       </c>
     </row>
     <row r="7089" spans="1:2">
@@ -57135,7 +57135,7 @@
         <v>7099</v>
       </c>
       <c r="B7099">
-        <v>86.47002381495261</v>
+        <v>86.4700238149526</v>
       </c>
     </row>
     <row r="7100" spans="1:2">
@@ -57151,7 +57151,7 @@
         <v>7101</v>
       </c>
       <c r="B7101">
-        <v>70.66411655786894</v>
+        <v>70.66411655786892</v>
       </c>
     </row>
     <row r="7102" spans="1:2">
@@ -57167,7 +57167,7 @@
         <v>7103</v>
       </c>
       <c r="B7103">
-        <v>53.44589996547624</v>
+        <v>53.44589996547623</v>
       </c>
     </row>
     <row r="7104" spans="1:2">
@@ -57271,7 +57271,7 @@
         <v>7116</v>
       </c>
       <c r="B7116">
-        <v>47.92532081021248</v>
+        <v>47.92532081021247</v>
       </c>
     </row>
     <row r="7117" spans="1:2">
@@ -57311,7 +57311,7 @@
         <v>7121</v>
       </c>
       <c r="B7121">
-        <v>64.09170544484961</v>
+        <v>64.09170544484959</v>
       </c>
     </row>
     <row r="7122" spans="1:2">
@@ -57351,7 +57351,7 @@
         <v>7126</v>
       </c>
       <c r="B7126">
-        <v>65.44159064892376</v>
+        <v>65.44159064892375</v>
       </c>
     </row>
     <row r="7127" spans="1:2">
@@ -57367,7 +57367,7 @@
         <v>7128</v>
       </c>
       <c r="B7128">
-        <v>42.50379966601625</v>
+        <v>42.50379966601624</v>
       </c>
     </row>
     <row r="7129" spans="1:2">
@@ -57495,7 +57495,7 @@
         <v>7144</v>
       </c>
       <c r="B7144">
-        <v>59.02773096782022</v>
+        <v>59.02773096782021</v>
       </c>
     </row>
     <row r="7145" spans="1:2">
@@ -57543,7 +57543,7 @@
         <v>7150</v>
       </c>
       <c r="B7150">
-        <v>42.52665920703184</v>
+        <v>42.52665920703183</v>
       </c>
     </row>
     <row r="7151" spans="1:2">
@@ -57575,7 +57575,7 @@
         <v>7154</v>
       </c>
       <c r="B7154">
-        <v>6.599989097757362</v>
+        <v>6.599989097757361</v>
       </c>
     </row>
     <row r="7155" spans="1:2">
@@ -57591,7 +57591,7 @@
         <v>7156</v>
       </c>
       <c r="B7156">
-        <v>2.515686627344349</v>
+        <v>2.515686627344348</v>
       </c>
     </row>
     <row r="7157" spans="1:2">
@@ -57687,7 +57687,7 @@
         <v>7168</v>
       </c>
       <c r="B7168">
-        <v>24.65785421591482</v>
+        <v>24.65785421591481</v>
       </c>
     </row>
     <row r="7169" spans="1:2">
@@ -57751,7 +57751,7 @@
         <v>7176</v>
       </c>
       <c r="B7176">
-        <v>4.052557015505217</v>
+        <v>4.052557015505216</v>
       </c>
     </row>
     <row r="7177" spans="1:2">
@@ -57951,7 +57951,7 @@
         <v>7201</v>
       </c>
       <c r="B7201">
-        <v>6.234939812000791</v>
+        <v>6.23493981200079</v>
       </c>
     </row>
     <row r="7202" spans="1:2">
@@ -58079,7 +58079,7 @@
         <v>7217</v>
       </c>
       <c r="B7217">
-        <v>24.77285529148553</v>
+        <v>24.77285529148552</v>
       </c>
     </row>
     <row r="7218" spans="1:2">
@@ -58135,7 +58135,7 @@
         <v>7224</v>
       </c>
       <c r="B7224">
-        <v>9.214036227097232</v>
+        <v>9.21403622709723</v>
       </c>
     </row>
     <row r="7225" spans="1:2">
@@ -58407,7 +58407,7 @@
         <v>7258</v>
       </c>
       <c r="B7258">
-        <v>1.196483030307649</v>
+        <v>1.196483030307648</v>
       </c>
     </row>
     <row r="7259" spans="1:2">
@@ -58519,7 +58519,7 @@
         <v>7272</v>
       </c>
       <c r="B7272">
-        <v>2.825867153242744</v>
+        <v>2.825867153242743</v>
       </c>
     </row>
     <row r="7273" spans="1:2">
@@ -58551,7 +58551,7 @@
         <v>7276</v>
       </c>
       <c r="B7276">
-        <v>1.410802950170304</v>
+        <v>1.410802950170303</v>
       </c>
     </row>
     <row r="7277" spans="1:2">
@@ -58607,7 +58607,7 @@
         <v>7283</v>
       </c>
       <c r="B7283">
-        <v>2.416344337369313</v>
+        <v>2.416344337369312</v>
       </c>
     </row>
     <row r="7284" spans="1:2">
@@ -58735,7 +58735,7 @@
         <v>7299</v>
       </c>
       <c r="B7299">
-        <v>2.086917836362028</v>
+        <v>2.086917836362027</v>
       </c>
     </row>
     <row r="7300" spans="1:2">
@@ -58791,7 +58791,7 @@
         <v>7306</v>
       </c>
       <c r="B7306">
-        <v>1.663330541343239</v>
+        <v>1.663330541343238</v>
       </c>
     </row>
     <row r="7307" spans="1:2">
@@ -58847,7 +58847,7 @@
         <v>7313</v>
       </c>
       <c r="B7313">
-        <v>7.840705339930167</v>
+        <v>7.840705339930166</v>
       </c>
     </row>
     <row r="7314" spans="1:2">
@@ -58887,7 +58887,7 @@
         <v>7318</v>
       </c>
       <c r="B7318">
-        <v>7.933315788147152</v>
+        <v>7.933315788147151</v>
       </c>
     </row>
     <row r="7319" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>0.4829048732438451</v>
+        <v>0.482904873243845</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -59095,7 +59095,7 @@
         <v>7344</v>
       </c>
       <c r="B7344">
-        <v>2.416933410157022</v>
+        <v>2.416933410157021</v>
       </c>
     </row>
     <row r="7345" spans="1:2">
@@ -59295,7 +59295,7 @@
         <v>7369</v>
       </c>
       <c r="B7369">
-        <v>2.918108331951016</v>
+        <v>2.918108331951015</v>
       </c>
     </row>
     <row r="7370" spans="1:2">
@@ -59359,7 +59359,7 @@
         <v>7377</v>
       </c>
       <c r="B7377">
-        <v>1.37374997875235</v>
+        <v>1.373749978752349</v>
       </c>
     </row>
     <row r="7378" spans="1:2">
@@ -59759,7 +59759,7 @@
         <v>7427</v>
       </c>
       <c r="B7427">
-        <v>7.706625339742602</v>
+        <v>7.706625339742601</v>
       </c>
     </row>
     <row r="7428" spans="1:2">
@@ -60039,7 +60039,7 @@
         <v>7462</v>
       </c>
       <c r="B7462">
-        <v>31.91631532333649</v>
+        <v>31.91631532333648</v>
       </c>
     </row>
     <row r="7463" spans="1:2">
@@ -60199,7 +60199,7 @@
         <v>7482</v>
       </c>
       <c r="B7482">
-        <v>1.958625989188024</v>
+        <v>1.958625989188023</v>
       </c>
     </row>
     <row r="7483" spans="1:2">
@@ -60215,7 +60215,7 @@
         <v>7484</v>
       </c>
       <c r="B7484">
-        <v>8.80130428335046</v>
+        <v>8.801304283350458</v>
       </c>
     </row>
     <row r="7485" spans="1:2">
@@ -60327,7 +60327,7 @@
         <v>7498</v>
       </c>
       <c r="B7498">
-        <v>0.3229847995775088</v>
+        <v>0.3229847995775087</v>
       </c>
     </row>
     <row r="7499" spans="1:2">
@@ -60647,7 +60647,7 @@
         <v>7538</v>
       </c>
       <c r="B7538">
-        <v>1.064278684767516</v>
+        <v>1.064278684767515</v>
       </c>
     </row>
     <row r="7539" spans="1:2">
@@ -60663,7 +60663,7 @@
         <v>7540</v>
       </c>
       <c r="B7540">
-        <v>0.8233186074905442</v>
+        <v>0.8233186074905441</v>
       </c>
     </row>
     <row r="7541" spans="1:2">
@@ -60863,7 +60863,7 @@
         <v>7565</v>
       </c>
       <c r="B7565">
-        <v>0.87843940844197</v>
+        <v>0.8784394084419699</v>
       </c>
     </row>
     <row r="7566" spans="1:2">
@@ -60959,7 +60959,7 @@
         <v>7577</v>
       </c>
       <c r="B7577">
-        <v>3.580478186429522</v>
+        <v>3.580478186429521</v>
       </c>
     </row>
     <row r="7578" spans="1:2">
@@ -60983,7 +60983,7 @@
         <v>7580</v>
       </c>
       <c r="B7580">
-        <v>8.394785445623308</v>
+        <v>8.394785445623306</v>
       </c>
     </row>
     <row r="7581" spans="1:2">
@@ -60991,7 +60991,7 @@
         <v>7581</v>
       </c>
       <c r="B7581">
-        <v>6.646235707658123</v>
+        <v>6.646235707658122</v>
       </c>
     </row>
     <row r="7582" spans="1:2">
@@ -61071,7 +61071,7 @@
         <v>7591</v>
       </c>
       <c r="B7591">
-        <v>1.154538703254437</v>
+        <v>1.154538703254436</v>
       </c>
     </row>
     <row r="7592" spans="1:2">
@@ -61111,7 +61111,7 @@
         <v>7596</v>
       </c>
       <c r="B7596">
-        <v>0.3545866496763617</v>
+        <v>0.3545866496763616</v>
       </c>
     </row>
     <row r="7597" spans="1:2">
@@ -61247,7 +61247,7 @@
         <v>7613</v>
       </c>
       <c r="B7613">
-        <v>0.7895626852575304</v>
+        <v>0.7895626852575303</v>
       </c>
     </row>
     <row r="7614" spans="1:2">
@@ -61263,7 +61263,7 @@
         <v>7615</v>
       </c>
       <c r="B7615">
-        <v>0.8427199102499252</v>
+        <v>0.8427199102499251</v>
       </c>
     </row>
     <row r="7616" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>6.591988258401908</v>
+        <v>6.591988258401907</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -61567,7 +61567,7 @@
         <v>7653</v>
       </c>
       <c r="B7653">
-        <v>7.102635236165436</v>
+        <v>7.102635236165435</v>
       </c>
     </row>
     <row r="7654" spans="1:2">
@@ -61671,7 +61671,7 @@
         <v>7666</v>
       </c>
       <c r="B7666">
-        <v>0.4757275635070288</v>
+        <v>0.4757275635070287</v>
       </c>
     </row>
     <row r="7667" spans="1:2">
@@ -61743,7 +61743,7 @@
         <v>7675</v>
       </c>
       <c r="B7675">
-        <v>4.81495201547884</v>
+        <v>4.814952015478839</v>
       </c>
     </row>
     <row r="7676" spans="1:2">
@@ -62455,7 +62455,7 @@
         <v>7764</v>
       </c>
       <c r="B7764">
-        <v>4.083095017733729</v>
+        <v>4.083095017733728</v>
       </c>
     </row>
     <row r="7765" spans="1:2">
@@ -62503,7 +62503,7 @@
         <v>7770</v>
       </c>
       <c r="B7770">
-        <v>3.477668866067122</v>
+        <v>3.477668866067121</v>
       </c>
     </row>
     <row r="7771" spans="1:2">
@@ -62559,7 +62559,7 @@
         <v>7777</v>
       </c>
       <c r="B7777">
-        <v>3.212586111597935</v>
+        <v>3.212586111597934</v>
       </c>
     </row>
     <row r="7778" spans="1:2">
@@ -62695,7 +62695,7 @@
         <v>7794</v>
       </c>
       <c r="B7794">
-        <v>2.549108448593289</v>
+        <v>2.549108448593288</v>
       </c>
     </row>
     <row r="7795" spans="1:2">
@@ -62983,7 +62983,7 @@
         <v>7830</v>
       </c>
       <c r="B7830">
-        <v>5.706708571917582</v>
+        <v>5.706708571917581</v>
       </c>
     </row>
     <row r="7831" spans="1:2">
@@ -62999,7 +62999,7 @@
         <v>7832</v>
       </c>
       <c r="B7832">
-        <v>3.461520651836882</v>
+        <v>3.461520651836881</v>
       </c>
     </row>
     <row r="7833" spans="1:2">
@@ -63135,7 +63135,7 @@
         <v>7849</v>
       </c>
       <c r="B7849">
-        <v>27.7558202442923</v>
+        <v>27.75582024429229</v>
       </c>
     </row>
     <row r="7850" spans="1:2">
@@ -63159,7 +63159,7 @@
         <v>7852</v>
       </c>
       <c r="B7852">
-        <v>15.84948692053262</v>
+        <v>15.84948692053261</v>
       </c>
     </row>
     <row r="7853" spans="1:2">
@@ -63199,7 +63199,7 @@
         <v>7857</v>
       </c>
       <c r="B7857">
-        <v>4.2021990878457</v>
+        <v>4.202199087845699</v>
       </c>
     </row>
     <row r="7858" spans="1:2">
@@ -63247,7 +63247,7 @@
         <v>7863</v>
       </c>
       <c r="B7863">
-        <v>45.61181803101982</v>
+        <v>45.61181803101981</v>
       </c>
     </row>
     <row r="7864" spans="1:2">
@@ -63335,7 +63335,7 @@
         <v>7874</v>
       </c>
       <c r="B7874">
-        <v>26.59666567217895</v>
+        <v>26.59666567217894</v>
       </c>
     </row>
     <row r="7875" spans="1:2">
@@ -63359,7 +63359,7 @@
         <v>7877</v>
       </c>
       <c r="B7877">
-        <v>14.44602833059117</v>
+        <v>14.44602833059116</v>
       </c>
     </row>
     <row r="7878" spans="1:2">
@@ -63399,7 +63399,7 @@
         <v>7882</v>
       </c>
       <c r="B7882">
-        <v>4.702178279801955</v>
+        <v>4.702178279801954</v>
       </c>
     </row>
     <row r="7883" spans="1:2">
@@ -63511,7 +63511,7 @@
         <v>7896</v>
       </c>
       <c r="B7896">
-        <v>7.754571761667599</v>
+        <v>7.754571761667598</v>
       </c>
     </row>
     <row r="7897" spans="1:2">
@@ -63783,7 +63783,7 @@
         <v>7930</v>
       </c>
       <c r="B7930">
-        <v>0.820135856010682</v>
+        <v>0.8201358560106818</v>
       </c>
     </row>
     <row r="7931" spans="1:2">
@@ -63807,7 +63807,7 @@
         <v>7933</v>
       </c>
       <c r="B7933">
-        <v>7.212654104078904</v>
+        <v>7.212654104078903</v>
       </c>
     </row>
     <row r="7934" spans="1:2">
@@ -63855,7 +63855,7 @@
         <v>7939</v>
       </c>
       <c r="B7939">
-        <v>18.87629530072313</v>
+        <v>18.87629530072312</v>
       </c>
     </row>
     <row r="7940" spans="1:2">
@@ -64063,7 +64063,7 @@
         <v>7965</v>
       </c>
       <c r="B7965">
-        <v>44.89613855460881</v>
+        <v>44.8961385546088</v>
       </c>
     </row>
     <row r="7966" spans="1:2">
@@ -64151,7 +64151,7 @@
         <v>7976</v>
       </c>
       <c r="B7976">
-        <v>2.680615285061408</v>
+        <v>2.680615285061407</v>
       </c>
     </row>
     <row r="7977" spans="1:2">
@@ -64239,7 +64239,7 @@
         <v>7987</v>
       </c>
       <c r="B7987">
-        <v>48.50354996949131</v>
+        <v>48.5035499694913</v>
       </c>
     </row>
     <row r="7988" spans="1:2">
@@ -64543,7 +64543,7 @@
         <v>8025</v>
       </c>
       <c r="B8025">
-        <v>0.4294194086881496</v>
+        <v>0.4294194086881495</v>
       </c>
     </row>
     <row r="8026" spans="1:2">
@@ -64559,7 +64559,7 @@
         <v>8027</v>
       </c>
       <c r="B8027">
-        <v>0.8219353121880626</v>
+        <v>0.8219353121880625</v>
       </c>
     </row>
     <row r="8028" spans="1:2">
@@ -64615,7 +64615,7 @@
         <v>8034</v>
       </c>
       <c r="B8034">
-        <v>1.1040835932385</v>
+        <v>1.104083593238499</v>
       </c>
     </row>
     <row r="8035" spans="1:2">
@@ -64623,7 +64623,7 @@
         <v>8035</v>
       </c>
       <c r="B8035">
-        <v>5.212444265215223</v>
+        <v>5.212444265215222</v>
       </c>
     </row>
     <row r="8036" spans="1:2">
@@ -64695,7 +64695,7 @@
         <v>8044</v>
       </c>
       <c r="B8044">
-        <v>0.8820940042940769</v>
+        <v>0.8820940042940768</v>
       </c>
     </row>
     <row r="8045" spans="1:2">
@@ -64871,7 +64871,7 @@
         <v>8066</v>
       </c>
       <c r="B8066">
-        <v>1.330369603609698</v>
+        <v>1.330369603609697</v>
       </c>
     </row>
     <row r="8067" spans="1:2">
@@ -64903,7 +64903,7 @@
         <v>8070</v>
       </c>
       <c r="B8070">
-        <v>1.019350894540732</v>
+        <v>1.019350894540731</v>
       </c>
     </row>
     <row r="8071" spans="1:2">
@@ -64927,7 +64927,7 @@
         <v>8073</v>
       </c>
       <c r="B8073">
-        <v>0.2963299886112595</v>
+        <v>0.2963299886112594</v>
       </c>
     </row>
     <row r="8074" spans="1:2">
@@ -64935,7 +64935,7 @@
         <v>8074</v>
       </c>
       <c r="B8074">
-        <v>0.2036228269515161</v>
+        <v>0.203622826951516</v>
       </c>
     </row>
     <row r="8075" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>1.381158814609709</v>
+        <v>1.381158814609708</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -65023,7 +65023,7 @@
         <v>8085</v>
       </c>
       <c r="B8085">
-        <v>7.97754020788115</v>
+        <v>7.977540207881149</v>
       </c>
     </row>
     <row r="8086" spans="1:2">
@@ -65343,7 +65343,7 @@
         <v>8125</v>
       </c>
       <c r="B8125">
-        <v>2.331819719108994</v>
+        <v>2.331819719108993</v>
       </c>
     </row>
     <row r="8126" spans="1:2">
@@ -65399,7 +65399,7 @@
         <v>8132</v>
       </c>
       <c r="B8132">
-        <v>6.8163927527049</v>
+        <v>6.816392752704899</v>
       </c>
     </row>
     <row r="8133" spans="1:2">
@@ -65447,7 +65447,7 @@
         <v>8138</v>
       </c>
       <c r="B8138">
-        <v>1.376352449575663</v>
+        <v>1.376352449575662</v>
       </c>
     </row>
     <row r="8139" spans="1:2">
@@ -65495,7 +65495,7 @@
         <v>8144</v>
       </c>
       <c r="B8144">
-        <v>0.8963841481392042</v>
+        <v>0.8963841481392041</v>
       </c>
     </row>
     <row r="8145" spans="1:2">
@@ -65527,7 +65527,7 @@
         <v>8148</v>
       </c>
       <c r="B8148">
-        <v>1.091156229723148</v>
+        <v>1.091156229723147</v>
       </c>
     </row>
     <row r="8149" spans="1:2">
@@ -65583,7 +65583,7 @@
         <v>8155</v>
       </c>
       <c r="B8155">
-        <v>2.184325857481899</v>
+        <v>2.184325857481898</v>
       </c>
     </row>
     <row r="8156" spans="1:2">
@@ -65663,7 +65663,7 @@
         <v>8165</v>
       </c>
       <c r="B8165">
-        <v>0.7955384037358352</v>
+        <v>0.7955384037358351</v>
       </c>
     </row>
     <row r="8166" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>0.9835434750370882</v>
+        <v>0.9835434750370881</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -66023,7 +66023,7 @@
         <v>8210</v>
       </c>
       <c r="B8210">
-        <v>0.8733429030796491</v>
+        <v>0.873342903079649</v>
       </c>
     </row>
     <row r="8211" spans="1:2">
@@ -66063,7 +66063,7 @@
         <v>8215</v>
       </c>
       <c r="B8215">
-        <v>0.6828174208459086</v>
+        <v>0.6828174208459085</v>
       </c>
     </row>
     <row r="8216" spans="1:2">
@@ -66071,7 +66071,7 @@
         <v>8216</v>
       </c>
       <c r="B8216">
-        <v>0.8271549073866211</v>
+        <v>0.827154907386621</v>
       </c>
     </row>
     <row r="8217" spans="1:2">
@@ -66119,7 +66119,7 @@
         <v>8222</v>
       </c>
       <c r="B8222">
-        <v>1.671721165180113</v>
+        <v>1.671721165180112</v>
       </c>
     </row>
     <row r="8223" spans="1:2">
@@ -66159,7 +66159,7 @@
         <v>8227</v>
       </c>
       <c r="B8227">
-        <v>0.2347035967436291</v>
+        <v>0.234703596743629</v>
       </c>
     </row>
     <row r="8228" spans="1:2">
@@ -66247,7 +66247,7 @@
         <v>8238</v>
       </c>
       <c r="B8238">
-        <v>0.8247781012630777</v>
+        <v>0.8247781012630776</v>
       </c>
     </row>
     <row r="8239" spans="1:2">
@@ -66327,7 +66327,7 @@
         <v>8248</v>
       </c>
       <c r="B8248">
-        <v>0.2853802684647943</v>
+        <v>0.2853802684647942</v>
       </c>
     </row>
     <row r="8249" spans="1:2">
@@ -66351,7 +66351,7 @@
         <v>8251</v>
       </c>
       <c r="B8251">
-        <v>1.249698869507776</v>
+        <v>1.249698869507775</v>
       </c>
     </row>
     <row r="8252" spans="1:2">
@@ -66455,7 +66455,7 @@
         <v>8264</v>
       </c>
       <c r="B8264">
-        <v>0.9355091318004938</v>
+        <v>0.9355091318004936</v>
       </c>
     </row>
     <row r="8265" spans="1:2">
@@ -66615,7 +66615,7 @@
         <v>8284</v>
       </c>
       <c r="B8284">
-        <v>0.8805114206853056</v>
+        <v>0.8805114206853055</v>
       </c>
     </row>
     <row r="8285" spans="1:2">
@@ -66639,7 +66639,7 @@
         <v>8287</v>
       </c>
       <c r="B8287">
-        <v>0.932566698572334</v>
+        <v>0.9325666985723338</v>
       </c>
     </row>
     <row r="8288" spans="1:2">
@@ -66647,7 +66647,7 @@
         <v>8288</v>
       </c>
       <c r="B8288">
-        <v>0.8566349231655659</v>
+        <v>0.8566349231655658</v>
       </c>
     </row>
     <row r="8289" spans="1:2">
@@ -66807,7 +66807,7 @@
         <v>8308</v>
       </c>
       <c r="B8308">
-        <v>0.7544557055362878</v>
+        <v>0.7544557055362877</v>
       </c>
     </row>
     <row r="8309" spans="1:2">
@@ -66847,7 +66847,7 @@
         <v>8313</v>
       </c>
       <c r="B8313">
-        <v>0.0419613251734541</v>
+        <v>0.041961325173454</v>
       </c>
     </row>
     <row r="8314" spans="1:2">
@@ -66935,7 +66935,7 @@
         <v>8324</v>
       </c>
       <c r="B8324">
-        <v>1.369878510331634</v>
+        <v>1.369878510331633</v>
       </c>
     </row>
     <row r="8325" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>0.8746763763055583</v>
+        <v>0.8746763763055582</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67063,7 +67063,7 @@
         <v>8340</v>
       </c>
       <c r="B8340">
-        <v>0.3539360319705335</v>
+        <v>0.3539360319705334</v>
       </c>
     </row>
     <row r="8341" spans="1:2">
@@ -67135,7 +67135,7 @@
         <v>8349</v>
       </c>
       <c r="B8349">
-        <v>2.760837620474178</v>
+        <v>2.760837620474177</v>
       </c>
     </row>
     <row r="8350" spans="1:2">
@@ -67207,7 +67207,7 @@
         <v>8358</v>
       </c>
       <c r="B8358">
-        <v>0.8013324181701701</v>
+        <v>0.80133241817017</v>
       </c>
     </row>
     <row r="8359" spans="1:2">
@@ -67279,7 +67279,7 @@
         <v>8367</v>
       </c>
       <c r="B8367">
-        <v>8.556003823990913</v>
+        <v>8.556003823990912</v>
       </c>
     </row>
     <row r="8368" spans="1:2">
@@ -67287,7 +67287,7 @@
         <v>8368</v>
       </c>
       <c r="B8368">
-        <v>5.048090026733941</v>
+        <v>5.04809002673394</v>
       </c>
     </row>
     <row r="8369" spans="1:2">
@@ -67383,7 +67383,7 @@
         <v>8380</v>
       </c>
       <c r="B8380">
-        <v>0.9261689577983566</v>
+        <v>0.9261689577983564</v>
       </c>
     </row>
     <row r="8381" spans="1:2">
@@ -67399,7 +67399,7 @@
         <v>8382</v>
       </c>
       <c r="B8382">
-        <v>0.8391561664198033</v>
+        <v>0.8391561664198032</v>
       </c>
     </row>
     <row r="8383" spans="1:2">
@@ -67615,7 +67615,7 @@
         <v>8409</v>
       </c>
       <c r="B8409">
-        <v>0.4240532779702604</v>
+        <v>0.4240532779702603</v>
       </c>
     </row>
     <row r="8410" spans="1:2">
@@ -67687,7 +67687,7 @@
         <v>8418</v>
       </c>
       <c r="B8418">
-        <v>0.6315241276593999</v>
+        <v>0.6315241276593998</v>
       </c>
     </row>
     <row r="8419" spans="1:2">
@@ -67719,7 +67719,7 @@
         <v>8422</v>
       </c>
       <c r="B8422">
-        <v>3.92554002734939</v>
+        <v>3.925540027349389</v>
       </c>
     </row>
     <row r="8423" spans="1:2">
@@ -67735,7 +67735,7 @@
         <v>8424</v>
       </c>
       <c r="B8424">
-        <v>2.212047447028876</v>
+        <v>2.212047447028875</v>
       </c>
     </row>
     <row r="8425" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>1.236513603478402</v>
+        <v>1.236513603478401</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>0.4507901488273349</v>
+        <v>0.4507901488273348</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -68015,7 +68015,7 @@
         <v>8459</v>
       </c>
       <c r="B8459">
-        <v>0.3168771991318064</v>
+        <v>0.3168771991318063</v>
       </c>
     </row>
     <row r="8460" spans="1:2">
@@ -68055,7 +68055,7 @@
         <v>8464</v>
       </c>
       <c r="B8464">
-        <v>0.5875839868329045</v>
+        <v>0.5875839868329044</v>
       </c>
     </row>
     <row r="8465" spans="1:2">
@@ -68095,7 +68095,7 @@
         <v>8469</v>
       </c>
       <c r="B8469">
-        <v>3.014264939735803</v>
+        <v>3.014264939735802</v>
       </c>
     </row>
     <row r="8470" spans="1:2">
@@ -68167,7 +68167,7 @@
         <v>8478</v>
       </c>
       <c r="B8478">
-        <v>1.041504134353143</v>
+        <v>1.041504134353142</v>
       </c>
     </row>
     <row r="8479" spans="1:2">
@@ -68231,7 +68231,7 @@
         <v>8486</v>
       </c>
       <c r="B8486">
-        <v>0.5825490263887025</v>
+        <v>0.5825490263887024</v>
       </c>
     </row>
     <row r="8487" spans="1:2">
@@ -68295,7 +68295,7 @@
         <v>8494</v>
       </c>
       <c r="B8494">
-        <v>2.390299114163479</v>
+        <v>2.390299114163478</v>
       </c>
     </row>
     <row r="8495" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>0.796540706688057</v>
+        <v>0.7965407066880569</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68559,7 +68559,7 @@
         <v>8527</v>
       </c>
       <c r="B8527">
-        <v>0.6856690020520835</v>
+        <v>0.6856690020520834</v>
       </c>
     </row>
     <row r="8528" spans="1:2">
@@ -68895,7 +68895,7 @@
         <v>8569</v>
       </c>
       <c r="B8569">
-        <v>0.8236849462888709</v>
+        <v>0.8236849462888708</v>
       </c>
     </row>
     <row r="8570" spans="1:2">
@@ -68911,7 +68911,7 @@
         <v>8571</v>
       </c>
       <c r="B8571">
-        <v>0.6358088262446288</v>
+        <v>0.6358088262446286</v>
       </c>
     </row>
     <row r="8572" spans="1:2">
@@ -68935,7 +68935,7 @@
         <v>8574</v>
       </c>
       <c r="B8574">
-        <v>0.6148835540842088</v>
+        <v>0.6148835540842087</v>
       </c>
     </row>
     <row r="8575" spans="1:2">
@@ -69103,7 +69103,7 @@
         <v>8595</v>
       </c>
       <c r="B8595">
-        <v>0.6486482684483824</v>
+        <v>0.6486482684483823</v>
       </c>
     </row>
     <row r="8596" spans="1:2">
@@ -69143,7 +69143,7 @@
         <v>8600</v>
       </c>
       <c r="B8600">
-        <v>0.7321295538110666</v>
+        <v>0.7321295538110665</v>
       </c>
     </row>
     <row r="8601" spans="1:2">
@@ -69207,7 +69207,7 @@
         <v>8608</v>
       </c>
       <c r="B8608">
-        <v>0.9426454115918976</v>
+        <v>0.9426454115918974</v>
       </c>
     </row>
     <row r="8609" spans="1:2">
@@ -69391,7 +69391,7 @@
         <v>8631</v>
       </c>
       <c r="B8631">
-        <v>0.1071766649805313</v>
+        <v>0.1071766649805312</v>
       </c>
     </row>
     <row r="8632" spans="1:2">
@@ -69423,7 +69423,7 @@
         <v>8635</v>
       </c>
       <c r="B8635">
-        <v>0.8688589161881306</v>
+        <v>0.8688589161881305</v>
       </c>
     </row>
     <row r="8636" spans="1:2">
@@ -69439,7 +69439,7 @@
         <v>8637</v>
       </c>
       <c r="B8637">
-        <v>2.30616428038458</v>
+        <v>2.306164280384579</v>
       </c>
     </row>
     <row r="8638" spans="1:2">
@@ -69447,7 +69447,7 @@
         <v>8638</v>
       </c>
       <c r="B8638">
-        <v>2.402886515273984</v>
+        <v>2.402886515273983</v>
       </c>
     </row>
     <row r="8639" spans="1:2">
@@ -69503,7 +69503,7 @@
         <v>8645</v>
       </c>
       <c r="B8645">
-        <v>0.8734835771782066</v>
+        <v>0.8734835771782065</v>
       </c>
     </row>
     <row r="8646" spans="1:2">
@@ -69567,7 +69567,7 @@
         <v>8653</v>
       </c>
       <c r="B8653">
-        <v>2.71205301537861</v>
+        <v>2.712053015378609</v>
       </c>
     </row>
     <row r="8654" spans="1:2">
@@ -69583,7 +69583,7 @@
         <v>8655</v>
       </c>
       <c r="B8655">
-        <v>2.340995773329481</v>
+        <v>2.34099577332948</v>
       </c>
     </row>
     <row r="8656" spans="1:2">
@@ -69919,7 +69919,7 @@
         <v>8697</v>
       </c>
       <c r="B8697">
-        <v>0.4729140815358799</v>
+        <v>0.4729140815358798</v>
       </c>
     </row>
     <row r="8698" spans="1:2">
@@ -69991,7 +69991,7 @@
         <v>8706</v>
       </c>
       <c r="B8706">
-        <v>0.6741073495768934</v>
+        <v>0.6741073495768933</v>
       </c>
     </row>
     <row r="8707" spans="1:2">
@@ -70175,7 +70175,7 @@
         <v>8729</v>
       </c>
       <c r="B8729">
-        <v>5.310359299231979</v>
+        <v>5.310359299231978</v>
       </c>
     </row>
     <row r="8730" spans="1:2">
@@ -70239,7 +70239,7 @@
         <v>8737</v>
       </c>
       <c r="B8737">
-        <v>2.205954500135106</v>
+        <v>2.205954500135105</v>
       </c>
     </row>
     <row r="8738" spans="1:2">
